--- a/ext/activity_manager/activity_manager.xlsx
+++ b/ext/activity_manager/activity_manager.xlsx
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="658">
   <si>
     <t>Activity / Action</t>
   </si>
@@ -693,36 +693,36 @@
     <t>You and {USER} are now friends</t>
   </si>
   <si>
+    <t>foaf + actor</t>
+  </si>
+  <si>
+    <t>{ACTOR} and {USER} are now friends</t>
+  </si>
+  <si>
+    <t>TODO-Plural-Push-1</t>
+  </si>
+  <si>
+    <t>TODO-Aggregate-Notify-1</t>
+  </si>
+  <si>
+    <t>TODO-Aggregate-Push-1</t>
+  </si>
+  <si>
+    <t>friendship</t>
+  </si>
+  <si>
+    <t>isRequestee?</t>
+  </si>
+  <si>
+    <t>You accepted the friend request from: {USER}</t>
+  </si>
+  <si>
+    <t>You and {ACTOR} are now friends</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>{ACTOR} and {USER} are now friends</t>
-  </si>
-  <si>
-    <t>TODO-Plural-Push-1</t>
-  </si>
-  <si>
-    <t>TODO-Aggregate-Notify-1</t>
-  </si>
-  <si>
-    <t>TODO-Aggregate-Push-1</t>
-  </si>
-  <si>
-    <t>friendship</t>
-  </si>
-  <si>
-    <t>isRequestee?</t>
-  </si>
-  <si>
-    <t>You accepted the friend request from: {USER}</t>
-  </si>
-  <si>
-    <t>You and {ACTOR} are now friends</t>
-  </si>
-  <si>
-    <t>foaf</t>
-  </si>
-  <si>
     <t>{USER} and {ACTOR} are now friends</t>
   </si>
   <si>
@@ -735,7 +735,7 @@
     <t>membership</t>
   </si>
   <si>
-    <t>You joined the slot group: {NAME}</t>
+    <t>You subscribed to the slot group: {NAME}</t>
   </si>
   <si>
     <t>owner</t>
@@ -900,7 +900,7 @@
     <t>TODO-Plural-Push-6</t>
   </si>
   <si>
-    <t>update existing metaslot (start time)</t>
+    <t>update existing metaslot: start time</t>
   </si>
   <si>
     <t>0.9.3</t>
@@ -915,7 +915,7 @@
     <t>{ACTOR} changed the start time of the Slot: {TITLE}</t>
   </si>
   <si>
-    <t>update existing metaslot (location)</t>
+    <t>update existing metaslot: location</t>
   </si>
   <si>
     <t>location</t>
@@ -939,6 +939,9 @@
     <t>You deleted the friendship with: {USER}</t>
   </si>
   <si>
+    <t>{ACTOR} has deleted your friendship</t>
+  </si>
+  <si>
     <t>reject an offered friendship</t>
   </si>
   <si>
@@ -946,6 +949,9 @@
   </si>
   <si>
     <t>You rejected a friend request from: {USER}</t>
+  </si>
+  <si>
+    <t>{ACTOR} has rejected your friendship request</t>
   </si>
   <si>
     <t>user was added to a slot through a tag (indirect)</t>
@@ -2038,6 +2044,9 @@
   </si>
   <si>
     <t>Slot from Bert</t>
+  </si>
+  <si>
+    <t>foaf</t>
   </si>
   <si>
     <t>Slot from Chris</t>
@@ -4665,9 +4674,15 @@
       <c r="M23" s="32"/>
       <c r="N23" s="32"/>
       <c r="O23" s="29"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
+      <c r="P23" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q23" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="R23" s="30" t="s">
+        <v>251</v>
+      </c>
       <c r="S23" s="29"/>
       <c r="T23" s="32"/>
       <c r="U23" s="33"/>
@@ -4683,7 +4698,7 @@
     </row>
     <row r="24">
       <c r="A24" s="23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>248</v>
@@ -4692,13 +4707,13 @@
         <v>164</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H24" s="28" t="s">
         <v>25</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J24" s="32"/>
       <c r="K24" s="29"/>
@@ -4706,9 +4721,15 @@
       <c r="M24" s="32"/>
       <c r="N24" s="32"/>
       <c r="O24" s="29"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="42"/>
+      <c r="P24" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q24" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="R24" s="30" t="s">
+        <v>255</v>
+      </c>
       <c r="S24" s="29"/>
       <c r="T24" s="32"/>
       <c r="U24" s="33"/>
@@ -4724,7 +4745,7 @@
     </row>
     <row r="25">
       <c r="A25" s="23" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>248</v>
@@ -4733,7 +4754,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F25" s="27"/>
       <c r="G25" s="27" t="s">
@@ -4743,61 +4764,61 @@
         <v>25</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K25" s="29"/>
       <c r="L25" s="23" t="s">
         <v>200</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N25" s="30" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O25" s="29"/>
       <c r="P25" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q25" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="Q25" s="30" t="s">
-        <v>258</v>
-      </c>
       <c r="R25" s="30" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="S25" s="29"/>
       <c r="T25" s="23" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="U25" s="30" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="V25" s="30" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="W25" s="30" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="X25" s="30" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Y25" s="32"/>
       <c r="Z25" s="32"/>
       <c r="AA25" s="30" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AB25" s="30" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AC25" s="32"/>
       <c r="AD25" s="32"/>
     </row>
     <row r="26">
       <c r="A26" s="36" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>131</v>
@@ -4812,10 +4833,10 @@
         <v>25</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J26" s="39" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K26" s="29"/>
       <c r="L26" s="32"/>
@@ -4840,7 +4861,7 @@
     </row>
     <row r="27">
       <c r="A27" s="36" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>131</v>
@@ -4849,16 +4870,16 @@
         <v>181</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H27" s="28" t="s">
         <v>25</v>
       </c>
       <c r="I27" s="39" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J27" s="39" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K27" s="29"/>
       <c r="L27" s="32"/>
@@ -4883,7 +4904,7 @@
     </row>
     <row r="28">
       <c r="A28" s="36" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>131</v>
@@ -4892,7 +4913,7 @@
         <v>181</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="27" t="s">
@@ -4902,10 +4923,10 @@
         <v>25</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J28" s="39" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K28" s="29"/>
       <c r="L28" s="32"/>
@@ -4930,16 +4951,16 @@
     </row>
     <row r="29">
       <c r="A29" s="23" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C29" s="45" t="s">
         <v>181</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27" t="s">
@@ -4949,7 +4970,7 @@
         <v>25</v>
       </c>
       <c r="I29" s="27" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J29" s="32"/>
       <c r="K29" s="29"/>
@@ -4961,10 +4982,10 @@
         <v>184</v>
       </c>
       <c r="Q29" s="30" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="R29" s="31" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="S29" s="29"/>
       <c r="T29" s="32"/>
@@ -4981,80 +5002,80 @@
     </row>
     <row r="30">
       <c r="A30" s="46" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C30" s="45" t="s">
         <v>181</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H30" s="28" t="s">
         <v>25</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K30" s="29"/>
       <c r="L30" s="23" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M30" s="27" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N30" s="27" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O30" s="29"/>
       <c r="P30" s="23" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q30" s="27" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="R30" s="41" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="S30" s="29"/>
       <c r="T30" s="23" t="s">
         <v>187</v>
       </c>
       <c r="U30" s="30" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="V30" s="30" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="W30" s="30" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="X30" s="30" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Y30" s="32"/>
       <c r="Z30" s="32"/>
       <c r="AA30" s="30" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AB30" s="30" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AC30" s="32"/>
       <c r="AD30" s="32"/>
     </row>
     <row r="31">
       <c r="A31" s="46" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>195</v>
@@ -5063,80 +5084,80 @@
         <v>181</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="27" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H31" s="28" t="s">
         <v>25</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K31" s="29"/>
       <c r="L31" s="23" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N31" s="27" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O31" s="29"/>
       <c r="P31" s="23" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q31" s="27" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="R31" s="41" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="S31" s="29"/>
       <c r="T31" s="23" t="s">
         <v>187</v>
       </c>
       <c r="U31" s="30" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="V31" s="30" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="W31" s="30" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="X31" s="30" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Y31" s="32"/>
       <c r="Z31" s="32"/>
       <c r="AA31" s="30" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AB31" s="30" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AC31" s="32"/>
       <c r="AD31" s="32"/>
     </row>
     <row r="32">
       <c r="A32" s="46" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C32" s="45" t="s">
         <v>181</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
@@ -5144,10 +5165,10 @@
         <v>25</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K32" s="29"/>
       <c r="L32" s="32"/>
@@ -5172,7 +5193,7 @@
     </row>
     <row r="33">
       <c r="A33" s="46" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>131</v>
@@ -5187,10 +5208,10 @@
         <v>25</v>
       </c>
       <c r="I33" s="27" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K33" s="29"/>
       <c r="L33" s="32"/>
@@ -5202,13 +5223,13 @@
       <c r="R33" s="33"/>
       <c r="S33" s="29"/>
       <c r="T33" s="23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="U33" s="30" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="V33" s="30" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="W33" s="33"/>
       <c r="X33" s="33"/>
@@ -5290,7 +5311,7 @@
     </row>
     <row r="38">
       <c r="A38" s="48" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C38" s="45"/>
       <c r="D38" s="44"/>
@@ -5308,12 +5329,12 @@
     </row>
     <row r="41">
       <c r="A41" s="49" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="23" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>131</v>
@@ -5322,7 +5343,7 @@
         <v>23</v>
       </c>
       <c r="D42" s="44" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
@@ -5330,7 +5351,7 @@
     </row>
     <row r="43">
       <c r="A43" s="23" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B43" s="24" t="s">
         <v>131</v>
@@ -5339,7 +5360,7 @@
         <v>132</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
@@ -5347,7 +5368,7 @@
     </row>
     <row r="44">
       <c r="A44" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>131</v>
@@ -5356,7 +5377,7 @@
         <v>115</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
@@ -5364,13 +5385,13 @@
     </row>
     <row r="45">
       <c r="A45" s="23" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>131</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D45" s="44" t="s">
         <v>44</v>
@@ -5381,7 +5402,7 @@
     </row>
     <row r="46">
       <c r="A46" s="23" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B46" s="24" t="s">
         <v>131</v>
@@ -5398,7 +5419,7 @@
     </row>
     <row r="47">
       <c r="A47" s="23" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B47" s="24" t="s">
         <v>131</v>
@@ -5415,7 +5436,7 @@
     </row>
     <row r="48">
       <c r="A48" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B48" s="24" t="s">
         <v>131</v>
@@ -5432,7 +5453,7 @@
     </row>
     <row r="49">
       <c r="A49" s="23" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B49" s="24" t="s">
         <v>131</v>
@@ -5441,7 +5462,7 @@
         <v>115</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
@@ -5449,7 +5470,7 @@
     </row>
     <row r="50">
       <c r="A50" s="23" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B50" s="24" t="s">
         <v>131</v>
@@ -5458,7 +5479,7 @@
         <v>164</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
@@ -5466,7 +5487,7 @@
     </row>
     <row r="51">
       <c r="A51" s="23" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B51" s="24" t="s">
         <v>131</v>
@@ -5475,7 +5496,7 @@
         <v>181</v>
       </c>
       <c r="D51" s="44" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
@@ -5483,7 +5504,7 @@
     </row>
     <row r="52">
       <c r="A52" s="23" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B52" s="24" t="s">
         <v>131</v>
@@ -5492,7 +5513,7 @@
         <v>164</v>
       </c>
       <c r="D52" s="44" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
@@ -5500,7 +5521,7 @@
     </row>
     <row r="53">
       <c r="A53" s="23" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B53" s="24" t="s">
         <v>131</v>
@@ -5509,7 +5530,7 @@
         <v>23</v>
       </c>
       <c r="D53" s="44" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
@@ -5517,7 +5538,7 @@
     </row>
     <row r="54">
       <c r="A54" s="23" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>131</v>
@@ -5526,7 +5547,7 @@
         <v>164</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
@@ -5534,7 +5555,7 @@
     </row>
     <row r="55">
       <c r="A55" s="23" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B55" s="24" t="s">
         <v>131</v>
@@ -5543,7 +5564,7 @@
         <v>164</v>
       </c>
       <c r="D55" s="44" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
@@ -5564,40 +5585,40 @@
     </row>
     <row r="58">
       <c r="A58" s="49" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="53" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="53" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="49" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="49" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="54" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="23" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -5610,7 +5631,7 @@
     </row>
     <row r="68">
       <c r="A68" s="23" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -5623,7 +5644,7 @@
     </row>
     <row r="69">
       <c r="A69" s="23" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
@@ -5636,7 +5657,7 @@
     </row>
     <row r="70">
       <c r="A70" s="23" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
@@ -5649,7 +5670,7 @@
     </row>
     <row r="71">
       <c r="A71" s="23" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
@@ -5666,10 +5687,10 @@
     </row>
     <row r="73">
       <c r="A73" s="54" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B73" s="54" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
@@ -5679,7 +5700,7 @@
     </row>
     <row r="74">
       <c r="A74" s="23" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B74" s="23"/>
       <c r="D74" s="27"/>
@@ -5690,10 +5711,10 @@
     </row>
     <row r="75">
       <c r="A75" s="23" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B75" s="46" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
@@ -5704,7 +5725,7 @@
     </row>
     <row r="76">
       <c r="A76" s="55" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B76" s="23"/>
       <c r="D76" s="27"/>
@@ -5742,10 +5763,10 @@
     </row>
     <row r="80">
       <c r="A80" s="54" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B80" s="54" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D80" s="27"/>
       <c r="E80" s="27"/>
@@ -5755,7 +5776,7 @@
     </row>
     <row r="81">
       <c r="A81" s="23" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B81" s="23"/>
       <c r="D81" s="27"/>
@@ -5766,7 +5787,7 @@
     </row>
     <row r="82">
       <c r="A82" s="23" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B82" s="23"/>
       <c r="D82" s="27"/>
@@ -5777,7 +5798,7 @@
     </row>
     <row r="83">
       <c r="A83" s="23" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B83" s="23"/>
       <c r="D83" s="27"/>
@@ -5788,7 +5809,7 @@
     </row>
     <row r="84">
       <c r="A84" s="23" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B84" s="23"/>
       <c r="D84" s="27"/>
@@ -5799,7 +5820,7 @@
     </row>
     <row r="85">
       <c r="A85" s="23" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B85" s="23"/>
       <c r="D85" s="27"/>
@@ -5810,7 +5831,7 @@
     </row>
     <row r="86">
       <c r="A86" s="55" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B86" s="23"/>
       <c r="D86" s="27"/>
@@ -5839,10 +5860,10 @@
     </row>
     <row r="89">
       <c r="A89" s="54" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B89" s="54" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
@@ -5852,7 +5873,7 @@
     </row>
     <row r="90">
       <c r="A90" s="23" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B90" s="23"/>
       <c r="D90" s="27"/>
@@ -5863,7 +5884,7 @@
     </row>
     <row r="91">
       <c r="A91" s="23" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B91" s="23"/>
       <c r="D91" s="27"/>
@@ -5874,7 +5895,7 @@
     </row>
     <row r="92">
       <c r="A92" s="55" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B92" s="23"/>
       <c r="D92" s="27"/>
@@ -5902,33 +5923,33 @@
     </row>
     <row r="96">
       <c r="A96" s="54" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B96" s="54" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="23" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B97" s="23"/>
     </row>
     <row r="98">
       <c r="A98" s="23" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B98" s="23"/>
     </row>
     <row r="99">
       <c r="A99" s="23" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B99" s="23"/>
     </row>
     <row r="100">
       <c r="A100" s="23" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B100" s="23"/>
     </row>
@@ -5938,15 +5959,15 @@
     </row>
     <row r="102">
       <c r="A102" s="54" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B102" s="54" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="23" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B103" s="23"/>
     </row>
@@ -5964,18 +5985,18 @@
     </row>
     <row r="107">
       <c r="A107" s="54" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B107" s="54" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="23" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B108" s="46" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="109">
@@ -6132,7 +6153,7 @@
         <v>47</v>
       </c>
       <c r="R2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3">
@@ -6308,13 +6329,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="57" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K1" s="57" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="N1" s="57" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2">
@@ -6402,31 +6423,31 @@
         <v>26</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P4" s="27" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5">
@@ -6448,31 +6469,31 @@
         <v>45</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6">
@@ -6491,10 +6512,10 @@
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="35" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
@@ -6524,31 +6545,31 @@
         <v>67</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N7" s="68" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P7" s="35" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8">
@@ -6570,31 +6591,31 @@
         <v>84</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="N8" s="68" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9">
@@ -6616,31 +6637,31 @@
         <v>100</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="N9" s="68" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10">
@@ -6662,31 +6683,31 @@
         <v>116</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="N10" s="68" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11">
@@ -6708,36 +6729,36 @@
         <v>133</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="N11" s="68" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="23" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B12" s="24">
         <v>0.8</v>
@@ -6754,31 +6775,31 @@
         <v>150</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P12" s="27" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13">
@@ -6797,26 +6818,26 @@
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="35" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="27" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K13" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="L13" s="27" t="s">
         <v>453</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>451</v>
       </c>
       <c r="M13" s="39" t="s">
         <v>171</v>
       </c>
       <c r="N13" s="39" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="O13" s="39" t="s">
         <v>172</v>
@@ -6827,7 +6848,7 @@
     </row>
     <row r="14">
       <c r="A14" s="23" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B14" s="24">
         <v>0.8</v>
@@ -6841,32 +6862,32 @@
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="35" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="27" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L14" s="39" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M14" s="39" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="N14" s="39" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="O14" s="39" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="P14" s="39" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15">
@@ -6889,13 +6910,13 @@
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="27" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K15" s="39" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L15" s="39" t="s">
         <v>213</v>
@@ -6904,7 +6925,7 @@
         <v>214</v>
       </c>
       <c r="N15" s="39" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O15" s="39" t="s">
         <v>206</v>
@@ -6915,7 +6936,7 @@
     </row>
     <row r="16">
       <c r="A16" s="23" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B16" s="43">
         <v>0.83</v>
@@ -6933,7 +6954,7 @@
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
       <c r="K16" s="39" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L16" s="39" t="s">
         <v>220</v>
@@ -6942,7 +6963,7 @@
         <v>221</v>
       </c>
       <c r="N16" s="39" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O16" s="39" t="s">
         <v>215</v>
@@ -6965,17 +6986,17 @@
         <v>225</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H17" s="32"/>
       <c r="I17" s="27" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L17" s="39" t="s">
         <v>228</v>
@@ -6984,7 +7005,7 @@
         <v>229</v>
       </c>
       <c r="N17" s="39" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O17" s="39" t="s">
         <v>222</v>
@@ -6995,7 +7016,7 @@
     </row>
     <row r="18">
       <c r="A18" s="23" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B18" s="43">
         <v>0.83</v>
@@ -7012,13 +7033,13 @@
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="27" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K18" s="39" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L18" s="39" t="s">
         <v>236</v>
@@ -7027,7 +7048,7 @@
         <v>237</v>
       </c>
       <c r="N18" s="39" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O18" s="39" t="s">
         <v>230</v>
@@ -7038,7 +7059,7 @@
     </row>
     <row r="19">
       <c r="A19" s="23" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>131</v>
@@ -7047,19 +7068,19 @@
         <v>23</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J19" s="39" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
@@ -7082,7 +7103,7 @@
         <v>249</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
@@ -7096,7 +7117,7 @@
     </row>
     <row r="21">
       <c r="A21" s="23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>131</v>
@@ -7105,10 +7126,10 @@
         <v>164</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
@@ -7122,7 +7143,7 @@
     </row>
     <row r="22">
       <c r="A22" s="23" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>131</v>
@@ -7131,19 +7152,19 @@
         <v>23</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J22" s="39" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K22" s="32"/>
       <c r="L22" s="32"/>
@@ -7154,7 +7175,7 @@
     </row>
     <row r="23">
       <c r="A23" s="23" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>131</v>
@@ -7163,27 +7184,27 @@
         <v>164</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
       <c r="N23" s="27" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="O23" s="32"/>
       <c r="P23" s="32"/>
@@ -7220,7 +7241,7 @@
     </row>
     <row r="26">
       <c r="A26" s="48" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C26" s="45"/>
       <c r="D26" s="44"/>
@@ -8752,7 +8773,7 @@
       </c>
       <c r="B144" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!I15, "{", "%{")&amp;""""</f>
-        <v>"You joined the slot group: %{NAME}"</v>
+        <v>"You subscribed to the slot group: %{NAME}"</v>
       </c>
     </row>
     <row r="145">
@@ -9732,7 +9753,7 @@
       </c>
       <c r="B250" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q23, "{", "%{")&amp;""""</f>
-        <v>""</v>
+        <v>"%{ACTOR} has deleted your friendship"</v>
       </c>
     </row>
     <row r="251">
@@ -9792,7 +9813,7 @@
       </c>
       <c r="B256" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!R23, "{", "%{")&amp;""""</f>
-        <v>""</v>
+        <v>"%{ACTOR} has deleted your friendship"</v>
       </c>
     </row>
     <row r="257">
@@ -9852,7 +9873,7 @@
       </c>
       <c r="B263" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q24, "{", "%{")&amp;""""</f>
-        <v>""</v>
+        <v>"%{ACTOR} has rejected your friendship request"</v>
       </c>
     </row>
     <row r="264">
@@ -9912,7 +9933,7 @@
       </c>
       <c r="B269" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!R24, "{", "%{")&amp;""""</f>
-        <v>""</v>
+        <v>"%{ACTOR} has rejected your friendship request"</v>
       </c>
     </row>
     <row r="270">
@@ -13391,7 +13412,7 @@
         <v>47</v>
       </c>
       <c r="R2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Z2" s="70" t="str">
         <f t="shared" si="6"/>
@@ -13703,7 +13724,7 @@
         <v>47</v>
       </c>
       <c r="R7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Z7" s="70" t="str">
         <f t="shared" si="6"/>
@@ -14006,7 +14027,7 @@
         <v>47</v>
       </c>
       <c r="R12" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="S12" t="s">
         <v>25</v>
@@ -14312,7 +14333,7 @@
         <v>47</v>
       </c>
       <c r="R17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Z17" s="70" t="str">
         <f t="shared" si="6"/>
@@ -14621,7 +14642,7 @@
         <v>47</v>
       </c>
       <c r="R22" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Z22" s="70" t="str">
         <f t="shared" si="6"/>
@@ -14930,7 +14951,7 @@
         <v>47</v>
       </c>
       <c r="R27" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Z27" s="70" t="str">
         <f t="shared" si="6"/>
@@ -15239,7 +15260,7 @@
         <v>47</v>
       </c>
       <c r="R32" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Z32" s="70" t="str">
         <f t="shared" si="6"/>
@@ -15548,7 +15569,7 @@
         <v>47</v>
       </c>
       <c r="R37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Z37" s="70" t="str">
         <f t="shared" si="6"/>
@@ -15857,7 +15878,7 @@
         <v>47</v>
       </c>
       <c r="R42" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Z42" s="70" t="str">
         <f t="shared" si="6"/>
@@ -16107,11 +16128,11 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" si="3"/>
-        <v>friends</v>
+        <v>foaf</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" ref="D47:L47" si="68">if(ISBLANK(P47), "", " ")&amp;if(ISBLANK(P47), "", P47)</f>
-        <v/>
+        <v> actor</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="68"/>
@@ -16150,12 +16171,15 @@
         <v>),</v>
       </c>
       <c r="O47" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(ISTEXT('Definition (EN)'!T13), SPLIT('Definition (EN)'!T13, "" + "", TRUE), """")"),"friends")</f>
-        <v>friends</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("if(ISTEXT('Definition (EN)'!T13), SPLIT('Definition (EN)'!T13, "" + "", TRUE), """")"),"foaf")</f>
+        <v>foaf</v>
+      </c>
+      <c r="P47" t="s">
+        <v>25</v>
       </c>
       <c r="Z47" s="70" t="str">
         <f t="shared" si="6"/>
-        <v>user_accept_activity: %w(friends),</v>
+        <v>user_accept_activity: %w(foaf actor),</v>
       </c>
     </row>
     <row r="48">
@@ -16401,7 +16425,7 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" si="3"/>
-        <v>foaf</v>
+        <v>friends</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" ref="D52:L52" si="75">if(ISBLANK(P52), "", " ")&amp;if(ISBLANK(P52), "", P52)</f>
@@ -16444,12 +16468,12 @@
         <v>),</v>
       </c>
       <c r="O52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(ISTEXT('Definition (EN)'!T14), SPLIT('Definition (EN)'!T14, "" + "", TRUE), """")"),"foaf")</f>
-        <v>foaf</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("if(ISTEXT('Definition (EN)'!T14), SPLIT('Definition (EN)'!T14, "" + "", TRUE), """")"),"friends")</f>
+        <v>friends</v>
       </c>
       <c r="Z52" s="70" t="str">
         <f t="shared" si="6"/>
-        <v>user_friendship_activity: %w(foaf),</v>
+        <v>user_friendship_activity: %w(friends),</v>
       </c>
     </row>
     <row r="53">
@@ -16702,7 +16726,7 @@
         <v>joiners</v>
       </c>
       <c r="P57" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Z57" s="70" t="str">
         <f t="shared" si="6"/>
@@ -16999,7 +17023,7 @@
         <v>joiners</v>
       </c>
       <c r="P62" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Z62" s="70" t="str">
         <f t="shared" si="6"/>
@@ -19078,7 +19102,7 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" si="81"/>
-        <v/>
+        <v>user</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" ref="D98:L98" si="140">if(ISBLANK(P98), "", " ")&amp;if(ISBLANK(P98), "", P98)</f>
@@ -19121,12 +19145,12 @@
         <v>),</v>
       </c>
       <c r="O98" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(ISTEXT('Definition (EN)'!P23), SPLIT('Definition (EN)'!P23, "" + "", TRUE), """")"),"")</f>
-        <v/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("if(ISTEXT('Definition (EN)'!P23), SPLIT('Definition (EN)'!P23, "" + "", TRUE), """")"),"user")</f>
+        <v>user</v>
       </c>
       <c r="Z98" s="70" t="str">
         <f t="shared" si="6"/>
-        <v>user_unfriend_notify: [],</v>
+        <v>user_unfriend_notify: %w(user),</v>
       </c>
     </row>
     <row r="99">
@@ -19372,7 +19396,7 @@
       </c>
       <c r="C103" t="str">
         <f t="shared" si="81"/>
-        <v/>
+        <v>user</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" ref="D103:L103" si="147">if(ISBLANK(P103), "", " ")&amp;if(ISBLANK(P103), "", P103)</f>
@@ -19415,12 +19439,12 @@
         <v>),</v>
       </c>
       <c r="O103" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(ISTEXT('Definition (EN)'!P24), SPLIT('Definition (EN)'!P24, "" + "", TRUE), """")"),"")</f>
-        <v/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("if(ISTEXT('Definition (EN)'!P24), SPLIT('Definition (EN)'!P24, "" + "", TRUE), """")"),"user")</f>
+        <v>user</v>
       </c>
       <c r="Z103" s="70" t="str">
         <f t="shared" si="6"/>
-        <v>user_reject_notify: [],</v>
+        <v>user_reject_notify: %w(user),</v>
       </c>
     </row>
     <row r="104">
@@ -19651,10 +19675,10 @@
         <v>friends</v>
       </c>
       <c r="P107" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="Q107" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="R107" t="s">
         <v>47</v>
@@ -21133,7 +21157,7 @@
         <v>joiners</v>
       </c>
       <c r="P132" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Z132" s="70" t="str">
         <f t="shared" si="6"/>
@@ -21430,7 +21454,7 @@
         <v>joiners</v>
       </c>
       <c r="P137" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Z137" s="70" t="str">
         <f t="shared" si="6"/>
@@ -22188,12 +22212,12 @@
     </row>
     <row r="3">
       <c r="B3" s="75" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C3" s="76"/>
       <c r="D3" s="77"/>
       <c r="E3" s="78" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F3" s="79"/>
       <c r="G3" s="79"/>
@@ -22203,23 +22227,23 @@
       <c r="K3" s="79"/>
       <c r="L3" s="80"/>
       <c r="N3" s="81" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="O3" s="79"/>
       <c r="P3" s="79"/>
       <c r="Q3" s="79"/>
       <c r="R3" s="80"/>
       <c r="T3" s="82" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="U3" s="82" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="V3" s="82" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="W3" s="82" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4">
@@ -22227,39 +22251,39 @@
       <c r="C4" s="76"/>
       <c r="D4" s="68"/>
       <c r="E4" s="84" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F4" s="84" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G4" s="85"/>
       <c r="H4" s="84" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="I4" s="84" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="J4" s="85"/>
       <c r="K4" s="84" t="s">
+        <v>509</v>
+      </c>
+      <c r="L4" s="84" t="s">
         <v>507</v>
       </c>
-      <c r="L4" s="84" t="s">
-        <v>505</v>
-      </c>
       <c r="N4" s="86" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="O4" s="86" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="P4" s="86" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="Q4" s="86" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="R4" s="86" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="T4" s="87"/>
       <c r="U4" s="87"/>
@@ -22273,46 +22297,46 @@
       <c r="C5" s="89"/>
       <c r="D5" s="90"/>
       <c r="E5" s="41" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G5" s="91"/>
       <c r="H5" s="27" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J5" s="91"/>
       <c r="K5" s="27" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L5" s="30"/>
       <c r="N5" s="92" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="O5" s="92"/>
       <c r="P5" s="93" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="Q5" s="92"/>
       <c r="R5" s="94" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="S5" s="27"/>
       <c r="T5" s="95" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="U5" s="96" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="V5" s="95" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="W5" s="95" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6">
@@ -22325,22 +22349,22 @@
         <v>47</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G6" s="91"/>
       <c r="H6" s="27" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J6" s="91"/>
       <c r="K6" s="27" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L6" s="30"/>
       <c r="N6" s="98" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="O6" s="99"/>
       <c r="P6" s="98" t="s">
@@ -22348,21 +22372,21 @@
       </c>
       <c r="Q6" s="98"/>
       <c r="R6" s="98" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="S6" s="27"/>
       <c r="T6" s="31" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="U6" s="100"/>
       <c r="V6" s="100"/>
       <c r="W6" s="31" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="101" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C7" s="97"/>
       <c r="D7" s="102"/>
@@ -22386,7 +22410,7 @@
     </row>
     <row r="8">
       <c r="B8" s="107" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C8" s="97"/>
       <c r="D8" s="90"/>
@@ -22422,17 +22446,17 @@
         <v>131</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="U8" s="100"/>
       <c r="V8" s="100"/>
       <c r="W8" s="31" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="107" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C9" s="97"/>
       <c r="D9" s="90"/>
@@ -22451,7 +22475,7 @@
       </c>
       <c r="J9" s="104"/>
       <c r="K9" s="27" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L9" s="30"/>
       <c r="N9" s="98" t="s">
@@ -22463,25 +22487,25 @@
       </c>
       <c r="Q9" s="98"/>
       <c r="R9" s="108" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="S9" s="27"/>
       <c r="T9" s="31" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="U9" s="108" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="V9" s="108" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="W9" s="31" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="107" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="90"/>
@@ -22500,7 +22524,7 @@
       </c>
       <c r="J10" s="104"/>
       <c r="K10" s="27" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L10" s="30"/>
       <c r="N10" s="98" t="s">
@@ -22512,20 +22536,20 @@
       </c>
       <c r="Q10" s="98"/>
       <c r="R10" s="93" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="S10" s="27"/>
       <c r="T10" s="31" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="U10" s="96" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="V10" s="31" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="W10" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11">
@@ -22538,18 +22562,18 @@
         <v>211</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G11" s="91"/>
       <c r="H11" s="27" t="s">
         <v>211</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J11" s="91"/>
       <c r="K11" s="27" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L11" s="30"/>
       <c r="N11" s="31" t="s">
@@ -22561,7 +22585,7 @@
       </c>
       <c r="Q11" s="31"/>
       <c r="R11" s="31" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="T11" s="100"/>
       <c r="U11" s="100"/>
@@ -22578,18 +22602,18 @@
         <v>211</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G12" s="91"/>
       <c r="H12" s="27" t="s">
         <v>211</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J12" s="91"/>
       <c r="K12" s="27" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L12" s="30"/>
       <c r="N12" s="31" t="s">
@@ -22601,7 +22625,7 @@
       </c>
       <c r="Q12" s="31"/>
       <c r="R12" s="31" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="T12" s="100"/>
       <c r="U12" s="100"/>
@@ -22618,18 +22642,18 @@
         <v>211</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G13" s="91"/>
       <c r="H13" s="27" t="s">
         <v>211</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J13" s="91"/>
       <c r="K13" s="27" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L13" s="30"/>
       <c r="N13" s="31" t="s">
@@ -22641,7 +22665,7 @@
       </c>
       <c r="Q13" s="31"/>
       <c r="R13" s="31" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="T13" s="100"/>
       <c r="U13" s="100"/>
@@ -22658,18 +22682,18 @@
         <v>211</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G14" s="91"/>
       <c r="H14" s="27" t="s">
         <v>211</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J14" s="91"/>
       <c r="K14" s="27" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L14" s="30"/>
       <c r="N14" s="31" t="s">
@@ -22681,7 +22705,7 @@
       </c>
       <c r="Q14" s="31"/>
       <c r="R14" s="31" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="T14" s="100"/>
       <c r="U14" s="100"/>
@@ -22705,7 +22729,7 @@
       <c r="I15" s="112"/>
       <c r="J15" s="113"/>
       <c r="K15" s="112" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L15" s="114"/>
       <c r="N15" s="115" t="s">
@@ -22717,7 +22741,7 @@
       </c>
       <c r="Q15" s="115"/>
       <c r="R15" s="115" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="T15" s="100"/>
       <c r="U15" s="100"/>
@@ -22765,12 +22789,12 @@
     </row>
     <row r="17">
       <c r="B17" s="75" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C17" s="76"/>
       <c r="D17" s="77"/>
       <c r="E17" s="78" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F17" s="79"/>
       <c r="G17" s="79"/>
@@ -22780,7 +22804,7 @@
       <c r="K17" s="79"/>
       <c r="L17" s="80"/>
       <c r="N17" s="81" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="O17" s="79"/>
       <c r="P17" s="79"/>
@@ -22796,39 +22820,39 @@
       <c r="C18" s="76"/>
       <c r="D18" s="68"/>
       <c r="E18" s="84" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F18" s="84" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G18" s="85"/>
       <c r="H18" s="84" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="I18" s="84" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="J18" s="85"/>
       <c r="K18" s="84" t="s">
+        <v>509</v>
+      </c>
+      <c r="L18" s="84" t="s">
         <v>507</v>
       </c>
-      <c r="L18" s="84" t="s">
-        <v>505</v>
-      </c>
       <c r="N18" s="86" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="O18" s="86" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="P18" s="86" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="Q18" s="86" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="R18" s="86" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="T18" s="100"/>
       <c r="U18" s="100"/>
@@ -22837,17 +22861,17 @@
     </row>
     <row r="19">
       <c r="B19" s="88" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C19" s="107" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D19" s="102"/>
       <c r="E19" s="120" t="s">
         <v>47</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G19" s="104"/>
       <c r="H19" t="s">
@@ -22856,7 +22880,7 @@
       <c r="I19" s="27"/>
       <c r="J19" s="91"/>
       <c r="K19" s="27" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L19" s="30"/>
       <c r="N19" s="121" t="s">
@@ -22868,17 +22892,17 @@
       </c>
       <c r="Q19" s="100"/>
       <c r="R19" s="122" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="T19" s="31" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="U19" s="96" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="V19" s="31"/>
       <c r="W19" s="31" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20">
@@ -22891,14 +22915,14 @@
         <v>164</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G20" s="104"/>
       <c r="H20" t="s">
         <v>164</v>
       </c>
       <c r="I20" s="68" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="J20" s="104"/>
       <c r="K20" s="116"/>
@@ -22913,12 +22937,12 @@
       <c r="Q20" s="100"/>
       <c r="R20" s="106"/>
       <c r="T20" s="31" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="U20" s="100"/>
       <c r="V20" s="31"/>
       <c r="W20" s="124" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21">
@@ -22947,24 +22971,24 @@
     </row>
     <row r="22">
       <c r="B22" s="107" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C22" s="107" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D22" s="116"/>
       <c r="E22" s="120" t="s">
         <v>164</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G22" s="91"/>
       <c r="H22" t="s">
         <v>164</v>
       </c>
       <c r="I22" s="68" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J22" s="104"/>
       <c r="K22" s="125" t="s">
@@ -22974,16 +22998,16 @@
         <v>131</v>
       </c>
       <c r="N22" s="98" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="O22" s="99"/>
       <c r="P22" s="98" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="Q22" s="119"/>
       <c r="R22" s="106"/>
       <c r="T22" s="31" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="U22" s="31"/>
       <c r="V22" s="31"/>
@@ -22991,10 +23015,10 @@
     </row>
     <row r="23">
       <c r="B23" s="107" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C23" s="107" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D23" s="90"/>
       <c r="E23" s="120"/>
@@ -23003,7 +23027,7 @@
         <v>25</v>
       </c>
       <c r="I23" s="68" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="J23" s="104"/>
       <c r="K23" s="125" t="s">
@@ -23015,12 +23039,12 @@
       <c r="N23" s="106"/>
       <c r="O23" s="106"/>
       <c r="P23" s="98" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="Q23" s="119"/>
       <c r="R23" s="106"/>
       <c r="T23" s="31" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="U23" s="31"/>
       <c r="V23" s="31"/>
@@ -23028,10 +23052,10 @@
     </row>
     <row r="24">
       <c r="B24" s="88" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C24" s="107" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D24" s="102"/>
       <c r="E24" s="103"/>
@@ -23054,7 +23078,7 @@
     </row>
     <row r="25">
       <c r="B25" s="107" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C25" s="97"/>
       <c r="D25" s="102"/>
@@ -23062,18 +23086,18 @@
         <v>184</v>
       </c>
       <c r="F25" s="91" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G25" s="91"/>
       <c r="H25" s="91" t="s">
         <v>184</v>
       </c>
       <c r="I25" s="91" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J25" s="91"/>
       <c r="K25" s="91" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L25" s="128"/>
       <c r="N25" s="129"/>
@@ -23088,7 +23112,7 @@
     </row>
     <row r="26">
       <c r="B26" s="107" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C26" s="97"/>
       <c r="D26" s="102"/>
@@ -23096,18 +23120,18 @@
         <v>184</v>
       </c>
       <c r="F26" s="91" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G26" s="91"/>
       <c r="H26" s="91" t="s">
         <v>184</v>
       </c>
       <c r="I26" s="91" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J26" s="91"/>
       <c r="K26" s="91" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L26" s="128"/>
       <c r="N26" s="106"/>
@@ -23122,7 +23146,7 @@
     </row>
     <row r="27">
       <c r="B27" s="107" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C27" s="97"/>
       <c r="D27" s="102"/>
@@ -23130,18 +23154,18 @@
         <v>184</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G27" s="91"/>
       <c r="H27" s="68" t="s">
         <v>184</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J27" s="91"/>
       <c r="K27" s="27" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L27" s="30"/>
       <c r="N27" s="130" t="s">
@@ -23153,10 +23177,10 @@
       </c>
       <c r="Q27" s="131"/>
       <c r="R27" s="132" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="T27" s="31" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="U27" s="100"/>
       <c r="V27" s="100"/>
@@ -23167,7 +23191,7 @@
         <v>194</v>
       </c>
       <c r="C28" s="107" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D28" s="102"/>
       <c r="E28" s="103"/>
@@ -23187,12 +23211,12 @@
       <c r="U28" s="100"/>
       <c r="V28" s="100"/>
       <c r="W28" s="31" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="107" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C29" s="97"/>
       <c r="D29" s="102"/>
@@ -23200,50 +23224,50 @@
         <v>200</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G29" s="91"/>
       <c r="H29" s="27" t="s">
         <v>200</v>
       </c>
       <c r="I29" s="27" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J29" s="91"/>
       <c r="K29" s="27" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L29" s="30"/>
       <c r="N29" s="98" t="s">
         <v>200</v>
       </c>
       <c r="O29" s="99" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="P29" s="98" t="s">
         <v>200</v>
       </c>
       <c r="Q29" s="98" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R29" s="98" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="S29" s="27"/>
       <c r="T29" s="31" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="U29" s="31"/>
       <c r="V29" s="31" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="W29" s="133" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="107" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="102"/>
@@ -23251,18 +23275,18 @@
         <v>200</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G30" s="91"/>
       <c r="H30" s="27" t="s">
         <v>200</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J30" s="91"/>
       <c r="K30" s="27" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L30" s="30"/>
       <c r="N30" s="106"/>
@@ -23274,13 +23298,13 @@
       <c r="T30" s="31"/>
       <c r="U30" s="31"/>
       <c r="V30" s="31" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="W30" s="100"/>
     </row>
     <row r="31">
       <c r="B31" s="107" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C31" s="97"/>
       <c r="D31" s="102"/>
@@ -23288,38 +23312,38 @@
         <v>200</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G31" s="91"/>
       <c r="H31" s="27" t="s">
         <v>200</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J31" s="91"/>
       <c r="K31" s="27" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L31" s="30"/>
       <c r="N31" s="98" t="s">
         <v>200</v>
       </c>
       <c r="O31" s="99" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="P31" s="98" t="s">
         <v>200</v>
       </c>
       <c r="Q31" s="98" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R31" s="132" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="S31" s="27"/>
       <c r="T31" s="31" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="U31" s="100"/>
       <c r="V31" s="31"/>
@@ -23335,7 +23359,7 @@
         <v>211</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G32" s="104"/>
       <c r="H32" t="s">
@@ -23418,7 +23442,7 @@
     </row>
     <row r="35">
       <c r="B35" s="134" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C35" s="97"/>
       <c r="D35" s="102"/>
@@ -23466,7 +23490,7 @@
     </row>
     <row r="37">
       <c r="B37" s="134" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C37" s="97"/>
       <c r="D37" s="102"/>
@@ -23490,10 +23514,10 @@
     </row>
     <row r="38">
       <c r="B38" s="88" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C38" s="107" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D38" s="102"/>
       <c r="E38" s="103"/>
@@ -23512,13 +23536,13 @@
       <c r="T38" s="100"/>
       <c r="U38" s="100"/>
       <c r="V38" s="31" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="W38" s="100"/>
     </row>
     <row r="39">
       <c r="B39" s="107" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C39" s="97"/>
       <c r="D39" s="102"/>
@@ -23532,33 +23556,33 @@
       <c r="I39" s="68"/>
       <c r="J39" s="91"/>
       <c r="K39" s="125" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L39" s="126"/>
       <c r="N39" s="122" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="O39" s="136"/>
       <c r="P39" s="122" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="Q39" s="136"/>
       <c r="R39" s="122" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="S39" s="47"/>
       <c r="T39" s="31" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="U39" s="96" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="V39" s="137"/>
       <c r="W39" s="100"/>
     </row>
     <row r="40">
       <c r="B40" s="107" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C40" s="97"/>
       <c r="D40" s="102"/>
@@ -23572,41 +23596,41 @@
       <c r="I40" s="68"/>
       <c r="J40" s="91"/>
       <c r="K40" s="125" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="L40" s="126"/>
       <c r="N40" s="138" t="s">
         <v>200</v>
       </c>
       <c r="O40" s="139" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="P40" s="138" t="s">
         <v>200</v>
       </c>
       <c r="Q40" s="138" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R40" s="108" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="S40" s="47"/>
       <c r="T40" s="31" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="U40" s="108" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="V40" s="108" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="W40" s="31" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="107" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C41" s="97"/>
       <c r="D41" s="102"/>
@@ -23620,37 +23644,37 @@
       <c r="I41" s="68"/>
       <c r="J41" s="91"/>
       <c r="K41" s="125" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="L41" s="126"/>
       <c r="N41" s="138" t="s">
         <v>200</v>
       </c>
       <c r="O41" s="139" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="P41" s="138" t="s">
         <v>200</v>
       </c>
       <c r="Q41" s="138" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R41" s="98" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="S41" s="47"/>
       <c r="T41" s="31" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="U41" s="140"/>
       <c r="V41" s="31"/>
       <c r="W41" s="31" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C42" s="97"/>
       <c r="D42" s="102"/>
@@ -23674,7 +23698,7 @@
     </row>
     <row r="43">
       <c r="B43" s="134" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C43" s="97"/>
       <c r="D43" s="102"/>
@@ -23698,7 +23722,7 @@
     </row>
     <row r="44">
       <c r="B44" s="134" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C44" s="97"/>
       <c r="D44" s="102"/>
@@ -23722,7 +23746,7 @@
     </row>
     <row r="45">
       <c r="B45" s="88" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C45" s="97"/>
       <c r="D45" s="102"/>
@@ -23737,7 +23761,7 @@
         <v>184</v>
       </c>
       <c r="I45" s="68" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="J45" s="104"/>
       <c r="K45" s="68" t="s">
@@ -23747,7 +23771,7 @@
         <v>131</v>
       </c>
       <c r="N45" s="122" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="O45" s="121"/>
       <c r="P45" s="119"/>
@@ -23761,10 +23785,10 @@
     </row>
     <row r="46">
       <c r="B46" s="141" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C46" s="107" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D46" s="102"/>
       <c r="E46" s="103"/>
@@ -23787,41 +23811,41 @@
     </row>
     <row r="47">
       <c r="B47" s="107" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C47" s="97"/>
       <c r="D47" s="102"/>
       <c r="E47" s="120" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G47" s="104"/>
       <c r="H47" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J47" s="104"/>
       <c r="K47" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L47" s="142"/>
       <c r="N47" s="98" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O47" s="99" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="P47" s="98" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q47" s="131"/>
       <c r="R47" s="131" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="S47" s="47"/>
       <c r="T47" s="31" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="U47" s="140"/>
       <c r="V47" s="140"/>
@@ -23829,89 +23853,89 @@
     </row>
     <row r="48">
       <c r="B48" s="107" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C48" s="97"/>
       <c r="D48" s="102"/>
       <c r="E48" s="120" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G48" s="104"/>
       <c r="H48" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I48" s="27"/>
       <c r="J48" s="91"/>
       <c r="K48" s="27" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="L48" s="30"/>
       <c r="N48" s="98" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O48" s="99" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="P48" s="98" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q48" s="131"/>
       <c r="R48" s="108" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="S48" s="47"/>
       <c r="T48" s="31" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="U48" s="108" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="V48" s="108" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="W48" s="31"/>
     </row>
     <row r="49">
       <c r="B49" s="107" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C49" s="97"/>
       <c r="D49" s="102"/>
       <c r="E49" s="120" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G49" s="104"/>
       <c r="H49" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I49" s="27"/>
       <c r="J49" s="91"/>
       <c r="K49" s="27" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="L49" s="30"/>
       <c r="N49" s="98" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O49" s="99" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="P49" s="98" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q49" s="136"/>
       <c r="R49" s="98" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="S49" s="47"/>
       <c r="T49" s="31" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="U49" s="140"/>
       <c r="V49" s="140"/>
@@ -23919,10 +23943,10 @@
     </row>
     <row r="50">
       <c r="B50" s="141" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C50" s="107" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D50" s="102"/>
       <c r="E50" s="103"/>
@@ -23945,35 +23969,35 @@
     </row>
     <row r="51">
       <c r="B51" s="107" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C51" s="97"/>
       <c r="D51" s="102"/>
       <c r="E51" s="41" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G51" s="91"/>
       <c r="H51" s="27" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I51" s="27"/>
       <c r="J51" s="91"/>
       <c r="K51" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L51" s="30"/>
       <c r="N51" s="98" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O51" s="139" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="P51" s="98" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q51" s="31"/>
       <c r="R51" s="98" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="T51" s="100"/>
       <c r="U51" s="100"/>
@@ -23982,85 +24006,85 @@
     </row>
     <row r="52">
       <c r="B52" s="107" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C52" s="97"/>
       <c r="D52" s="102"/>
       <c r="E52" s="41" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G52" s="91"/>
       <c r="H52" s="27" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I52" s="27"/>
       <c r="J52" s="91"/>
       <c r="K52" s="27" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="L52" s="30"/>
       <c r="N52" s="122" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="O52" s="99" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="P52" s="122" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="Q52" s="31"/>
       <c r="R52" s="98" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="T52" s="100"/>
       <c r="U52" s="96" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="V52" s="100"/>
       <c r="W52" s="100"/>
     </row>
     <row r="53">
       <c r="B53" s="107" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C53" s="97"/>
       <c r="D53" s="102"/>
       <c r="E53" s="41" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G53" s="91"/>
       <c r="H53" s="27" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I53" s="27"/>
       <c r="J53" s="91"/>
       <c r="K53" s="27" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="L53" s="30"/>
       <c r="N53" s="122" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O53" s="139" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="P53" s="122" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="Q53" s="131"/>
       <c r="R53" s="143" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="T53" s="100"/>
       <c r="U53" s="96" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="V53" s="100"/>
       <c r="W53" s="100"/>
     </row>
     <row r="54">
       <c r="B54" s="144" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C54" s="97"/>
       <c r="D54" s="102"/>
@@ -24084,7 +24108,7 @@
     </row>
     <row r="55">
       <c r="B55" s="141" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C55" s="97"/>
       <c r="D55" s="102"/>
@@ -24121,7 +24145,7 @@
     </row>
     <row r="56">
       <c r="B56" s="145" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C56" s="110"/>
       <c r="D56" s="102"/>
@@ -24132,7 +24156,7 @@
       <c r="I56" s="149"/>
       <c r="J56" s="113"/>
       <c r="K56" s="149" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="L56" s="150"/>
       <c r="N56" s="151"/>
@@ -24140,17 +24164,17 @@
       <c r="P56" s="151"/>
       <c r="Q56" s="151"/>
       <c r="R56" s="152" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="T56" s="31" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="U56" s="96" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="V56" s="153"/>
       <c r="W56" s="154" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="57">
@@ -30004,58 +30028,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="155" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B1" s="156" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C1" s="157" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="N1" s="158"/>
       <c r="P1" s="159" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" s="22" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E2" s="160"/>
       <c r="F2" s="161" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G2" s="161" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H2" s="160"/>
       <c r="I2" s="161" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="J2" s="161" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="K2" s="160"/>
       <c r="L2" s="161" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M2" s="161" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="N2" s="36" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="P2" s="160" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="Q2" s="160" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="R2" s="160" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="S2" s="162"/>
     </row>
@@ -30064,17 +30088,17 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="27" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G3" s="43" t="str">
         <f t="shared" ref="G3:G10" si="1">B3</f>
@@ -30082,7 +30106,7 @@
       </c>
       <c r="H3" s="36"/>
       <c r="I3" s="27" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="J3" s="43" t="str">
         <f t="shared" ref="J3:J10" si="2">LOWER(G3)&amp;"@ts.com"</f>
@@ -30090,19 +30114,19 @@
       </c>
       <c r="K3" s="158"/>
       <c r="L3" s="43" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M3" s="43" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="Q3" s="43" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="R3" s="43" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="S3" s="163"/>
     </row>
@@ -30111,17 +30135,17 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="27" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G4" s="43" t="str">
         <f t="shared" si="1"/>
@@ -30129,7 +30153,7 @@
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="27" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="J4" s="43" t="str">
         <f t="shared" si="2"/>
@@ -30137,16 +30161,16 @@
       </c>
       <c r="K4" s="158"/>
       <c r="L4" s="43" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M4" s="43" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>164</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="R4" s="27" t="s">
         <v>131</v>
@@ -30157,17 +30181,17 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="27" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G5" s="43" t="str">
         <f t="shared" si="1"/>
@@ -30175,7 +30199,7 @@
       </c>
       <c r="H5" s="36"/>
       <c r="I5" s="27" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="J5" s="43" t="str">
         <f t="shared" si="2"/>
@@ -30183,17 +30207,17 @@
       </c>
       <c r="K5" s="158"/>
       <c r="L5" s="43" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M5" s="43" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N5" s="27"/>
       <c r="P5" s="27" t="s">
         <v>47</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="R5" s="27" t="s">
         <v>131</v>
@@ -30204,17 +30228,17 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E6" s="158"/>
       <c r="F6" s="27" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G6" s="43" t="str">
         <f t="shared" si="1"/>
@@ -30222,7 +30246,7 @@
       </c>
       <c r="H6" s="36"/>
       <c r="I6" s="27" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="J6" s="43" t="str">
         <f t="shared" si="2"/>
@@ -30230,17 +30254,17 @@
       </c>
       <c r="K6" s="158"/>
       <c r="L6" s="43" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M6" s="43" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N6" s="27"/>
       <c r="P6" s="27" t="s">
         <v>181</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="R6" s="27" t="s">
         <v>131</v>
@@ -30251,17 +30275,17 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E7" s="158"/>
       <c r="F7" s="27" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G7" s="43" t="str">
         <f t="shared" si="1"/>
@@ -30269,7 +30293,7 @@
       </c>
       <c r="H7" s="36"/>
       <c r="I7" s="27" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="J7" s="43" t="str">
         <f t="shared" si="2"/>
@@ -30277,17 +30301,17 @@
       </c>
       <c r="K7" s="158"/>
       <c r="L7" s="43" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M7" s="43" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N7" s="27"/>
       <c r="P7" s="27" t="s">
         <v>66</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="R7" s="27" t="s">
         <v>131</v>
@@ -30298,17 +30322,17 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E8" s="158"/>
       <c r="F8" s="27" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G8" s="43" t="str">
         <f t="shared" si="1"/>
@@ -30316,7 +30340,7 @@
       </c>
       <c r="H8" s="158"/>
       <c r="I8" s="27" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="J8" s="43" t="str">
         <f t="shared" si="2"/>
@@ -30324,20 +30348,20 @@
       </c>
       <c r="K8" s="158"/>
       <c r="L8" s="43" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M8" s="43" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N8" s="27"/>
       <c r="P8" s="27" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="R8" s="27" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9">
@@ -30345,17 +30369,17 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E9" s="158"/>
       <c r="F9" s="27" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G9" s="43" t="str">
         <f t="shared" si="1"/>
@@ -30363,7 +30387,7 @@
       </c>
       <c r="H9" s="158"/>
       <c r="I9" s="27" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="J9" s="43" t="str">
         <f t="shared" si="2"/>
@@ -30371,10 +30395,10 @@
       </c>
       <c r="K9" s="158"/>
       <c r="L9" s="43" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N9" s="27"/>
     </row>
@@ -30383,17 +30407,17 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E10" s="158"/>
       <c r="F10" s="27" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G10" s="43" t="str">
         <f t="shared" si="1"/>
@@ -30401,7 +30425,7 @@
       </c>
       <c r="H10" s="158"/>
       <c r="I10" s="27" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="J10" s="43" t="str">
         <f t="shared" si="2"/>
@@ -30409,14 +30433,14 @@
       </c>
       <c r="K10" s="158"/>
       <c r="L10" s="43" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N10" s="27"/>
       <c r="P10" s="159" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11" ht="8.25" customHeight="1">
@@ -30435,13 +30459,13 @@
       <c r="M11" s="158"/>
       <c r="N11" s="158"/>
       <c r="P11" s="160" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="Q11" s="160" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="R11" s="160" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="12">
@@ -30449,13 +30473,13 @@
         <v>9.0</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="27" t="s">
@@ -30466,23 +30490,23 @@
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="27" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="K12" s="36"/>
       <c r="L12" s="27" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M12" s="43" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P12" s="27" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="Q12" s="43" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="R12" s="27" t="s">
         <v>131</v>
@@ -30493,13 +30517,13 @@
         <v>10.0</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="27" t="s">
@@ -30510,23 +30534,23 @@
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="27" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K13" s="36"/>
       <c r="L13" s="27" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M13" s="43" t="s">
-        <v>178</v>
+        <v>619</v>
       </c>
       <c r="P13" s="27" t="s">
         <v>164</v>
       </c>
       <c r="Q13" s="27" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="R13" s="27" t="s">
         <v>131</v>
@@ -30537,13 +30561,13 @@
         <v>11.0</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="27" t="s">
@@ -30554,23 +30578,23 @@
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="27" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="K14" s="36"/>
       <c r="L14" s="27" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M14" s="43" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="P14" s="27" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="Q14" s="27" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="R14" s="27" t="s">
         <v>131</v>
@@ -30581,13 +30605,13 @@
         <v>12.0</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="27" t="s">
@@ -30598,14 +30622,14 @@
       </c>
       <c r="H15" s="36"/>
       <c r="I15" s="27" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="K15" s="36"/>
       <c r="L15" s="27" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M15" s="43" t="s">
         <v>233</v>
@@ -30614,7 +30638,7 @@
         <v>181</v>
       </c>
       <c r="Q15" s="27" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="R15" s="27" t="s">
         <v>131</v>
@@ -30639,7 +30663,7 @@
         <v>66</v>
       </c>
       <c r="Q16" s="27" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="R16" s="27" t="s">
         <v>131</v>
@@ -30650,13 +30674,13 @@
         <v>13.0</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E17" s="158"/>
       <c r="F17" s="27" t="s">
@@ -30667,26 +30691,26 @@
       </c>
       <c r="H17" s="36"/>
       <c r="I17" s="27" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J17" s="43" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="K17" s="36"/>
       <c r="L17" s="27" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M17" s="43" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P17" s="27" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="Q17" s="27" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="R17" s="43" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="18">
@@ -30694,13 +30718,13 @@
         <v>14.0</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E18" s="158"/>
       <c r="F18" s="27" t="s">
@@ -30711,26 +30735,26 @@
       </c>
       <c r="H18" s="36"/>
       <c r="I18" s="27" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J18" s="43" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="K18" s="36"/>
       <c r="L18" s="27" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M18" s="43" t="s">
         <v>233</v>
       </c>
       <c r="P18" s="43" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="Q18" s="27" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="R18" s="43" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19">
@@ -30738,13 +30762,13 @@
         <v>15.0</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E19" s="158"/>
       <c r="F19" s="27" t="s">
@@ -30767,13 +30791,13 @@
         <v>16.0</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E20" s="158"/>
       <c r="F20" s="27" t="s">
@@ -30791,7 +30815,7 @@
       </c>
       <c r="K20" s="158"/>
       <c r="P20" s="159" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="21">
@@ -30799,13 +30823,13 @@
       <c r="H21" s="158"/>
       <c r="K21" s="158"/>
       <c r="P21" s="160" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="Q21" s="160" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="R21" s="160" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="22">
@@ -30814,13 +30838,13 @@
       <c r="H22" s="158"/>
       <c r="K22" s="158"/>
       <c r="P22" s="27" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="Q22" s="43" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="R22" s="43" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="23">
@@ -30832,7 +30856,7 @@
         <v>164</v>
       </c>
       <c r="Q23" s="27" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="R23" s="27" t="s">
         <v>131</v>
@@ -30847,7 +30871,7 @@
         <v>184</v>
       </c>
       <c r="Q24" s="27" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="R24" s="27" t="s">
         <v>131</v>
@@ -30862,7 +30886,7 @@
         <v>181</v>
       </c>
       <c r="Q25" s="27" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="R25" s="27" t="s">
         <v>131</v>
@@ -30877,7 +30901,7 @@
         <v>66</v>
       </c>
       <c r="Q26" s="27" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="R26" s="27" t="s">
         <v>131</v>
@@ -30889,13 +30913,13 @@
       <c r="H27" s="158"/>
       <c r="K27" s="158"/>
       <c r="P27" s="27" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="Q27" s="27" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="R27" s="27" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28">
@@ -36796,33 +36820,33 @@
       <c r="C1" s="169"/>
       <c r="D1" s="170"/>
       <c r="E1" s="5" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="H1" s="171"/>
       <c r="I1" s="172" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="M1" s="171"/>
     </row>
     <row r="2">
       <c r="A2" s="168" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B2" s="168" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C2" s="169"/>
       <c r="D2" s="170" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E2" s="173" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F2" s="173" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="173" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="174" t="s">
@@ -36832,10 +36856,10 @@
         <v>17</v>
       </c>
       <c r="K2" s="174" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="L2" s="174" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
@@ -36847,17 +36871,17 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>131</v>
@@ -36885,7 +36909,7 @@
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5">
@@ -36894,7 +36918,7 @@
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="G5" s="27" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6">
@@ -36902,7 +36926,7 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>131</v>
@@ -36914,7 +36938,7 @@
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8">
@@ -36923,7 +36947,7 @@
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9">
@@ -36931,7 +36955,7 @@
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>131</v>
@@ -36943,7 +36967,7 @@
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11">
@@ -36952,7 +36976,7 @@
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12">
@@ -36960,7 +36984,7 @@
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>131</v>
@@ -36972,7 +36996,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="14">
@@ -36981,7 +37005,7 @@
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15">
@@ -36989,7 +37013,7 @@
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>131</v>
@@ -37001,7 +37025,7 @@
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="17">
@@ -37010,7 +37034,7 @@
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="18">
@@ -37306,24 +37330,24 @@
     </row>
     <row r="2">
       <c r="A2" s="168" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B2" s="168" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C2" s="169"/>
       <c r="D2" s="170" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="E2" s="173" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="F2" s="27"/>
       <c r="G2" s="175" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="H2" s="176" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
@@ -37334,14 +37358,14 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>10</v>
@@ -37353,14 +37377,14 @@
     </row>
     <row r="4">
       <c r="B4" s="177" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>10</v>
@@ -37372,14 +37396,14 @@
     </row>
     <row r="5">
       <c r="B5" s="178" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>11</v>
@@ -37391,14 +37415,14 @@
     </row>
     <row r="6">
       <c r="B6" s="178" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>11</v>
@@ -37410,14 +37434,14 @@
     </row>
     <row r="7">
       <c r="B7" s="177" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>12</v>
@@ -37429,14 +37453,14 @@
     </row>
     <row r="8">
       <c r="B8" s="177" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>12</v>
@@ -37452,7 +37476,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>12</v>
@@ -37468,7 +37492,7 @@
         <v>44</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>12</v>

--- a/ext/activity_manager/activity_manager.xlsx
+++ b/ext/activity_manager/activity_manager.xlsx
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="672">
   <si>
     <t>Activity / Action</t>
   </si>
@@ -264,19 +264,19 @@
     <t>actor</t>
   </si>
   <si>
-    <t>You commented on the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>You commented on your Slot: {TITLE}</t>
+    <t>You commented on the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>You commented on your Slot: {slot}</t>
   </si>
   <si>
     <t xml:space="preserve">commenter + creator + follower </t>
   </si>
   <si>
-    <t>{ACTOR} commented on the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} commented on your Slot: {TITLE}</t>
+    <t>{actor} commented on the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} commented on your Slot: {slot}</t>
   </si>
   <si>
     <t>commenter + creator</t>
@@ -285,34 +285,34 @@
     <t>friends + follower + creator + member</t>
   </si>
   <si>
-    <t>{ACTOR} commented on this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} commented on your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} commented on this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} commented on your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} commented on your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} commented on the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others commented on this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others commented on your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others commented on your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others commented on the Slot: {TITLE}</t>
+    <t>{actor} commented on this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} commented on your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} commented on this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} commented on your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} commented on your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {user} commented on the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others commented on this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others commented on your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others commented on your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others commented on the Slot: {slot}</t>
   </si>
   <si>
     <t>like a slot</t>
@@ -321,46 +321,46 @@
     <t>like</t>
   </si>
   <si>
-    <t>You like the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>You like your Slot: {TITLE}</t>
+    <t>You like the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>You like your Slot: {slot}</t>
   </si>
   <si>
     <t>creator</t>
   </si>
   <si>
-    <t>{ACTOR} likes your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} likes this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} likes your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} like this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} like your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} like your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} like the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others like this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others like your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others like your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others like the Slot: {TITLE}</t>
+    <t>{actor} likes your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} likes this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} likes your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} like this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} like your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} like your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {user} like the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others like this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others like your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others like your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others like the Slot: {slot}</t>
   </si>
   <si>
     <t>create new slot</t>
@@ -369,13 +369,13 @@
     <t>create</t>
   </si>
   <si>
-    <t>You have created the Slot: {TITLE}</t>
+    <t>You have created the Slot: {slot}</t>
   </si>
   <si>
     <t>friends + follower + creator + member + actor</t>
   </si>
   <si>
-    <t>{ACTOR} creates this Slot.</t>
+    <t>{actor} creates this Slot.</t>
   </si>
   <si>
     <t>You have created this Slot.</t>
@@ -387,49 +387,49 @@
     <t>image</t>
   </si>
   <si>
-    <t>You added an image to the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>You added an image to your Slot: {TITLE}</t>
+    <t>You added an image to the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>You added an image to your Slot: {slot}</t>
   </si>
   <si>
     <t>follower + creator</t>
   </si>
   <si>
-    <t>{ACTOR} added an image to the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} added an image to your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} added an image to this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} added an image to your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} added an image to this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} added an image to your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} added an image to your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} added an image to the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others added an image to this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others added an image to your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others added an image to your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others added an image to the Slot: {TITLE}</t>
+    <t>{actor} added an image to the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} added an image to your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} added an image to this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} added an image to your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} added an image to this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} added an image to your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} added an image to your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {user} added an image to the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others added an image to this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others added an image to your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others added an image to your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others added an image to the Slot: {slot}</t>
   </si>
   <si>
     <t>add video to slot</t>
@@ -438,46 +438,46 @@
     <t>video</t>
   </si>
   <si>
-    <t>You added a video to the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>You added a video to your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} added a video to the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} added a video to your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} added a video to this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} added a video to your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} added a video to this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} added a video to your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} added a video to your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} added a video to the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others added a video to this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others added a video to your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others added a video to your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others added a video to the Slot: {TITLE}</t>
+    <t>You added a video to the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>You added a video to your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} added a video to the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} added a video to your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} added a video to this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} added a video to your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} added a video to this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} added a video to your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} added a video to your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {user} added a video to the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others added a video to this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others added a video to your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others added a video to your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others added a video to the Slot: {slot}</t>
   </si>
   <si>
     <t>add audio to slot</t>
@@ -486,46 +486,46 @@
     <t>audio</t>
   </si>
   <si>
-    <t>You added an audio to the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>You added an audio to your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} added an audio to the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} added an audio to your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} added an audio to this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} added an audio to your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} added an audio to this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} added an audio to your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} added an audio to your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} added an audio to the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others added an audio to this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others added an audio to your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others added an audio to your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others added an audio to the Slot: {TITLE}</t>
+    <t>You added an audio to the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>You added an audio to your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} added an audio to the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} added an audio to your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} added an audio to this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} added an audio to your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} added an audio to this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} added an audio to your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} added an audio to your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {user} added an audio to the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others added an audio to this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others added an audio to your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others added an audio to your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others added an audio to the Slot: {slot}</t>
   </si>
   <si>
     <t>add note to slot</t>
@@ -534,46 +534,46 @@
     <t>note</t>
   </si>
   <si>
-    <t>You added a note to the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>You added a note to your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} added a note to the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} added a note to your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} added a note to this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} added a note to your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} added a note to this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} added a note to your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} added a note to your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} added a note to the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others added a note to this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others added a note to your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others added a note to your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others added a note to the Slot: {TITLE}</t>
+    <t>You added a note to the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>You added a note to your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} added a note to the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} added a note to your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} added a note to this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} added a note to your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} added a note to this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} added a note to your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} added a note to your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {user} added a note to the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others added a note to this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others added a note to your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others added a note to your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others added a note to the Slot: {slot}</t>
   </si>
   <si>
     <t>add multiple media items</t>
@@ -585,46 +585,46 @@
     <t>media</t>
   </si>
   <si>
-    <t>You added new media to the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>You added new media to your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} added new media to the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} added new media to your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} added new media to this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} added new media to your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} added new media to this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} added new media to your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} added new media to your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} added new media to the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others added new media to this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others added new media to your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others added new media to your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others added new media to the Slot: {TITLE}</t>
+    <t>You added new media to the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>You added new media to your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} added new media to the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} added new media to your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} added new media to this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} added new media to your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} added new media to this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} added new media to your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} added new media to your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {user} added new media to the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others added new media to this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others added new media to your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others added new media to your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others added new media to the Slot: {slot}</t>
   </si>
   <si>
     <t>reslot a slot (direct, through a tag)</t>
@@ -636,43 +636,43 @@
     <t>directAction?</t>
   </si>
   <si>
-    <t>You reslotted the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} reslotted the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} reslotted your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} has reslotted this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} has reslotted your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} has reslotted this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} have reslotted your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} reslotted your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} reslotted the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others have reslotted this Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others have reslotted your Slot.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others reslotted your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others reslotted the Slot: {TITLE}</t>
+    <t>You reslotted the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} reslotted the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} reslotted your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} has reslotted this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} has reslotted your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} has reslotted this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} have reslotted your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} reslotted your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {user} reslotted the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others have reslotted this Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others have reslotted your Slot.</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others reslotted your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others reslotted the Slot: {slot}</t>
   </si>
   <si>
     <t>established friendship</t>
@@ -687,16 +687,16 @@
     <t>isRequester?</t>
   </si>
   <si>
-    <t>{ACTOR} has accepted your friend request</t>
-  </si>
-  <si>
-    <t>You and {USER} are now friends</t>
+    <t>{actor} has accepted your friend request</t>
+  </si>
+  <si>
+    <t>You and {user} are now friends</t>
   </si>
   <si>
     <t>foaf + actor</t>
   </si>
   <si>
-    <t>{ACTOR} and {USER} are now friends</t>
+    <t>{actor} and {user} are now friends</t>
   </si>
   <si>
     <t>TODO-Plural-Push-1</t>
@@ -714,16 +714,16 @@
     <t>isRequestee?</t>
   </si>
   <si>
-    <t>You accepted the friend request from: {USER}</t>
-  </si>
-  <si>
-    <t>You and {ACTOR} are now friends</t>
+    <t>You accepted the friend request from: {user}</t>
+  </si>
+  <si>
+    <t>You and {actor} are now friends</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>{USER} and {ACTOR} are now friends</t>
+    <t>{user} and {actor} are now friends</t>
   </si>
   <si>
     <t>group membership established (direct)</t>
@@ -735,37 +735,37 @@
     <t>membership</t>
   </si>
   <si>
-    <t>You subscribed to the slot group: {NAME}</t>
+    <t>You subscribed to the slot group: {group}</t>
   </si>
   <si>
     <t>owner</t>
   </si>
   <si>
-    <t>{ACTOR} subscribed to the slot group {NAME}</t>
-  </si>
-  <si>
-    <t>{ACTOR} subscribed to your slot group {NAME}</t>
+    <t>{actor} subscribed to the slot group {group}</t>
+  </si>
+  <si>
+    <t>{actor} subscribed to your slot group {group}</t>
   </si>
   <si>
     <t>joiners + member</t>
   </si>
   <si>
-    <t>{ACTOR} subscribed to the slot group {NAME}.</t>
-  </si>
-  <si>
-    <t>{ACTOR} subscribed to your slot group {NAME}.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} subscribed to the slot group: {NAME}.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} subscribed to your slot group: {NAME}.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others subscribed to the slot group: {NAME}.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others subscribed to your slot group: {NAME}.</t>
+    <t>{actor} subscribed to the slot group {group}.</t>
+  </si>
+  <si>
+    <t>{actor} subscribed to your slot group {group}.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} subscribed to the slot group: {group}.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} subscribed to your slot group: {group}.</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others subscribed to the slot group: {group}.</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others subscribed to your slot group: {group}.</t>
   </si>
   <si>
     <t>user adds another user to a group (indirect)</t>
@@ -780,28 +780,28 @@
     <t>indirectAction?</t>
   </si>
   <si>
-    <t>You added {USER} to the slot group: {NAME}</t>
-  </si>
-  <si>
-    <t>You added {USER} to your slot group: {NAME}</t>
+    <t>You added {user} to the slot group: {group}</t>
+  </si>
+  <si>
+    <t>You added {user} to your slot group: {group}</t>
   </si>
   <si>
     <t>foreign</t>
   </si>
   <si>
-    <t>{ACTOR} added you to the slot group: {NAME}</t>
+    <t>{actor} added you to the slot group: {group}</t>
   </si>
   <si>
     <t>foreign + owner</t>
   </si>
   <si>
-    <t>{ACTOR} added {USER} to your slot group: {NAME}</t>
-  </si>
-  <si>
-    <t>{ACTOR} added {USER} to the slot group: {NAME}.</t>
-  </si>
-  <si>
-    <t>{ACTOR} added {USER} to your slot group: {NAME}.</t>
+    <t>{actor} added {user} to your slot group: {group}</t>
+  </si>
+  <si>
+    <t>{actor} added {user} to the slot group: {group}.</t>
+  </si>
+  <si>
+    <t>{actor} added {user} to your slot group: {group}.</t>
   </si>
   <si>
     <t>TODO-Aggregate-Notify-3</t>
@@ -816,13 +816,13 @@
     <t>delete</t>
   </si>
   <si>
-    <t>You deleted the Slot: {TITLE}</t>
+    <t>You deleted the Slot: {slot}</t>
   </si>
   <si>
     <t>follower</t>
   </si>
   <si>
-    <t>{ACTOR} deleted the Slot: {TITLE}</t>
+    <t>{actor} deleted the Slot: {slot}</t>
   </si>
   <si>
     <t>TODO-Plural-Notify-3</t>
@@ -843,7 +843,7 @@
     <t>unslot</t>
   </si>
   <si>
-    <t>You removed the Reslot: {TITLE}</t>
+    <t>You removed the Reslot: {slot}</t>
   </si>
   <si>
     <t>TODO-Plural-Notify-4</t>
@@ -864,10 +864,10 @@
     <t>request</t>
   </si>
   <si>
-    <t>You sent a friend request to {USER}</t>
-  </si>
-  <si>
-    <t>{ACTOR} sent a friend request to you</t>
+    <t>You sent a friend request to {user}</t>
+  </si>
+  <si>
+    <t>{actor} sent a friend request to you</t>
   </si>
   <si>
     <t>TODO-Plural-Notify-5</t>
@@ -888,10 +888,10 @@
     <t>private</t>
   </si>
   <si>
-    <t>You unshared the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} unshared the Slot: {TITLE}</t>
+    <t>You unshared the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} unshared the Slot: {slot}</t>
   </si>
   <si>
     <t>TODO-Plural-Notify-6</t>
@@ -909,10 +909,10 @@
     <t>start</t>
   </si>
   <si>
-    <t>You changed the start time from the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} changed the start time of the Slot: {TITLE}</t>
+    <t>You changed the start time from the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} changed the start time of the Slot: {slot}</t>
   </si>
   <si>
     <t>update existing metaslot: location</t>
@@ -921,10 +921,10 @@
     <t>location</t>
   </si>
   <si>
-    <t>You changed the location from the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} changed the location of the Slot: {TITLE}</t>
+    <t>You changed the location from the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} changed the location of the Slot: {slot}</t>
   </si>
   <si>
     <t>reject an established friendship</t>
@@ -936,10 +936,10 @@
     <t>unfriend</t>
   </si>
   <si>
-    <t>You deleted the friendship with: {USER}</t>
-  </si>
-  <si>
-    <t>{ACTOR} has deleted your friendship</t>
+    <t>You deleted the friendship with: {user}</t>
+  </si>
+  <si>
+    <t>{actor} has deleted your friendship</t>
   </si>
   <si>
     <t>reject an offered friendship</t>
@@ -948,10 +948,10 @@
     <t>reject</t>
   </si>
   <si>
-    <t>You rejected a friend request from: {USER}</t>
-  </si>
-  <si>
-    <t>{ACTOR} has rejected your friendship request</t>
+    <t>You rejected a friend request from: {user}</t>
+  </si>
+  <si>
+    <t>{actor} has rejected your friendship request</t>
   </si>
   <si>
     <t>user was added to a slot through a tag (indirect)</t>
@@ -960,16 +960,16 @@
     <t>tagged</t>
   </si>
   <si>
-    <t>You tagged {USER} to the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>You tagged {USER} to your Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} tagged you to the Slot: {TITLE}</t>
-  </si>
-  <si>
-    <t>{ACTOR} tagged {USER} to your Slot: {TITLE}</t>
+    <t>You tagged {user} to the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>You tagged {user} to your Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} tagged you to the Slot: {slot}</t>
+  </si>
+  <si>
+    <t>{actor} tagged {user} to your Slot: {slot}</t>
   </si>
   <si>
     <t>foreign + creator</t>
@@ -978,22 +978,22 @@
     <t>friends + followers + member + creator</t>
   </si>
   <si>
-    <t>{ACTOR} tagged {USER} to the Slot: {TITLE}.</t>
-  </si>
-  <si>
-    <t>{ACTOR} tagged {USER} to your Slot: {TITLE}.</t>
-  </si>
-  <si>
-    <t>{ACTOR} tagged {USER} and 1 other to the Slot: {TITLE}.</t>
-  </si>
-  <si>
-    <t>{ACTOR} tagged {USER} and 1 other to your Slot: {TITLE}.</t>
-  </si>
-  <si>
-    <t>{ACTOR} tagged {USER} and {COUNT} others to the Slot: {TITLE}.</t>
-  </si>
-  <si>
-    <t>{ACTOR} tagged {USER} and {COUNT} others to your Slot: {TITLE}.</t>
+    <t>{actor} tagged {user} to the Slot: {slot}.</t>
+  </si>
+  <si>
+    <t>{actor} tagged {user} to your Slot: {slot}.</t>
+  </si>
+  <si>
+    <t>{actor} tagged {user} and 1 other to the Slot: {slot}.</t>
+  </si>
+  <si>
+    <t>{actor} tagged {user} and 1 other to your Slot: {slot}.</t>
+  </si>
+  <si>
+    <t>{actor} tagged {user} and {count} others to the Slot: {slot}.</t>
+  </si>
+  <si>
+    <t>{actor} tagged {user} and {count} others to your Slot: {slot}.</t>
   </si>
   <si>
     <t>request group membership</t>
@@ -1026,13 +1026,13 @@
     <t>leave</t>
   </si>
   <si>
-    <t>You left the slot group: {NAME}</t>
-  </si>
-  <si>
-    <t>{ACTOR} left the slot group: {NAME}</t>
-  </si>
-  <si>
-    <t>{ACTOR} left your slot group: {NAME}</t>
+    <t>You left the slot group: {group}</t>
+  </si>
+  <si>
+    <t>{actor} left the slot group: {group}</t>
+  </si>
+  <si>
+    <t>{actor} left your slot group: {group}</t>
   </si>
   <si>
     <t>slot was added to a group (by creator)</t>
@@ -1044,37 +1044,43 @@
     <t>ownSlot?</t>
   </si>
   <si>
-    <t>You added your Slot to the slot group: {NAME}</t>
-  </si>
-  <si>
-    <t>You added your Slot to your slot group: {NAME}</t>
+    <t>You added your {slot:Slot} to the slot group: {group}</t>
+  </si>
+  <si>
+    <t>You added your {slot:Slot} to your slot group: {group}</t>
   </si>
   <si>
     <t>member</t>
   </si>
   <si>
-    <t>{ACTOR} added a Slot to the slot group: {NAME}</t>
-  </si>
-  <si>
-    <t>{ACTOR} added a Slot to your slot group: {NAME}</t>
-  </si>
-  <si>
-    <t>{ACTOR} added a Slot to the slot group: {NAME}.</t>
-  </si>
-  <si>
-    <t>{ACTOR} added a Slot to your slot group: {NAME}.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} added a Slot to the slot group: {NAME}.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {USER} added a Slot to your slot group: {NAME}.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others added a Slot to the slot group: {NAME}.</t>
-  </si>
-  <si>
-    <t>{ACTOR} and {COUNT} others added a Slot to your slot group: {NAME}.</t>
+    <t>{actor} added a Slot to the slot group: {group}</t>
+  </si>
+  <si>
+    <t>{actor} added a Slot to your slot group: {group}</t>
+  </si>
+  <si>
+    <t>{actor} added a {slot:Slot} to the slot group: {group}</t>
+  </si>
+  <si>
+    <t>{actor} added a {slot:Slot} to your slot group: {group}</t>
+  </si>
+  <si>
+    <t>{actor} added a {slot:Slot} to the slot group: {group}.</t>
+  </si>
+  <si>
+    <t>{actor} added a {slot:Slot} to your slot group: {group}.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} added a Slot to the slot group: {group}.</t>
+  </si>
+  <si>
+    <t>{actor} and {user} added a Slot to your slot group: {group}.</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others added a {slot:Slot} to the slot group: {group}.</t>
+  </si>
+  <si>
+    <t>{actor} and {count} others added a {slot:Slot} to your slot group: {group}.</t>
   </si>
   <si>
     <t>slot was added to a group through a tag (indirect)</t>
@@ -1086,10 +1092,10 @@
     <t>foreignSlot?</t>
   </si>
   <si>
-    <t>You added a Slot to the slot group: {NAME}</t>
-  </si>
-  <si>
-    <t>You added a Slot to your slot group: {NAME}</t>
+    <t>You added a {slot:Slot} to the slot group: {group}</t>
+  </si>
+  <si>
+    <t>You added a {slot:Slot} to your slot group: {group}</t>
   </si>
   <si>
     <t>slot was removed from group</t>
@@ -1098,25 +1104,25 @@
     <t>ungroup</t>
   </si>
   <si>
-    <t>You removed a Slot from the slot group: {NAME}</t>
-  </si>
-  <si>
-    <t>You removed a Slot from your slot group: {NAME}</t>
+    <t>You removed a {slot:Slot} from the slot group: {group}</t>
+  </si>
+  <si>
+    <t>You removed a {slot:Slot} from your slot group: {group}</t>
   </si>
   <si>
     <t>user creates group</t>
   </si>
   <si>
-    <t>You created the slot group: {NAME}</t>
+    <t>You created the slot group: {group}</t>
   </si>
   <si>
     <t>joiners</t>
   </si>
   <si>
-    <t>{ACTOR} created the slot group: {NAME}.</t>
-  </si>
-  <si>
-    <t>You created the slot group: {NAME}.</t>
+    <t>{actor} created the slot group: {group}.</t>
+  </si>
+  <si>
+    <t>You created the slot group: {group}.</t>
   </si>
   <si>
     <t>Light-Gray: Activity is currently not distributed
@@ -1217,19 +1223,19 @@
     <t>Message Keys</t>
   </si>
   <si>
-    <t>{ACTOR} = the user who makes the action (actor)</t>
-  </si>
-  <si>
-    <t>{USER} = the user who is the target or is foreign user</t>
-  </si>
-  <si>
-    <t>{TITLE} = the title of the slot (target)</t>
-  </si>
-  <si>
-    <t>{NAME} = the name of the group (target)</t>
-  </si>
-  <si>
-    <t>{FIELD} = a custom field name</t>
+    <t>{actor} = the user who makes the action (actor)</t>
+  </si>
+  <si>
+    <t>{user} = the user who is the target or is foreign user</t>
+  </si>
+  <si>
+    <t>{slot} = the title of the slot (target)</t>
+  </si>
+  <si>
+    <t>{group} = the name of the group (target)</t>
+  </si>
+  <si>
+    <t>{field} = a custom field name</t>
   </si>
   <si>
     <t>Distribution Keys: Related to Actor</t>
@@ -1322,6 +1328,9 @@
     <t>USERCOUNT &gt; 2</t>
   </si>
   <si>
+    <t>You commented on the Slot: {TITLE}</t>
+  </si>
+  <si>
     <t>{USER} commented on this Slot.</t>
   </si>
   <si>
@@ -1349,6 +1358,9 @@
     <t>{USER} and {USERCOUNT} others commented on the Slot: {TITLE}</t>
   </si>
   <si>
+    <t>You like the Slot: {TITLE}</t>
+  </si>
+  <si>
     <t>{USER} likes this Slot.</t>
   </si>
   <si>
@@ -1379,6 +1391,9 @@
     <t>{USER} added this Slot.</t>
   </si>
   <si>
+    <t>You added an image to the Slot: {TITLE}</t>
+  </si>
+  <si>
     <t>{USER} added an image to this Slot.</t>
   </si>
   <si>
@@ -1406,6 +1421,9 @@
     <t>{USER} and {USERCOUNT} others added an image to the Slot: {TITLE}</t>
   </si>
   <si>
+    <t>You added a video to the Slot: {TITLE}</t>
+  </si>
+  <si>
     <t>{USER} added a video to this Slot.</t>
   </si>
   <si>
@@ -1433,6 +1451,9 @@
     <t>{USER} and {USERCOUNT} others added a video to the Slot: {TITLE}</t>
   </si>
   <si>
+    <t>You added an audio to the Slot: {TITLE}</t>
+  </si>
+  <si>
     <t>{USER} added an audio to this Slot.</t>
   </si>
   <si>
@@ -1460,6 +1481,9 @@
     <t>{USER} and {USERCOUNT} others added an audio to the Slot: {TITLE}</t>
   </si>
   <si>
+    <t>You added a note to the Slot: {TITLE}</t>
+  </si>
+  <si>
     <t>{USER} added a note to this Slot.</t>
   </si>
   <si>
@@ -1487,6 +1511,9 @@
     <t>{USER} and {USERCOUNT} others added a note to the Slot: {TITLE}</t>
   </si>
   <si>
+    <t>You added new media to the Slot: {TITLE}</t>
+  </si>
+  <si>
     <t>{USER} added new media to this Slot.</t>
   </si>
   <si>
@@ -1517,6 +1544,9 @@
     <t>reslot a slot</t>
   </si>
   <si>
+    <t>You reslotted the Slot: {TITLE}</t>
+  </si>
+  <si>
     <t>{USER} reslotted this Slot.</t>
   </si>
   <si>
@@ -1586,6 +1616,9 @@
     <t>TODO-Aggregate-Push-2</t>
   </si>
   <si>
+    <t>You deleted the Slot: {TITLE}</t>
+  </si>
+  <si>
     <t>{USER} deleted the Slot: {TITLE}</t>
   </si>
   <si>
@@ -1598,6 +1631,9 @@
     <t>deleted reslot</t>
   </si>
   <si>
+    <t>You removed the Reslot: {TITLE}</t>
+  </si>
+  <si>
     <t>TODO-Plural-Activity-4</t>
   </si>
   <si>
@@ -1619,6 +1655,9 @@
     <t>visibility change of slot (user makes public slot private)</t>
   </si>
   <si>
+    <t>You unshared the Slot: {TITLE}</t>
+  </si>
+  <si>
     <t>{USER} unshared the Slot: {TITLE}</t>
   </si>
   <si>
@@ -1665,6 +1704,9 @@
   </si>
   <si>
     <t>user was added through a tag</t>
+  </si>
+  <si>
+    <t>You tagged {USER} to the Slot: {TITLE}</t>
   </si>
   <si>
     <t>{USER} was tagged in this Slot.</t>
@@ -3168,7 +3210,7 @@
     <col customWidth="1" min="7" max="7" width="15.43"/>
     <col customWidth="1" min="8" max="8" width="16.29"/>
     <col customWidth="1" min="9" max="9" width="43.14"/>
-    <col customWidth="1" min="10" max="10" width="42.86"/>
+    <col customWidth="1" min="10" max="10" width="46.0"/>
     <col customWidth="1" min="11" max="11" width="0.86"/>
     <col customWidth="1" min="12" max="12" width="31.0"/>
     <col customWidth="1" min="13" max="13" width="47.57"/>
@@ -5041,41 +5083,41 @@
         <v>288</v>
       </c>
       <c r="Q30" s="27" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="R30" s="41" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="S30" s="29"/>
       <c r="T30" s="23" t="s">
         <v>187</v>
       </c>
       <c r="U30" s="30" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="V30" s="30" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="W30" s="30" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="X30" s="30" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Y30" s="32"/>
       <c r="Z30" s="32"/>
       <c r="AA30" s="30" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AB30" s="30" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AC30" s="32"/>
       <c r="AD30" s="32"/>
     </row>
     <row r="31">
       <c r="A31" s="46" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>195</v>
@@ -5084,20 +5126,20 @@
         <v>181</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="27" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H31" s="28" t="s">
         <v>25</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K31" s="29"/>
       <c r="L31" s="23" t="s">
@@ -5114,41 +5156,41 @@
         <v>288</v>
       </c>
       <c r="Q31" s="27" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="R31" s="41" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="S31" s="29"/>
       <c r="T31" s="23" t="s">
         <v>187</v>
       </c>
       <c r="U31" s="30" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="V31" s="30" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="W31" s="30" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="X31" s="30" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Y31" s="32"/>
       <c r="Z31" s="32"/>
       <c r="AA31" s="30" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AB31" s="30" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AC31" s="32"/>
       <c r="AD31" s="32"/>
     </row>
     <row r="32">
       <c r="A32" s="46" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>278</v>
@@ -5157,7 +5199,7 @@
         <v>181</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
@@ -5165,10 +5207,10 @@
         <v>25</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K32" s="29"/>
       <c r="L32" s="32"/>
@@ -5193,7 +5235,7 @@
     </row>
     <row r="33">
       <c r="A33" s="46" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>131</v>
@@ -5208,10 +5250,10 @@
         <v>25</v>
       </c>
       <c r="I33" s="27" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K33" s="29"/>
       <c r="L33" s="32"/>
@@ -5223,13 +5265,13 @@
       <c r="R33" s="33"/>
       <c r="S33" s="29"/>
       <c r="T33" s="23" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="U33" s="30" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="V33" s="30" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="W33" s="33"/>
       <c r="X33" s="33"/>
@@ -5311,7 +5353,7 @@
     </row>
     <row r="38">
       <c r="A38" s="48" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C38" s="45"/>
       <c r="D38" s="44"/>
@@ -5329,12 +5371,12 @@
     </row>
     <row r="41">
       <c r="A41" s="49" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="23" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>131</v>
@@ -5343,7 +5385,7 @@
         <v>23</v>
       </c>
       <c r="D42" s="44" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
@@ -5351,7 +5393,7 @@
     </row>
     <row r="43">
       <c r="A43" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B43" s="24" t="s">
         <v>131</v>
@@ -5360,7 +5402,7 @@
         <v>132</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
@@ -5368,7 +5410,7 @@
     </row>
     <row r="44">
       <c r="A44" s="23" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>131</v>
@@ -5377,7 +5419,7 @@
         <v>115</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
@@ -5385,13 +5427,13 @@
     </row>
     <row r="45">
       <c r="A45" s="23" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>131</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D45" s="44" t="s">
         <v>44</v>
@@ -5402,7 +5444,7 @@
     </row>
     <row r="46">
       <c r="A46" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B46" s="24" t="s">
         <v>131</v>
@@ -5419,7 +5461,7 @@
     </row>
     <row r="47">
       <c r="A47" s="23" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B47" s="24" t="s">
         <v>131</v>
@@ -5436,7 +5478,7 @@
     </row>
     <row r="48">
       <c r="A48" s="23" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B48" s="24" t="s">
         <v>131</v>
@@ -5453,7 +5495,7 @@
     </row>
     <row r="49">
       <c r="A49" s="23" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B49" s="24" t="s">
         <v>131</v>
@@ -5462,7 +5504,7 @@
         <v>115</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
@@ -5470,7 +5512,7 @@
     </row>
     <row r="50">
       <c r="A50" s="23" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B50" s="24" t="s">
         <v>131</v>
@@ -5479,7 +5521,7 @@
         <v>164</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
@@ -5487,7 +5529,7 @@
     </row>
     <row r="51">
       <c r="A51" s="23" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B51" s="24" t="s">
         <v>131</v>
@@ -5496,7 +5538,7 @@
         <v>181</v>
       </c>
       <c r="D51" s="44" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
@@ -5504,7 +5546,7 @@
     </row>
     <row r="52">
       <c r="A52" s="23" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B52" s="24" t="s">
         <v>131</v>
@@ -5513,7 +5555,7 @@
         <v>164</v>
       </c>
       <c r="D52" s="44" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
@@ -5521,7 +5563,7 @@
     </row>
     <row r="53">
       <c r="A53" s="23" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B53" s="24" t="s">
         <v>131</v>
@@ -5530,7 +5572,7 @@
         <v>23</v>
       </c>
       <c r="D53" s="44" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
@@ -5538,7 +5580,7 @@
     </row>
     <row r="54">
       <c r="A54" s="23" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>131</v>
@@ -5547,7 +5589,7 @@
         <v>164</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
@@ -5555,7 +5597,7 @@
     </row>
     <row r="55">
       <c r="A55" s="23" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B55" s="24" t="s">
         <v>131</v>
@@ -5564,7 +5606,7 @@
         <v>164</v>
       </c>
       <c r="D55" s="44" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
@@ -5585,40 +5627,40 @@
     </row>
     <row r="58">
       <c r="A58" s="49" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="53" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="53" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="49" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="49" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="54" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="23" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -5631,7 +5673,7 @@
     </row>
     <row r="68">
       <c r="A68" s="23" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -5644,7 +5686,7 @@
     </row>
     <row r="69">
       <c r="A69" s="23" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
@@ -5657,7 +5699,7 @@
     </row>
     <row r="70">
       <c r="A70" s="23" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
@@ -5670,7 +5712,7 @@
     </row>
     <row r="71">
       <c r="A71" s="23" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
@@ -5687,10 +5729,10 @@
     </row>
     <row r="73">
       <c r="A73" s="54" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B73" s="54" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
@@ -5700,7 +5742,7 @@
     </row>
     <row r="74">
       <c r="A74" s="23" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B74" s="23"/>
       <c r="D74" s="27"/>
@@ -5711,10 +5753,10 @@
     </row>
     <row r="75">
       <c r="A75" s="23" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B75" s="46" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
@@ -5725,7 +5767,7 @@
     </row>
     <row r="76">
       <c r="A76" s="55" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B76" s="23"/>
       <c r="D76" s="27"/>
@@ -5763,10 +5805,10 @@
     </row>
     <row r="80">
       <c r="A80" s="54" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B80" s="54" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D80" s="27"/>
       <c r="E80" s="27"/>
@@ -5776,7 +5818,7 @@
     </row>
     <row r="81">
       <c r="A81" s="23" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B81" s="23"/>
       <c r="D81" s="27"/>
@@ -5787,7 +5829,7 @@
     </row>
     <row r="82">
       <c r="A82" s="23" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B82" s="23"/>
       <c r="D82" s="27"/>
@@ -5798,7 +5840,7 @@
     </row>
     <row r="83">
       <c r="A83" s="23" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B83" s="23"/>
       <c r="D83" s="27"/>
@@ -5809,7 +5851,7 @@
     </row>
     <row r="84">
       <c r="A84" s="23" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B84" s="23"/>
       <c r="D84" s="27"/>
@@ -5820,7 +5862,7 @@
     </row>
     <row r="85">
       <c r="A85" s="23" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B85" s="23"/>
       <c r="D85" s="27"/>
@@ -5831,7 +5873,7 @@
     </row>
     <row r="86">
       <c r="A86" s="55" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B86" s="23"/>
       <c r="D86" s="27"/>
@@ -5860,10 +5902,10 @@
     </row>
     <row r="89">
       <c r="A89" s="54" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B89" s="54" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
@@ -5873,7 +5915,7 @@
     </row>
     <row r="90">
       <c r="A90" s="23" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B90" s="23"/>
       <c r="D90" s="27"/>
@@ -5884,7 +5926,7 @@
     </row>
     <row r="91">
       <c r="A91" s="23" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B91" s="23"/>
       <c r="D91" s="27"/>
@@ -5895,7 +5937,7 @@
     </row>
     <row r="92">
       <c r="A92" s="55" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B92" s="23"/>
       <c r="D92" s="27"/>
@@ -5923,33 +5965,33 @@
     </row>
     <row r="96">
       <c r="A96" s="54" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B96" s="54" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="23" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B97" s="23"/>
     </row>
     <row r="98">
       <c r="A98" s="23" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B98" s="23"/>
     </row>
     <row r="99">
       <c r="A99" s="23" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B99" s="23"/>
     </row>
     <row r="100">
       <c r="A100" s="23" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B100" s="23"/>
     </row>
@@ -5959,15 +6001,15 @@
     </row>
     <row r="102">
       <c r="A102" s="54" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B102" s="54" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="23" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B103" s="23"/>
     </row>
@@ -5985,18 +6027,18 @@
     </row>
     <row r="107">
       <c r="A107" s="54" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B107" s="54" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="23" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B108" s="46" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="109">
@@ -6032,254 +6074,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <f>LOWER('Definition (EN)'!C4&amp;"_"&amp;'Definition (EN)'!D4&amp;"_"&amp;'Definition (EN)'!$I$3&amp;":")</f>
-        <v>slot_comment_me:</v>
-      </c>
-      <c r="B1" t="str">
-        <f t="shared" ref="B1:B4" si="2">"%w("</f>
-        <v>%w(</v>
-      </c>
-      <c r="C1" t="str">
-        <f t="shared" ref="C1:C4" si="3">if(ISTEXT(O1), O1, "")</f>
-        <v>actor</v>
-      </c>
-      <c r="D1" t="str">
-        <f t="shared" ref="D1:L1" si="1">if(ISBLANK(P1), "", " ")&amp;if(ISBLANK(P1), "", P1)</f>
-        <v/>
-      </c>
-      <c r="E1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M1" s="27" t="str">
-        <f t="shared" ref="M1:M4" si="5">"),"</f>
-        <v>),</v>
-      </c>
-      <c r="O1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(ISTEXT('Definition (EN)'!H4), SPLIT('Definition (EN)'!H4, "" + "", TRUE), """")"),"actor")</f>
-        <v>actor</v>
-      </c>
+      <c r="M1" s="27"/>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <f>LOWER('Definition (EN)'!C4&amp;"_"&amp;'Definition (EN)'!D4&amp;"_"&amp;'Definition (EN)'!$U$3&amp;":")</f>
-        <v>slot_comment_activity:</v>
-      </c>
-      <c r="B2" t="str">
-        <f t="shared" si="2"/>
-        <v>%w(</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" si="3"/>
-        <v>friends</v>
-      </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:L2" si="4">if(ISBLANK(P2), "", " ")&amp;if(ISBLANK(P2), "", P2)</f>
-        <v> follower</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" si="4"/>
-        <v> creator</v>
-      </c>
-      <c r="F2" t="str">
-        <f t="shared" si="4"/>
-        <v> member</v>
-      </c>
-      <c r="G2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M2" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>),</v>
-      </c>
-      <c r="O2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(ISTEXT('Definition (EN)'!T4), SPLIT('Definition (EN)'!T4, "" + "", TRUE), """")"),"friends")</f>
-        <v>friends</v>
-      </c>
-      <c r="P2" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" t="s">
-        <v>288</v>
-      </c>
+      <c r="M2" s="27"/>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <f>LOWER('Definition (EN)'!C4&amp;"_"&amp;'Definition (EN)'!D4&amp;"_"&amp;'Definition (EN)'!$Q$3&amp;":")</f>
-        <v>slot_comment_notify:</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" si="2"/>
-        <v>%w(</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="3"/>
-        <v>commenter</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:L3" si="6">if(ISBLANK(P3), "", " ")&amp;if(ISBLANK(P3), "", P3)</f>
-        <v> creator</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M3" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>),</v>
-      </c>
-      <c r="O3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(ISTEXT('Definition (EN)'!P4), SPLIT('Definition (EN)'!P4, "" + "", TRUE), """")"),"commenter")</f>
-        <v>commenter</v>
-      </c>
-      <c r="P3" t="s">
-        <v>47</v>
-      </c>
+      <c r="M3" s="27"/>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <f>LOWER('Definition (EN)'!C4&amp;"_"&amp;'Definition (EN)'!D4&amp;"_"&amp;'Definition (EN)'!$M$3&amp;":")</f>
-        <v>slot_comment_push:</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="2"/>
-        <v>%w(</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="3"/>
-        <v>commenter</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" ref="D4:L4" si="7">if(ISBLANK(P4), "", " ")&amp;if(ISBLANK(P4), "", P4)</f>
-        <v> creator</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="7"/>
-        <v> follower</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M4" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>),</v>
-      </c>
-      <c r="O4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(ISTEXT('Definition (EN)'!L4), SPLIT('Definition (EN)'!L4, "" + "", TRUE), """")"),"commenter")</f>
-        <v>commenter</v>
-      </c>
-      <c r="P4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>211</v>
-      </c>
+      <c r="M4" s="27"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6329,13 +6133,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="57" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K1" s="57" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="N1" s="57" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2">
@@ -6420,34 +6224,34 @@
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
       <c r="G4" s="35" t="s">
-        <v>26</v>
+        <v>380</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="P4" s="27" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5">
@@ -6466,34 +6270,34 @@
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="G5" s="35" t="s">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6">
@@ -6512,10 +6316,10 @@
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="35" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
@@ -6542,34 +6346,34 @@
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="35" t="s">
-        <v>67</v>
+        <v>401</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="N7" s="68" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="P7" s="35" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8">
@@ -6588,34 +6392,34 @@
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
       <c r="G8" s="35" t="s">
-        <v>84</v>
+        <v>411</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="N8" s="68" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9">
@@ -6634,34 +6438,34 @@
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="35" t="s">
-        <v>100</v>
+        <v>421</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="N9" s="68" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10">
@@ -6680,34 +6484,34 @@
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
       <c r="G10" s="35" t="s">
-        <v>116</v>
+        <v>431</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="N10" s="68" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11">
@@ -6726,39 +6530,39 @@
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="35" t="s">
-        <v>133</v>
+        <v>441</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="N11" s="68" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="23" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B12" s="24">
         <v>0.8</v>
@@ -6772,34 +6576,34 @@
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="35" t="s">
-        <v>150</v>
+        <v>452</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="P12" s="27" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13">
@@ -6818,26 +6622,26 @@
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="35" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="27" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="K13" s="39" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="M13" s="39" t="s">
         <v>171</v>
       </c>
       <c r="N13" s="39" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="O13" s="39" t="s">
         <v>172</v>
@@ -6848,7 +6652,7 @@
     </row>
     <row r="14">
       <c r="A14" s="23" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="B14" s="24">
         <v>0.8</v>
@@ -6862,32 +6666,32 @@
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="35" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="27" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="L14" s="39" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="M14" s="39" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="N14" s="39" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="O14" s="39" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="P14" s="39" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15">
@@ -6906,17 +6710,17 @@
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
       <c r="G15" s="35" t="s">
-        <v>210</v>
+        <v>476</v>
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="27" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="K15" s="39" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="L15" s="39" t="s">
         <v>213</v>
@@ -6925,7 +6729,7 @@
         <v>214</v>
       </c>
       <c r="N15" s="39" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="O15" s="39" t="s">
         <v>206</v>
@@ -6936,7 +6740,7 @@
     </row>
     <row r="16">
       <c r="A16" s="23" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="B16" s="43">
         <v>0.83</v>
@@ -6948,13 +6752,13 @@
         <v>218</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>219</v>
+        <v>481</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
       <c r="K16" s="39" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="L16" s="39" t="s">
         <v>220</v>
@@ -6963,7 +6767,7 @@
         <v>221</v>
       </c>
       <c r="N16" s="39" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="O16" s="39" t="s">
         <v>215</v>
@@ -6986,17 +6790,17 @@
         <v>225</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="H17" s="32"/>
       <c r="I17" s="27" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="L17" s="39" t="s">
         <v>228</v>
@@ -7005,7 +6809,7 @@
         <v>229</v>
       </c>
       <c r="N17" s="39" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="O17" s="39" t="s">
         <v>222</v>
@@ -7016,7 +6820,7 @@
     </row>
     <row r="18">
       <c r="A18" s="23" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="B18" s="43">
         <v>0.83</v>
@@ -7029,17 +6833,17 @@
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="35" t="s">
-        <v>234</v>
+        <v>489</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="27" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="K18" s="39" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="L18" s="39" t="s">
         <v>236</v>
@@ -7048,7 +6852,7 @@
         <v>237</v>
       </c>
       <c r="N18" s="39" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="O18" s="39" t="s">
         <v>230</v>
@@ -7059,7 +6863,7 @@
     </row>
     <row r="19">
       <c r="A19" s="23" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>131</v>
@@ -7068,19 +6872,19 @@
         <v>23</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="J19" s="39" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
@@ -7103,7 +6907,7 @@
         <v>249</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
@@ -7129,7 +6933,7 @@
         <v>253</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
@@ -7143,7 +6947,7 @@
     </row>
     <row r="22">
       <c r="A22" s="23" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>131</v>
@@ -7155,16 +6959,16 @@
         <v>257</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="J22" s="39" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="K22" s="32"/>
       <c r="L22" s="32"/>
@@ -7175,7 +6979,7 @@
     </row>
     <row r="23">
       <c r="A23" s="23" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>131</v>
@@ -7187,24 +6991,24 @@
         <v>257</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>258</v>
+        <v>506</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
       <c r="N23" s="27" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="O23" s="32"/>
       <c r="P23" s="32"/>
@@ -7241,7 +7045,7 @@
     </row>
     <row r="26">
       <c r="A26" s="48" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="C26" s="45"/>
       <c r="D26" s="44"/>
@@ -7452,8 +7256,8 @@
         <v>slot_comment_me_singular:</v>
       </c>
       <c r="B1" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I4, "{", "%{")&amp;""""</f>
-        <v>"You commented on the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!I4&amp;""""</f>
+        <v>"You commented on the Slot: {slot}"</v>
       </c>
     </row>
     <row r="2">
@@ -7462,8 +7266,8 @@
         <v>slot_comment_activity_singular:</v>
       </c>
       <c r="B2" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U4, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} commented on this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!U4&amp;""""</f>
+        <v>"{actor} commented on this Slot."</v>
       </c>
     </row>
     <row r="3">
@@ -7472,8 +7276,8 @@
         <v>slot_comment_notify_singular:</v>
       </c>
       <c r="B3" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q4, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} commented on the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!Q4&amp;""""</f>
+        <v>"{actor} commented on the Slot: {slot}"</v>
       </c>
     </row>
     <row r="4">
@@ -7483,7 +7287,7 @@
       </c>
       <c r="B4" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!M4, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} commented on the Slot: %{TITLE}"</v>
+        <v>"%{actor} commented on the Slot: %{slot}"</v>
       </c>
     </row>
     <row r="5">
@@ -7492,8 +7296,8 @@
         <v>slot_comment_activity_plural:</v>
       </c>
       <c r="B5" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W4, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} commented on this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!W4&amp;""""</f>
+        <v>"{actor} and {user} commented on this Slot."</v>
       </c>
     </row>
     <row r="6">
@@ -7502,8 +7306,8 @@
         <v>slot_comment_activity_aggregate:</v>
       </c>
       <c r="B6" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA4, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{COUNT} others commented on this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!AA4&amp;""""</f>
+        <v>"{actor} and {count} others commented on this Slot."</v>
       </c>
     </row>
     <row r="7">
@@ -7512,8 +7316,8 @@
         <v>slot_comment_me-to-owner_singular:</v>
       </c>
       <c r="B7" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J4, "{", "%{")&amp;""""</f>
-        <v>"You commented on your Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!J4&amp;""""</f>
+        <v>"You commented on your Slot: {slot}"</v>
       </c>
     </row>
     <row r="8">
@@ -7522,8 +7326,8 @@
         <v>slot_comment_activity-to-owner_singular:</v>
       </c>
       <c r="B8" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V4, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} commented on your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!V4&amp;""""</f>
+        <v>"{actor} commented on your Slot."</v>
       </c>
     </row>
     <row r="9">
@@ -7532,8 +7336,8 @@
         <v>slot_comment_notify-to-owner_singular:</v>
       </c>
       <c r="B9" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R4, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} commented on your Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!R4&amp;""""</f>
+        <v>"{actor} commented on your Slot: {slot}"</v>
       </c>
     </row>
     <row r="10">
@@ -7543,7 +7347,7 @@
       </c>
       <c r="B10" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!N4, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} commented on your Slot: %{TITLE}"</v>
+        <v>"%{actor} commented on your Slot: %{slot}"</v>
       </c>
     </row>
     <row r="11">
@@ -7552,8 +7356,8 @@
         <v>slot_comment_activity-to-owner_plural:</v>
       </c>
       <c r="B11" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X4, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} commented on your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!X4&amp;""""</f>
+        <v>"{actor} and {user} commented on your Slot."</v>
       </c>
     </row>
     <row r="12">
@@ -7562,8 +7366,8 @@
         <v>slot_comment_activity-to-owner_aggregate:</v>
       </c>
       <c r="B12" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB4, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{COUNT} others commented on your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!AB4&amp;""""</f>
+        <v>"{actor} and {count} others commented on your Slot."</v>
       </c>
     </row>
     <row r="14">
@@ -7572,8 +7376,8 @@
         <v>slot_like_me_singular:</v>
       </c>
       <c r="B14" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I5, "{", "%{")&amp;""""</f>
-        <v>"You like the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!I5&amp;""""</f>
+        <v>"You like the Slot: {slot}"</v>
       </c>
     </row>
     <row r="15">
@@ -7582,8 +7386,8 @@
         <v>slot_like_activity_singular:</v>
       </c>
       <c r="B15" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U5, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} likes this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!U5&amp;""""</f>
+        <v>"{actor} likes this Slot."</v>
       </c>
     </row>
     <row r="16">
@@ -7592,8 +7396,8 @@
         <v>slot_like_notify_singular:</v>
       </c>
       <c r="B16" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q5, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} likes your Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!Q5&amp;""""</f>
+        <v>"{actor} likes your Slot: {slot}"</v>
       </c>
     </row>
     <row r="17">
@@ -7603,7 +7407,7 @@
       </c>
       <c r="B17" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!M5, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} likes your Slot: %{TITLE}"</v>
+        <v>"%{actor} likes your Slot: %{slot}"</v>
       </c>
     </row>
     <row r="18">
@@ -7612,8 +7416,8 @@
         <v>slot_like_activity_plural:</v>
       </c>
       <c r="B18" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W5, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} like this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!W5&amp;""""</f>
+        <v>"{actor} and {user} like this Slot."</v>
       </c>
     </row>
     <row r="19">
@@ -7622,8 +7426,8 @@
         <v>slot_like_activity_aggregate:</v>
       </c>
       <c r="B19" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA5, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{COUNT} others like this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!AA5&amp;""""</f>
+        <v>"{actor} and {count} others like this Slot."</v>
       </c>
     </row>
     <row r="20">
@@ -7632,8 +7436,8 @@
         <v>slot_like_me-to-owner_singular:</v>
       </c>
       <c r="B20" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J5, "{", "%{")&amp;""""</f>
-        <v>"You like your Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!J5&amp;""""</f>
+        <v>"You like your Slot: {slot}"</v>
       </c>
     </row>
     <row r="21">
@@ -7642,8 +7446,8 @@
         <v>slot_like_activity-to-owner_singular:</v>
       </c>
       <c r="B21" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V5, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} likes your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!V5&amp;""""</f>
+        <v>"{actor} likes your Slot."</v>
       </c>
     </row>
     <row r="22">
@@ -7652,8 +7456,8 @@
         <v>slot_like_notify-to-owner_singular:</v>
       </c>
       <c r="B22" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R5, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} likes your Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!R5&amp;""""</f>
+        <v>"{actor} likes your Slot: {slot}"</v>
       </c>
     </row>
     <row r="23">
@@ -7663,7 +7467,7 @@
       </c>
       <c r="B23" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!N5, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} likes your Slot: %{TITLE}"</v>
+        <v>"%{actor} likes your Slot: %{slot}"</v>
       </c>
     </row>
     <row r="24">
@@ -7672,8 +7476,8 @@
         <v>slot_like_activity-to-owner_plural:</v>
       </c>
       <c r="B24" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X5, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} like your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!X5&amp;""""</f>
+        <v>"{actor} and {user} like your Slot."</v>
       </c>
     </row>
     <row r="25">
@@ -7682,8 +7486,8 @@
         <v>slot_like_activity-to-owner_aggregate:</v>
       </c>
       <c r="B25" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB5, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{COUNT} others like your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!AB5&amp;""""</f>
+        <v>"{actor} and {count} others like your Slot."</v>
       </c>
     </row>
     <row r="27">
@@ -7692,8 +7496,8 @@
         <v>slot_create_me_singular:</v>
       </c>
       <c r="B27" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I6, "{", "%{")&amp;""""</f>
-        <v>"You have created the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!I6&amp;""""</f>
+        <v>"You have created the Slot: {slot}"</v>
       </c>
     </row>
     <row r="28">
@@ -7702,8 +7506,8 @@
         <v>slot_create_activity_singular:</v>
       </c>
       <c r="B28" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U6, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} creates this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!U6&amp;""""</f>
+        <v>"{actor} creates this Slot."</v>
       </c>
     </row>
     <row r="29">
@@ -7712,7 +7516,7 @@
         <v>slot_create_notify_singular:</v>
       </c>
       <c r="B29" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q6, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!Q6&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -7732,7 +7536,7 @@
         <v>slot_create_activity_plural:</v>
       </c>
       <c r="B31" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W6, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!W6&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -7742,7 +7546,7 @@
         <v>slot_create_activity_aggregate:</v>
       </c>
       <c r="B32" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA6, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AA6&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -7752,8 +7556,8 @@
         <v>slot_create_me-to-owner_singular:</v>
       </c>
       <c r="B33" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J6, "{", "%{")&amp;""""</f>
-        <v>"You have created the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!J6&amp;""""</f>
+        <v>"You have created the Slot: {slot}"</v>
       </c>
     </row>
     <row r="34">
@@ -7762,7 +7566,7 @@
         <v>slot_create_activity-to-owner_singular:</v>
       </c>
       <c r="B34" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V6, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!V6&amp;""""</f>
         <v>"You have created this Slot."</v>
       </c>
     </row>
@@ -7772,7 +7576,7 @@
         <v>slot_create_notify-to-owner_singular:</v>
       </c>
       <c r="B35" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R6, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!R6&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -7792,7 +7596,7 @@
         <v>slot_create_activity-to-owner_plural:</v>
       </c>
       <c r="B37" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X6, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!X6&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -7802,7 +7606,7 @@
         <v>slot_create_activity-to-owner_aggregate:</v>
       </c>
       <c r="B38" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB6, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AB6&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -7812,8 +7616,8 @@
         <v>slot_image_me_singular:</v>
       </c>
       <c r="B40" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I7, "{", "%{")&amp;""""</f>
-        <v>"You added an image to the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!I7&amp;""""</f>
+        <v>"You added an image to the Slot: {slot}"</v>
       </c>
     </row>
     <row r="41">
@@ -7822,8 +7626,8 @@
         <v>slot_image_activity_singular:</v>
       </c>
       <c r="B41" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U7, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added an image to this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!U7&amp;""""</f>
+        <v>"{actor} added an image to this Slot."</v>
       </c>
     </row>
     <row r="42">
@@ -7832,8 +7636,8 @@
         <v>slot_image_notify_singular:</v>
       </c>
       <c r="B42" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q7, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added an image to the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!Q7&amp;""""</f>
+        <v>"{actor} added an image to the Slot: {slot}"</v>
       </c>
     </row>
     <row r="43">
@@ -7843,7 +7647,7 @@
       </c>
       <c r="B43" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!M7, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added an image to the Slot: %{TITLE}"</v>
+        <v>"%{actor} added an image to the Slot: %{slot}"</v>
       </c>
     </row>
     <row r="44">
@@ -7852,8 +7656,8 @@
         <v>slot_image_activity_plural:</v>
       </c>
       <c r="B44" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W7, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} added an image to this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!W7&amp;""""</f>
+        <v>"{actor} and {user} added an image to this Slot."</v>
       </c>
     </row>
     <row r="45">
@@ -7862,8 +7666,8 @@
         <v>slot_image_activity_aggregate:</v>
       </c>
       <c r="B45" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA7, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{COUNT} others added an image to this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!AA7&amp;""""</f>
+        <v>"{actor} and {count} others added an image to this Slot."</v>
       </c>
     </row>
     <row r="46">
@@ -7872,8 +7676,8 @@
         <v>slot_image_me-to-owner_singular:</v>
       </c>
       <c r="B46" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J7, "{", "%{")&amp;""""</f>
-        <v>"You added an image to your Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!J7&amp;""""</f>
+        <v>"You added an image to your Slot: {slot}"</v>
       </c>
     </row>
     <row r="47">
@@ -7882,8 +7686,8 @@
         <v>slot_image_activity-to-owner_singular:</v>
       </c>
       <c r="B47" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V7, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added an image to your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!V7&amp;""""</f>
+        <v>"{actor} added an image to your Slot."</v>
       </c>
     </row>
     <row r="48">
@@ -7892,8 +7696,8 @@
         <v>slot_image_notify-to-owner_singular:</v>
       </c>
       <c r="B48" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R7, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added an image to your Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!R7&amp;""""</f>
+        <v>"{actor} added an image to your Slot: {slot}"</v>
       </c>
     </row>
     <row r="49">
@@ -7903,7 +7707,7 @@
       </c>
       <c r="B49" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!N7, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added an image to your Slot: %{TITLE}"</v>
+        <v>"%{actor} added an image to your Slot: %{slot}"</v>
       </c>
     </row>
     <row r="50">
@@ -7912,8 +7716,8 @@
         <v>slot_image_activity-to-owner_plural:</v>
       </c>
       <c r="B50" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X7, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} added an image to your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!X7&amp;""""</f>
+        <v>"{actor} and {user} added an image to your Slot."</v>
       </c>
     </row>
     <row r="51">
@@ -7922,8 +7726,8 @@
         <v>slot_image_activity-to-owner_aggregate:</v>
       </c>
       <c r="B51" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB7, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{COUNT} others added an image to your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!AB7&amp;""""</f>
+        <v>"{actor} and {count} others added an image to your Slot."</v>
       </c>
     </row>
     <row r="53">
@@ -7932,8 +7736,8 @@
         <v>slot_video_me_singular:</v>
       </c>
       <c r="B53" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I8, "{", "%{")&amp;""""</f>
-        <v>"You added a video to the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!I8&amp;""""</f>
+        <v>"You added a video to the Slot: {slot}"</v>
       </c>
     </row>
     <row r="54">
@@ -7942,8 +7746,8 @@
         <v>slot_video_activity_singular:</v>
       </c>
       <c r="B54" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U8, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a video to this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!U8&amp;""""</f>
+        <v>"{actor} added a video to this Slot."</v>
       </c>
     </row>
     <row r="55">
@@ -7952,8 +7756,8 @@
         <v>slot_video_notify_singular:</v>
       </c>
       <c r="B55" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q8, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a video to the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!Q8&amp;""""</f>
+        <v>"{actor} added a video to the Slot: {slot}"</v>
       </c>
     </row>
     <row r="56">
@@ -7963,7 +7767,7 @@
       </c>
       <c r="B56" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!M8, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a video to the Slot: %{TITLE}"</v>
+        <v>"%{actor} added a video to the Slot: %{slot}"</v>
       </c>
     </row>
     <row r="57">
@@ -7972,8 +7776,8 @@
         <v>slot_video_activity_plural:</v>
       </c>
       <c r="B57" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W8, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} added a video to this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!W8&amp;""""</f>
+        <v>"{actor} and {user} added a video to this Slot."</v>
       </c>
     </row>
     <row r="58">
@@ -7982,8 +7786,8 @@
         <v>slot_video_activity_aggregate:</v>
       </c>
       <c r="B58" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA8, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{COUNT} others added a video to this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!AA8&amp;""""</f>
+        <v>"{actor} and {count} others added a video to this Slot."</v>
       </c>
     </row>
     <row r="59">
@@ -7992,8 +7796,8 @@
         <v>slot_video_me-to-owner_singular:</v>
       </c>
       <c r="B59" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J8, "{", "%{")&amp;""""</f>
-        <v>"You added a video to your Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!J8&amp;""""</f>
+        <v>"You added a video to your Slot: {slot}"</v>
       </c>
     </row>
     <row r="60">
@@ -8002,8 +7806,8 @@
         <v>slot_video_activity-to-owner_singular:</v>
       </c>
       <c r="B60" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V8, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a video to your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!V8&amp;""""</f>
+        <v>"{actor} added a video to your Slot."</v>
       </c>
     </row>
     <row r="61">
@@ -8012,8 +7816,8 @@
         <v>slot_video_notify-to-owner_singular:</v>
       </c>
       <c r="B61" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R8, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a video to your Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!R8&amp;""""</f>
+        <v>"{actor} added a video to your Slot: {slot}"</v>
       </c>
     </row>
     <row r="62">
@@ -8023,7 +7827,7 @@
       </c>
       <c r="B62" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!N8, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a video to your Slot: %{TITLE}"</v>
+        <v>"%{actor} added a video to your Slot: %{slot}"</v>
       </c>
     </row>
     <row r="63">
@@ -8032,8 +7836,8 @@
         <v>slot_video_activity-to-owner_plural:</v>
       </c>
       <c r="B63" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X8, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} added a video to your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!X8&amp;""""</f>
+        <v>"{actor} and {user} added a video to your Slot."</v>
       </c>
     </row>
     <row r="64">
@@ -8042,8 +7846,8 @@
         <v>slot_video_activity-to-owner_aggregate:</v>
       </c>
       <c r="B64" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB8, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{COUNT} others added a video to your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!AB8&amp;""""</f>
+        <v>"{actor} and {count} others added a video to your Slot."</v>
       </c>
     </row>
     <row r="66">
@@ -8052,8 +7856,8 @@
         <v>slot_audio_me_singular:</v>
       </c>
       <c r="B66" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I9, "{", "%{")&amp;""""</f>
-        <v>"You added an audio to the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!I9&amp;""""</f>
+        <v>"You added an audio to the Slot: {slot}"</v>
       </c>
     </row>
     <row r="67">
@@ -8062,8 +7866,8 @@
         <v>slot_audio_activity_singular:</v>
       </c>
       <c r="B67" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U9, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added an audio to this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!U9&amp;""""</f>
+        <v>"{actor} added an audio to this Slot."</v>
       </c>
     </row>
     <row r="68">
@@ -8072,8 +7876,8 @@
         <v>slot_audio_notify_singular:</v>
       </c>
       <c r="B68" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q9, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added an audio to the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!Q9&amp;""""</f>
+        <v>"{actor} added an audio to the Slot: {slot}"</v>
       </c>
     </row>
     <row r="69">
@@ -8083,7 +7887,7 @@
       </c>
       <c r="B69" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!M9, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added an audio to the Slot: %{TITLE}"</v>
+        <v>"%{actor} added an audio to the Slot: %{slot}"</v>
       </c>
     </row>
     <row r="70">
@@ -8092,8 +7896,8 @@
         <v>slot_audio_activity_plural:</v>
       </c>
       <c r="B70" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W9, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} added an audio to this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!W9&amp;""""</f>
+        <v>"{actor} and {user} added an audio to this Slot."</v>
       </c>
     </row>
     <row r="71">
@@ -8102,8 +7906,8 @@
         <v>slot_audio_activity_aggregate:</v>
       </c>
       <c r="B71" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA9, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{COUNT} others added an audio to this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!AA9&amp;""""</f>
+        <v>"{actor} and {count} others added an audio to this Slot."</v>
       </c>
     </row>
     <row r="72">
@@ -8112,8 +7916,8 @@
         <v>slot_audio_me-to-owner_singular:</v>
       </c>
       <c r="B72" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J9, "{", "%{")&amp;""""</f>
-        <v>"You added an audio to your Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!J9&amp;""""</f>
+        <v>"You added an audio to your Slot: {slot}"</v>
       </c>
     </row>
     <row r="73">
@@ -8122,8 +7926,8 @@
         <v>slot_audio_activity-to-owner_singular:</v>
       </c>
       <c r="B73" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V9, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added an audio to your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!V9&amp;""""</f>
+        <v>"{actor} added an audio to your Slot."</v>
       </c>
     </row>
     <row r="74">
@@ -8132,8 +7936,8 @@
         <v>slot_audio_notify-to-owner_singular:</v>
       </c>
       <c r="B74" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R9, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added an audio to your Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!R9&amp;""""</f>
+        <v>"{actor} added an audio to your Slot: {slot}"</v>
       </c>
     </row>
     <row r="75">
@@ -8143,7 +7947,7 @@
       </c>
       <c r="B75" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!N9, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added an audio to your Slot: %{TITLE}"</v>
+        <v>"%{actor} added an audio to your Slot: %{slot}"</v>
       </c>
     </row>
     <row r="76">
@@ -8152,8 +7956,8 @@
         <v>slot_audio_activity-to-owner_plural:</v>
       </c>
       <c r="B76" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X9, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} added an audio to your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!X9&amp;""""</f>
+        <v>"{actor} and {user} added an audio to your Slot."</v>
       </c>
     </row>
     <row r="77">
@@ -8162,8 +7966,8 @@
         <v>slot_audio_activity-to-owner_aggregate:</v>
       </c>
       <c r="B77" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB9, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{COUNT} others added an audio to your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!AB9&amp;""""</f>
+        <v>"{actor} and {count} others added an audio to your Slot."</v>
       </c>
     </row>
     <row r="79">
@@ -8172,8 +7976,8 @@
         <v>slot_note_me_singular:</v>
       </c>
       <c r="B79" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I10, "{", "%{")&amp;""""</f>
-        <v>"You added a note to the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!I10&amp;""""</f>
+        <v>"You added a note to the Slot: {slot}"</v>
       </c>
     </row>
     <row r="80">
@@ -8182,8 +7986,8 @@
         <v>slot_note_activity_singular:</v>
       </c>
       <c r="B80" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U10, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a note to this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!U10&amp;""""</f>
+        <v>"{actor} added a note to this Slot."</v>
       </c>
     </row>
     <row r="81">
@@ -8192,8 +7996,8 @@
         <v>slot_note_notify_singular:</v>
       </c>
       <c r="B81" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q10, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a note to the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!Q10&amp;""""</f>
+        <v>"{actor} added a note to the Slot: {slot}"</v>
       </c>
     </row>
     <row r="82">
@@ -8203,7 +8007,7 @@
       </c>
       <c r="B82" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!M10, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a note to the Slot: %{TITLE}"</v>
+        <v>"%{actor} added a note to the Slot: %{slot}"</v>
       </c>
     </row>
     <row r="83">
@@ -8212,8 +8016,8 @@
         <v>slot_note_activity_plural:</v>
       </c>
       <c r="B83" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W10, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} added a note to this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!W10&amp;""""</f>
+        <v>"{actor} and {user} added a note to this Slot."</v>
       </c>
     </row>
     <row r="84">
@@ -8222,8 +8026,8 @@
         <v>slot_note_activity_aggregate:</v>
       </c>
       <c r="B84" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA10, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{COUNT} others added a note to this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!AA10&amp;""""</f>
+        <v>"{actor} and {count} others added a note to this Slot."</v>
       </c>
     </row>
     <row r="85">
@@ -8232,8 +8036,8 @@
         <v>slot_note_me-to-owner_singular:</v>
       </c>
       <c r="B85" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J10, "{", "%{")&amp;""""</f>
-        <v>"You added a note to your Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!J10&amp;""""</f>
+        <v>"You added a note to your Slot: {slot}"</v>
       </c>
     </row>
     <row r="86">
@@ -8242,8 +8046,8 @@
         <v>slot_note_activity-to-owner_singular:</v>
       </c>
       <c r="B86" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V10, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a note to your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!V10&amp;""""</f>
+        <v>"{actor} added a note to your Slot."</v>
       </c>
     </row>
     <row r="87">
@@ -8252,8 +8056,8 @@
         <v>slot_note_notify-to-owner_singular:</v>
       </c>
       <c r="B87" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R10, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a note to your Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!R10&amp;""""</f>
+        <v>"{actor} added a note to your Slot: {slot}"</v>
       </c>
     </row>
     <row r="88">
@@ -8263,7 +8067,7 @@
       </c>
       <c r="B88" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!N10, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a note to your Slot: %{TITLE}"</v>
+        <v>"%{actor} added a note to your Slot: %{slot}"</v>
       </c>
     </row>
     <row r="89">
@@ -8272,8 +8076,8 @@
         <v>slot_note_activity-to-owner_plural:</v>
       </c>
       <c r="B89" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X10, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} added a note to your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!X10&amp;""""</f>
+        <v>"{actor} and {user} added a note to your Slot."</v>
       </c>
     </row>
     <row r="90">
@@ -8282,8 +8086,8 @@
         <v>slot_note_activity-to-owner_aggregate:</v>
       </c>
       <c r="B90" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB10, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{COUNT} others added a note to your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!AB10&amp;""""</f>
+        <v>"{actor} and {count} others added a note to your Slot."</v>
       </c>
     </row>
     <row r="92">
@@ -8292,8 +8096,8 @@
         <v>slot_media_me_singular:</v>
       </c>
       <c r="B92" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I11, "{", "%{")&amp;""""</f>
-        <v>"You added new media to the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!I11&amp;""""</f>
+        <v>"You added new media to the Slot: {slot}"</v>
       </c>
     </row>
     <row r="93">
@@ -8302,8 +8106,8 @@
         <v>slot_media_activity_singular:</v>
       </c>
       <c r="B93" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U11, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added new media to this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!U11&amp;""""</f>
+        <v>"{actor} added new media to this Slot."</v>
       </c>
     </row>
     <row r="94">
@@ -8312,8 +8116,8 @@
         <v>slot_media_notify_singular:</v>
       </c>
       <c r="B94" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q11, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added new media to the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!Q11&amp;""""</f>
+        <v>"{actor} added new media to the Slot: {slot}"</v>
       </c>
     </row>
     <row r="95">
@@ -8323,7 +8127,7 @@
       </c>
       <c r="B95" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!M11, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added new media to the Slot: %{TITLE}"</v>
+        <v>"%{actor} added new media to the Slot: %{slot}"</v>
       </c>
     </row>
     <row r="96">
@@ -8332,8 +8136,8 @@
         <v>slot_media_activity_plural:</v>
       </c>
       <c r="B96" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W11, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} added new media to this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!W11&amp;""""</f>
+        <v>"{actor} and {user} added new media to this Slot."</v>
       </c>
     </row>
     <row r="97">
@@ -8342,8 +8146,8 @@
         <v>slot_media_activity_aggregate:</v>
       </c>
       <c r="B97" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA11, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{COUNT} others added new media to this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!AA11&amp;""""</f>
+        <v>"{actor} and {count} others added new media to this Slot."</v>
       </c>
     </row>
     <row r="98">
@@ -8352,8 +8156,8 @@
         <v>slot_media_me-to-owner_singular:</v>
       </c>
       <c r="B98" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J11, "{", "%{")&amp;""""</f>
-        <v>"You added new media to your Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!J11&amp;""""</f>
+        <v>"You added new media to your Slot: {slot}"</v>
       </c>
     </row>
     <row r="99">
@@ -8362,8 +8166,8 @@
         <v>slot_media_activity-to-owner_singular:</v>
       </c>
       <c r="B99" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V11, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added new media to your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!V11&amp;""""</f>
+        <v>"{actor} added new media to your Slot."</v>
       </c>
     </row>
     <row r="100">
@@ -8372,8 +8176,8 @@
         <v>slot_media_notify-to-owner_singular:</v>
       </c>
       <c r="B100" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R11, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added new media to your Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!R11&amp;""""</f>
+        <v>"{actor} added new media to your Slot: {slot}"</v>
       </c>
     </row>
     <row r="101">
@@ -8383,7 +8187,7 @@
       </c>
       <c r="B101" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!N11, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added new media to your Slot: %{TITLE}"</v>
+        <v>"%{actor} added new media to your Slot: %{slot}"</v>
       </c>
     </row>
     <row r="102">
@@ -8392,8 +8196,8 @@
         <v>slot_media_activity-to-owner_plural:</v>
       </c>
       <c r="B102" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X11, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} added new media to your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!X11&amp;""""</f>
+        <v>"{actor} and {user} added new media to your Slot."</v>
       </c>
     </row>
     <row r="103">
@@ -8402,8 +8206,8 @@
         <v>slot_media_activity-to-owner_aggregate:</v>
       </c>
       <c r="B103" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB11, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{COUNT} others added new media to your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!AB11&amp;""""</f>
+        <v>"{actor} and {count} others added new media to your Slot."</v>
       </c>
     </row>
     <row r="105">
@@ -8412,8 +8216,8 @@
         <v>slot_reslot_me_singular:</v>
       </c>
       <c r="B105" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I12, "{", "%{")&amp;""""</f>
-        <v>"You reslotted the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!I12&amp;""""</f>
+        <v>"You reslotted the Slot: {slot}"</v>
       </c>
     </row>
     <row r="106">
@@ -8422,8 +8226,8 @@
         <v>slot_reslot_activity_singular:</v>
       </c>
       <c r="B106" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U12, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} has reslotted this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!U12&amp;""""</f>
+        <v>"{actor} has reslotted this Slot."</v>
       </c>
     </row>
     <row r="107">
@@ -8432,7 +8236,7 @@
         <v>slot_reslot_notify_singular:</v>
       </c>
       <c r="B107" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q12, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!Q12&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -8443,7 +8247,7 @@
       </c>
       <c r="B108" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!M12, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} reslotted the Slot: %{TITLE}"</v>
+        <v>"%{actor} reslotted the Slot: %{slot}"</v>
       </c>
     </row>
     <row r="109">
@@ -8452,8 +8256,8 @@
         <v>slot_reslot_activity_plural:</v>
       </c>
       <c r="B109" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W12, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} has reslotted this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!W12&amp;""""</f>
+        <v>"{actor} and {user} has reslotted this Slot."</v>
       </c>
     </row>
     <row r="110">
@@ -8462,8 +8266,8 @@
         <v>slot_reslot_activity_aggregate:</v>
       </c>
       <c r="B110" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA12, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{COUNT} others have reslotted this Slot."</v>
+        <f>""""&amp;'Definition (EN)'!AA12&amp;""""</f>
+        <v>"{actor} and {count} others have reslotted this Slot."</v>
       </c>
     </row>
     <row r="111">
@@ -8472,7 +8276,7 @@
         <v>slot_reslot_me-to-owner_singular:</v>
       </c>
       <c r="B111" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J12, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!J12&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -8482,8 +8286,8 @@
         <v>slot_reslot_activity-to-owner_singular:</v>
       </c>
       <c r="B112" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V12, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} has reslotted your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!V12&amp;""""</f>
+        <v>"{actor} has reslotted your Slot."</v>
       </c>
     </row>
     <row r="113">
@@ -8492,8 +8296,8 @@
         <v>slot_reslot_notify-to-owner_singular:</v>
       </c>
       <c r="B113" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R12, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} reslotted your Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!R12&amp;""""</f>
+        <v>"{actor} reslotted your Slot: {slot}"</v>
       </c>
     </row>
     <row r="114">
@@ -8503,7 +8307,7 @@
       </c>
       <c r="B114" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!N12, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} reslotted your Slot: %{TITLE}"</v>
+        <v>"%{actor} reslotted your Slot: %{slot}"</v>
       </c>
     </row>
     <row r="115">
@@ -8512,8 +8316,8 @@
         <v>slot_reslot_activity-to-owner_plural:</v>
       </c>
       <c r="B115" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X12, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} have reslotted your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!X12&amp;""""</f>
+        <v>"{actor} and {user} have reslotted your Slot."</v>
       </c>
     </row>
     <row r="116">
@@ -8522,8 +8326,8 @@
         <v>slot_reslot_activity-to-owner_aggregate:</v>
       </c>
       <c r="B116" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB12, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{COUNT} others have reslotted your Slot."</v>
+        <f>""""&amp;'Definition (EN)'!AB12&amp;""""</f>
+        <v>"{actor} and {count} others have reslotted your Slot."</v>
       </c>
     </row>
     <row r="118">
@@ -8532,7 +8336,7 @@
         <v>user_accept_me_singular:</v>
       </c>
       <c r="B118" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I13, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!I13&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -8542,8 +8346,8 @@
         <v>user_accept_activity_singular:</v>
       </c>
       <c r="B119" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U13, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} are now friends"</v>
+        <f>""""&amp;'Definition (EN)'!U13&amp;""""</f>
+        <v>"{actor} and {user} are now friends"</v>
       </c>
     </row>
     <row r="120">
@@ -8552,8 +8356,8 @@
         <v>user_accept_notify_singular:</v>
       </c>
       <c r="B120" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q13, "{", "%{")&amp;""""</f>
-        <v>"You and %{USER} are now friends"</v>
+        <f>""""&amp;'Definition (EN)'!Q13&amp;""""</f>
+        <v>"You and {user} are now friends"</v>
       </c>
     </row>
     <row r="121">
@@ -8563,7 +8367,7 @@
       </c>
       <c r="B121" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!M13, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} has accepted your friend request"</v>
+        <v>"%{actor} has accepted your friend request"</v>
       </c>
     </row>
     <row r="122">
@@ -8572,8 +8376,8 @@
         <v>user_accept_activity_plural:</v>
       </c>
       <c r="B122" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W13, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} are now friends"</v>
+        <f>""""&amp;'Definition (EN)'!W13&amp;""""</f>
+        <v>"{actor} and {user} are now friends"</v>
       </c>
     </row>
     <row r="123">
@@ -8582,8 +8386,8 @@
         <v>user_accept_activity_aggregate:</v>
       </c>
       <c r="B123" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA13, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} are now friends"</v>
+        <f>""""&amp;'Definition (EN)'!AA13&amp;""""</f>
+        <v>"{actor} and {user} are now friends"</v>
       </c>
     </row>
     <row r="124">
@@ -8592,7 +8396,7 @@
         <v>user_accept_me-to-owner_singular:</v>
       </c>
       <c r="B124" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J13, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!J13&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -8602,8 +8406,8 @@
         <v>user_accept_activity-to-owner_singular:</v>
       </c>
       <c r="B125" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V13, "{", "%{")&amp;""""</f>
-        <v>"You and %{USER} are now friends"</v>
+        <f>""""&amp;'Definition (EN)'!V13&amp;""""</f>
+        <v>"You and {user} are now friends"</v>
       </c>
     </row>
     <row r="126">
@@ -8612,8 +8416,8 @@
         <v>user_accept_notify-to-owner_singular:</v>
       </c>
       <c r="B126" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R13, "{", "%{")&amp;""""</f>
-        <v>"You and %{USER} are now friends"</v>
+        <f>""""&amp;'Definition (EN)'!R13&amp;""""</f>
+        <v>"You and {user} are now friends"</v>
       </c>
     </row>
     <row r="127">
@@ -8623,7 +8427,7 @@
       </c>
       <c r="B127" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!N13, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} has accepted your friend request"</v>
+        <v>"%{actor} has accepted your friend request"</v>
       </c>
     </row>
     <row r="128">
@@ -8632,8 +8436,8 @@
         <v>user_accept_activity-to-owner_plural:</v>
       </c>
       <c r="B128" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X13, "{", "%{")&amp;""""</f>
-        <v>"You and %{USER} are now friends"</v>
+        <f>""""&amp;'Definition (EN)'!X13&amp;""""</f>
+        <v>"You and {user} are now friends"</v>
       </c>
     </row>
     <row r="129">
@@ -8642,8 +8446,8 @@
         <v>user_accept_activity-to-owner_aggregate:</v>
       </c>
       <c r="B129" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB13, "{", "%{")&amp;""""</f>
-        <v>"You and %{USER} are now friends"</v>
+        <f>""""&amp;'Definition (EN)'!AB13&amp;""""</f>
+        <v>"You and {user} are now friends"</v>
       </c>
     </row>
     <row r="131">
@@ -8652,8 +8456,8 @@
         <v>user_friendship_me_singular:</v>
       </c>
       <c r="B131" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I14, "{", "%{")&amp;""""</f>
-        <v>"You accepted the friend request from: %{USER}"</v>
+        <f>""""&amp;'Definition (EN)'!I14&amp;""""</f>
+        <v>"You accepted the friend request from: {user}"</v>
       </c>
     </row>
     <row r="132">
@@ -8662,8 +8466,8 @@
         <v>user_friendship_activity_singular:</v>
       </c>
       <c r="B132" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U14, "{", "%{")&amp;""""</f>
-        <v>"%{USER} and %{ACTOR} are now friends"</v>
+        <f>""""&amp;'Definition (EN)'!U14&amp;""""</f>
+        <v>"{user} and {actor} are now friends"</v>
       </c>
     </row>
     <row r="133">
@@ -8672,8 +8476,8 @@
         <v>user_friendship_notify_singular:</v>
       </c>
       <c r="B133" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q14, "{", "%{")&amp;""""</f>
-        <v>"You and %{ACTOR} are now friends"</v>
+        <f>""""&amp;'Definition (EN)'!Q14&amp;""""</f>
+        <v>"You and {actor} are now friends"</v>
       </c>
     </row>
     <row r="134">
@@ -8692,8 +8496,8 @@
         <v>user_friendship_activity_plural:</v>
       </c>
       <c r="B135" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W14, "{", "%{")&amp;""""</f>
-        <v>"%{USER} and %{ACTOR} are now friends"</v>
+        <f>""""&amp;'Definition (EN)'!W14&amp;""""</f>
+        <v>"{user} and {actor} are now friends"</v>
       </c>
     </row>
     <row r="136">
@@ -8702,8 +8506,8 @@
         <v>user_friendship_activity_aggregate:</v>
       </c>
       <c r="B136" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA14, "{", "%{")&amp;""""</f>
-        <v>"%{USER} and %{ACTOR} are now friends"</v>
+        <f>""""&amp;'Definition (EN)'!AA14&amp;""""</f>
+        <v>"{user} and {actor} are now friends"</v>
       </c>
     </row>
     <row r="137">
@@ -8712,7 +8516,7 @@
         <v>user_friendship_me-to-owner_singular:</v>
       </c>
       <c r="B137" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J14, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!J14&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -8722,8 +8526,8 @@
         <v>user_friendship_activity-to-owner_singular:</v>
       </c>
       <c r="B138" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V14, "{", "%{")&amp;""""</f>
-        <v>"You and %{ACTOR} are now friends"</v>
+        <f>""""&amp;'Definition (EN)'!V14&amp;""""</f>
+        <v>"You and {actor} are now friends"</v>
       </c>
     </row>
     <row r="139">
@@ -8732,8 +8536,8 @@
         <v>user_friendship_notify-to-owner_singular:</v>
       </c>
       <c r="B139" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R14, "{", "%{")&amp;""""</f>
-        <v>"You and %{ACTOR} are now friends"</v>
+        <f>""""&amp;'Definition (EN)'!R14&amp;""""</f>
+        <v>"You and {actor} are now friends"</v>
       </c>
     </row>
     <row r="140">
@@ -8752,8 +8556,8 @@
         <v>user_friendship_activity-to-owner_plural:</v>
       </c>
       <c r="B141" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X14, "{", "%{")&amp;""""</f>
-        <v>"You and %{ACTOR} are now friends"</v>
+        <f>""""&amp;'Definition (EN)'!X14&amp;""""</f>
+        <v>"You and {actor} are now friends"</v>
       </c>
     </row>
     <row r="142">
@@ -8762,8 +8566,8 @@
         <v>user_friendship_activity-to-owner_aggregate:</v>
       </c>
       <c r="B142" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB14, "{", "%{")&amp;""""</f>
-        <v>"You and %{ACTOR} are now friends"</v>
+        <f>""""&amp;'Definition (EN)'!AB14&amp;""""</f>
+        <v>"You and {actor} are now friends"</v>
       </c>
     </row>
     <row r="144">
@@ -8772,8 +8576,8 @@
         <v>group_membership_me_singular:</v>
       </c>
       <c r="B144" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I15, "{", "%{")&amp;""""</f>
-        <v>"You subscribed to the slot group: %{NAME}"</v>
+        <f>""""&amp;'Definition (EN)'!I15&amp;""""</f>
+        <v>"You subscribed to the slot group: {group}"</v>
       </c>
     </row>
     <row r="145">
@@ -8782,8 +8586,8 @@
         <v>group_membership_activity_singular:</v>
       </c>
       <c r="B145" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U15, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} subscribed to the slot group %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!U15&amp;""""</f>
+        <v>"{actor} subscribed to the slot group {group}."</v>
       </c>
     </row>
     <row r="146">
@@ -8792,8 +8596,8 @@
         <v>group_membership_notify_singular:</v>
       </c>
       <c r="B146" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q15, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} subscribed to the slot group %{NAME}"</v>
+        <f>""""&amp;'Definition (EN)'!Q15&amp;""""</f>
+        <v>"{actor} subscribed to the slot group {group}"</v>
       </c>
     </row>
     <row r="147">
@@ -8803,7 +8607,7 @@
       </c>
       <c r="B147" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!M15, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} subscribed to the slot group %{NAME}"</v>
+        <v>"%{actor} subscribed to the slot group %{group}"</v>
       </c>
     </row>
     <row r="148">
@@ -8812,8 +8616,8 @@
         <v>group_membership_activity_plural:</v>
       </c>
       <c r="B148" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W15, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} subscribed to the slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!W15&amp;""""</f>
+        <v>"{actor} and {user} subscribed to the slot group: {group}."</v>
       </c>
     </row>
     <row r="149">
@@ -8822,8 +8626,8 @@
         <v>group_membership_activity_aggregate:</v>
       </c>
       <c r="B149" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA15, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{COUNT} others subscribed to the slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!AA15&amp;""""</f>
+        <v>"{actor} and {count} others subscribed to the slot group: {group}."</v>
       </c>
     </row>
     <row r="150">
@@ -8832,7 +8636,7 @@
         <v>group_membership_me-to-owner_singular:</v>
       </c>
       <c r="B150" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J15, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!J15&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -8842,8 +8646,8 @@
         <v>group_membership_activity-to-owner_singular:</v>
       </c>
       <c r="B151" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V15, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} subscribed to your slot group %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!V15&amp;""""</f>
+        <v>"{actor} subscribed to your slot group {group}."</v>
       </c>
     </row>
     <row r="152">
@@ -8852,8 +8656,8 @@
         <v>group_membership_notify-to-owner_singular:</v>
       </c>
       <c r="B152" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R15, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} subscribed to your slot group %{NAME}"</v>
+        <f>""""&amp;'Definition (EN)'!R15&amp;""""</f>
+        <v>"{actor} subscribed to your slot group {group}"</v>
       </c>
     </row>
     <row r="153">
@@ -8863,7 +8667,7 @@
       </c>
       <c r="B153" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!N15, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} subscribed to your slot group %{NAME}"</v>
+        <v>"%{actor} subscribed to your slot group %{group}"</v>
       </c>
     </row>
     <row r="154">
@@ -8872,8 +8676,8 @@
         <v>group_membership_activity-to-owner_plural:</v>
       </c>
       <c r="B154" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X15, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} subscribed to your slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!X15&amp;""""</f>
+        <v>"{actor} and {user} subscribed to your slot group: {group}."</v>
       </c>
     </row>
     <row r="155">
@@ -8882,8 +8686,8 @@
         <v>group_membership_activity-to-owner_aggregate:</v>
       </c>
       <c r="B155" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB15, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{COUNT} others subscribed to your slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!AB15&amp;""""</f>
+        <v>"{actor} and {count} others subscribed to your slot group: {group}."</v>
       </c>
     </row>
     <row r="157">
@@ -8892,8 +8696,8 @@
         <v>group_membertag_me_singular:</v>
       </c>
       <c r="B157" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I16, "{", "%{")&amp;""""</f>
-        <v>"You added %{USER} to the slot group: %{NAME}"</v>
+        <f>""""&amp;'Definition (EN)'!I16&amp;""""</f>
+        <v>"You added {user} to the slot group: {group}"</v>
       </c>
     </row>
     <row r="158">
@@ -8902,8 +8706,8 @@
         <v>group_membertag_activity_singular:</v>
       </c>
       <c r="B158" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U16, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added %{USER} to the slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!U16&amp;""""</f>
+        <v>"{actor} added {user} to the slot group: {group}."</v>
       </c>
     </row>
     <row r="159">
@@ -8912,8 +8716,8 @@
         <v>group_membertag_notify_singular:</v>
       </c>
       <c r="B159" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q16, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added you to the slot group: %{NAME}"</v>
+        <f>""""&amp;'Definition (EN)'!Q16&amp;""""</f>
+        <v>"{actor} added you to the slot group: {group}"</v>
       </c>
     </row>
     <row r="160">
@@ -8923,7 +8727,7 @@
       </c>
       <c r="B160" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!M16, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added you to the slot group: %{NAME}"</v>
+        <v>"%{actor} added you to the slot group: %{group}"</v>
       </c>
     </row>
     <row r="161">
@@ -8932,8 +8736,8 @@
         <v>group_membertag_activity_plural:</v>
       </c>
       <c r="B161" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W16, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added %{USER} to the slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!W16&amp;""""</f>
+        <v>"{actor} added {user} to the slot group: {group}."</v>
       </c>
     </row>
     <row r="162">
@@ -8942,8 +8746,8 @@
         <v>group_membertag_activity_aggregate:</v>
       </c>
       <c r="B162" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA16, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added %{USER} to the slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!AA16&amp;""""</f>
+        <v>"{actor} added {user} to the slot group: {group}."</v>
       </c>
     </row>
     <row r="163">
@@ -8952,8 +8756,8 @@
         <v>group_membertag_me-to-owner_singular:</v>
       </c>
       <c r="B163" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J16, "{", "%{")&amp;""""</f>
-        <v>"You added %{USER} to your slot group: %{NAME}"</v>
+        <f>""""&amp;'Definition (EN)'!J16&amp;""""</f>
+        <v>"You added {user} to your slot group: {group}"</v>
       </c>
     </row>
     <row r="164">
@@ -8962,8 +8766,8 @@
         <v>group_membertag_activity-to-owner_singular:</v>
       </c>
       <c r="B164" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V16, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added %{USER} to your slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!V16&amp;""""</f>
+        <v>"{actor} added {user} to your slot group: {group}."</v>
       </c>
     </row>
     <row r="165">
@@ -8972,8 +8776,8 @@
         <v>group_membertag_notify-to-owner_singular:</v>
       </c>
       <c r="B165" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R16, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added %{USER} to your slot group: %{NAME}"</v>
+        <f>""""&amp;'Definition (EN)'!R16&amp;""""</f>
+        <v>"{actor} added {user} to your slot group: {group}"</v>
       </c>
     </row>
     <row r="166">
@@ -8992,8 +8796,8 @@
         <v>group_membertag_activity-to-owner_plural:</v>
       </c>
       <c r="B167" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X16, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added %{USER} to your slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!X16&amp;""""</f>
+        <v>"{actor} added {user} to your slot group: {group}."</v>
       </c>
     </row>
     <row r="168">
@@ -9002,8 +8806,8 @@
         <v>group_membertag_activity-to-owner_aggregate:</v>
       </c>
       <c r="B168" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB16, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added %{USER} to your slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!AB16&amp;""""</f>
+        <v>"{actor} added {user} to your slot group: {group}."</v>
       </c>
     </row>
     <row r="170">
@@ -9012,8 +8816,8 @@
         <v>slot_delete_me_singular:</v>
       </c>
       <c r="B170" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I17, "{", "%{")&amp;""""</f>
-        <v>"You deleted the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!I17&amp;""""</f>
+        <v>"You deleted the Slot: {slot}"</v>
       </c>
     </row>
     <row r="171">
@@ -9022,7 +8826,7 @@
         <v>slot_delete_activity_singular:</v>
       </c>
       <c r="B171" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U17, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!U17&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9032,8 +8836,8 @@
         <v>slot_delete_notify_singular:</v>
       </c>
       <c r="B172" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q17, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} deleted the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!Q17&amp;""""</f>
+        <v>"{actor} deleted the Slot: {slot}"</v>
       </c>
     </row>
     <row r="173">
@@ -9043,7 +8847,7 @@
       </c>
       <c r="B173" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!M17, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} deleted the Slot: %{TITLE}"</v>
+        <v>"%{actor} deleted the Slot: %{slot}"</v>
       </c>
     </row>
     <row r="174">
@@ -9052,7 +8856,7 @@
         <v>slot_delete_activity_plural:</v>
       </c>
       <c r="B174" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W17, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!W17&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9062,7 +8866,7 @@
         <v>slot_delete_activity_aggregate:</v>
       </c>
       <c r="B175" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA17, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AA17&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9072,8 +8876,8 @@
         <v>slot_delete_me-to-owner_singular:</v>
       </c>
       <c r="B176" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J17, "{", "%{")&amp;""""</f>
-        <v>"You deleted the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!J17&amp;""""</f>
+        <v>"You deleted the Slot: {slot}"</v>
       </c>
     </row>
     <row r="177">
@@ -9082,7 +8886,7 @@
         <v>slot_delete_activity-to-owner_singular:</v>
       </c>
       <c r="B177" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V17, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!V17&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9092,7 +8896,7 @@
         <v>slot_delete_notify-to-owner_singular:</v>
       </c>
       <c r="B178" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R17, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!R17&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9112,7 +8916,7 @@
         <v>slot_delete_activity-to-owner_plural:</v>
       </c>
       <c r="B180" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X17, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!X17&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9122,7 +8926,7 @@
         <v>slot_delete_activity-to-owner_aggregate:</v>
       </c>
       <c r="B181" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB17, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AB17&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9132,8 +8936,8 @@
         <v>slot_unslot_me_singular:</v>
       </c>
       <c r="B183" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I18, "{", "%{")&amp;""""</f>
-        <v>"You removed the Reslot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!I18&amp;""""</f>
+        <v>"You removed the Reslot: {slot}"</v>
       </c>
     </row>
     <row r="184">
@@ -9142,7 +8946,7 @@
         <v>slot_unslot_activity_singular:</v>
       </c>
       <c r="B184" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U18, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!U18&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9152,7 +8956,7 @@
         <v>slot_unslot_notify_singular:</v>
       </c>
       <c r="B185" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q18, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!Q18&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9172,7 +8976,7 @@
         <v>slot_unslot_activity_plural:</v>
       </c>
       <c r="B187" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W18, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!W18&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9182,7 +8986,7 @@
         <v>slot_unslot_activity_aggregate:</v>
       </c>
       <c r="B188" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA18, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AA18&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9192,8 +8996,8 @@
         <v>slot_unslot_me-to-owner_singular:</v>
       </c>
       <c r="B189" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J18, "{", "%{")&amp;""""</f>
-        <v>"You removed the Reslot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!J18&amp;""""</f>
+        <v>"You removed the Reslot: {slot}"</v>
       </c>
     </row>
     <row r="190">
@@ -9202,7 +9006,7 @@
         <v>slot_unslot_activity-to-owner_singular:</v>
       </c>
       <c r="B190" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V18, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!V18&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9212,7 +9016,7 @@
         <v>slot_unslot_notify-to-owner_singular:</v>
       </c>
       <c r="B191" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R18, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!R18&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9232,7 +9036,7 @@
         <v>slot_unslot_activity-to-owner_plural:</v>
       </c>
       <c r="B193" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X18, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!X18&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9242,7 +9046,7 @@
         <v>slot_unslot_activity-to-owner_aggregate:</v>
       </c>
       <c r="B194" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB18, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AB18&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9252,8 +9056,8 @@
         <v>user_request_me_singular:</v>
       </c>
       <c r="B196" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I19, "{", "%{")&amp;""""</f>
-        <v>"You sent a friend request to %{USER}"</v>
+        <f>""""&amp;'Definition (EN)'!I19&amp;""""</f>
+        <v>"You sent a friend request to {user}"</v>
       </c>
     </row>
     <row r="197">
@@ -9262,7 +9066,7 @@
         <v>user_request_activity_singular:</v>
       </c>
       <c r="B197" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U19, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!U19&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9272,8 +9076,8 @@
         <v>user_request_notify_singular:</v>
       </c>
       <c r="B198" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q19, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} sent a friend request to you"</v>
+        <f>""""&amp;'Definition (EN)'!Q19&amp;""""</f>
+        <v>"{actor} sent a friend request to you"</v>
       </c>
     </row>
     <row r="199">
@@ -9283,7 +9087,7 @@
       </c>
       <c r="B199" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!M19, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} sent a friend request to you"</v>
+        <v>"%{actor} sent a friend request to you"</v>
       </c>
     </row>
     <row r="200">
@@ -9292,7 +9096,7 @@
         <v>user_request_activity_plural:</v>
       </c>
       <c r="B200" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W19, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!W19&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9302,7 +9106,7 @@
         <v>user_request_activity_aggregate:</v>
       </c>
       <c r="B201" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA19, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AA19&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9312,8 +9116,8 @@
         <v>user_request_me-to-owner_singular:</v>
       </c>
       <c r="B202" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J19, "{", "%{")&amp;""""</f>
-        <v>"You sent a friend request to %{USER}"</v>
+        <f>""""&amp;'Definition (EN)'!J19&amp;""""</f>
+        <v>"You sent a friend request to {user}"</v>
       </c>
     </row>
     <row r="203">
@@ -9322,7 +9126,7 @@
         <v>user_request_activity-to-owner_singular:</v>
       </c>
       <c r="B203" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V19, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!V19&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9332,8 +9136,8 @@
         <v>user_request_notify-to-owner_singular:</v>
       </c>
       <c r="B204" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R19, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} sent a friend request to you"</v>
+        <f>""""&amp;'Definition (EN)'!R19&amp;""""</f>
+        <v>"{actor} sent a friend request to you"</v>
       </c>
     </row>
     <row r="205">
@@ -9343,7 +9147,7 @@
       </c>
       <c r="B205" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!N19, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} sent a friend request to you"</v>
+        <v>"%{actor} sent a friend request to you"</v>
       </c>
     </row>
     <row r="206">
@@ -9352,7 +9156,7 @@
         <v>user_request_activity-to-owner_plural:</v>
       </c>
       <c r="B206" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X19, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!X19&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9362,7 +9166,7 @@
         <v>user_request_activity-to-owner_aggregate:</v>
       </c>
       <c r="B207" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB19, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AB19&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9372,8 +9176,8 @@
         <v>slot_private_me_singular:</v>
       </c>
       <c r="B209" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I20, "{", "%{")&amp;""""</f>
-        <v>"You unshared the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!I20&amp;""""</f>
+        <v>"You unshared the Slot: {slot}"</v>
       </c>
     </row>
     <row r="210">
@@ -9382,7 +9186,7 @@
         <v>slot_private_activity_singular:</v>
       </c>
       <c r="B210" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U20, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!U20&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9392,8 +9196,8 @@
         <v>slot_private_notify_singular:</v>
       </c>
       <c r="B211" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q20, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} unshared the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!Q20&amp;""""</f>
+        <v>"{actor} unshared the Slot: {slot}"</v>
       </c>
     </row>
     <row r="212">
@@ -9403,7 +9207,7 @@
       </c>
       <c r="B212" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!M20, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} unshared the Slot: %{TITLE}"</v>
+        <v>"%{actor} unshared the Slot: %{slot}"</v>
       </c>
     </row>
     <row r="213">
@@ -9412,7 +9216,7 @@
         <v>slot_private_activity_plural:</v>
       </c>
       <c r="B213" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W20, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!W20&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9422,7 +9226,7 @@
         <v>slot_private_activity_aggregate:</v>
       </c>
       <c r="B214" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA20, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AA20&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9432,8 +9236,8 @@
         <v>slot_private_me-to-owner_singular:</v>
       </c>
       <c r="B215" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J20, "{", "%{")&amp;""""</f>
-        <v>"You unshared the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!J20&amp;""""</f>
+        <v>"You unshared the Slot: {slot}"</v>
       </c>
     </row>
     <row r="216">
@@ -9442,7 +9246,7 @@
         <v>slot_private_activity-to-owner_singular:</v>
       </c>
       <c r="B216" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V20, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!V20&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9452,7 +9256,7 @@
         <v>slot_private_notify-to-owner_singular:</v>
       </c>
       <c r="B217" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R20, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!R20&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9472,7 +9276,7 @@
         <v>slot_private_activity-to-owner_plural:</v>
       </c>
       <c r="B219" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X20, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!X20&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9482,7 +9286,7 @@
         <v>slot_private_activity-to-owner_aggregate:</v>
       </c>
       <c r="B220" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB20, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AB20&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9492,8 +9296,8 @@
         <v>slot_start_me_singular:</v>
       </c>
       <c r="B222" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I21, "{", "%{")&amp;""""</f>
-        <v>"You changed the start time from the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!I21&amp;""""</f>
+        <v>"You changed the start time from the Slot: {slot}"</v>
       </c>
     </row>
     <row r="223">
@@ -9502,7 +9306,7 @@
         <v>slot_start_activity_singular:</v>
       </c>
       <c r="B223" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U21, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!U21&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9512,8 +9316,8 @@
         <v>slot_start_notify_singular:</v>
       </c>
       <c r="B224" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q21, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} changed the start time of the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!Q21&amp;""""</f>
+        <v>"{actor} changed the start time of the Slot: {slot}"</v>
       </c>
     </row>
     <row r="225">
@@ -9523,7 +9327,7 @@
       </c>
       <c r="B225" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!M21, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} changed the start time of the Slot: %{TITLE}"</v>
+        <v>"%{actor} changed the start time of the Slot: %{slot}"</v>
       </c>
     </row>
     <row r="226">
@@ -9532,7 +9336,7 @@
         <v>slot_start_activity_plural:</v>
       </c>
       <c r="B226" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W21, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!W21&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9542,7 +9346,7 @@
         <v>slot_start_activity_aggregate:</v>
       </c>
       <c r="B227" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA21, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AA21&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9552,8 +9356,8 @@
         <v>slot_start_me-to-owner_singular:</v>
       </c>
       <c r="B228" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J21, "{", "%{")&amp;""""</f>
-        <v>"You changed the start time from the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!J21&amp;""""</f>
+        <v>"You changed the start time from the Slot: {slot}"</v>
       </c>
     </row>
     <row r="229">
@@ -9562,7 +9366,7 @@
         <v>slot_start_activity-to-owner_singular:</v>
       </c>
       <c r="B229" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V21, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!V21&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9572,7 +9376,7 @@
         <v>slot_start_notify-to-owner_singular:</v>
       </c>
       <c r="B230" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R21, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!R21&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9592,7 +9396,7 @@
         <v>slot_start_activity-to-owner_plural:</v>
       </c>
       <c r="B232" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X21, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!X21&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9602,7 +9406,7 @@
         <v>slot_start_activity-to-owner_aggregate:</v>
       </c>
       <c r="B233" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB21, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AB21&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9612,8 +9416,8 @@
         <v>slot_location_me_singular:</v>
       </c>
       <c r="B235" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I22, "{", "%{")&amp;""""</f>
-        <v>"You changed the location from the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!I22&amp;""""</f>
+        <v>"You changed the location from the Slot: {slot}"</v>
       </c>
     </row>
     <row r="236">
@@ -9622,7 +9426,7 @@
         <v>slot_location_activity_singular:</v>
       </c>
       <c r="B236" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U22, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!U22&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9632,8 +9436,8 @@
         <v>slot_location_notify_singular:</v>
       </c>
       <c r="B237" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q22, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} changed the location of the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!Q22&amp;""""</f>
+        <v>"{actor} changed the location of the Slot: {slot}"</v>
       </c>
     </row>
     <row r="238">
@@ -9643,7 +9447,7 @@
       </c>
       <c r="B238" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!M22, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} changed the location of the Slot: %{TITLE}"</v>
+        <v>"%{actor} changed the location of the Slot: %{slot}"</v>
       </c>
     </row>
     <row r="239">
@@ -9652,7 +9456,7 @@
         <v>slot_location_activity_plural:</v>
       </c>
       <c r="B239" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W22, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!W22&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9662,7 +9466,7 @@
         <v>slot_location_activity_aggregate:</v>
       </c>
       <c r="B240" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA22, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AA22&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9672,8 +9476,8 @@
         <v>slot_location_me-to-owner_singular:</v>
       </c>
       <c r="B241" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J22, "{", "%{")&amp;""""</f>
-        <v>"You changed the location from the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!J22&amp;""""</f>
+        <v>"You changed the location from the Slot: {slot}"</v>
       </c>
     </row>
     <row r="242">
@@ -9682,7 +9486,7 @@
         <v>slot_location_activity-to-owner_singular:</v>
       </c>
       <c r="B242" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V22, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!V22&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9692,7 +9496,7 @@
         <v>slot_location_notify-to-owner_singular:</v>
       </c>
       <c r="B243" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R22, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!R22&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9712,7 +9516,7 @@
         <v>slot_location_activity-to-owner_plural:</v>
       </c>
       <c r="B245" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X22, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!X22&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9722,7 +9526,7 @@
         <v>slot_location_activity-to-owner_aggregate:</v>
       </c>
       <c r="B246" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB22, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AB22&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9732,8 +9536,8 @@
         <v>user_unfriend_me_singular:</v>
       </c>
       <c r="B248" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I23, "{", "%{")&amp;""""</f>
-        <v>"You deleted the friendship with: %{USER}"</v>
+        <f>""""&amp;'Definition (EN)'!I23&amp;""""</f>
+        <v>"You deleted the friendship with: {user}"</v>
       </c>
     </row>
     <row r="249">
@@ -9742,7 +9546,7 @@
         <v>user_unfriend_activity_singular:</v>
       </c>
       <c r="B249" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U23, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!U23&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9752,8 +9556,8 @@
         <v>user_unfriend_notify_singular:</v>
       </c>
       <c r="B250" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q23, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} has deleted your friendship"</v>
+        <f>""""&amp;'Definition (EN)'!Q23&amp;""""</f>
+        <v>"{actor} has deleted your friendship"</v>
       </c>
     </row>
     <row r="251">
@@ -9772,7 +9576,7 @@
         <v>user_unfriend_activity_plural:</v>
       </c>
       <c r="B252" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W23, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!W23&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9782,7 +9586,7 @@
         <v>user_unfriend_activity_aggregate:</v>
       </c>
       <c r="B253" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA23, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AA23&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9792,7 +9596,7 @@
         <v>user_unfriend_me-to-owner_singular:</v>
       </c>
       <c r="B254" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J23, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!J23&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9802,7 +9606,7 @@
         <v>user_unfriend_activity-to-owner_singular:</v>
       </c>
       <c r="B255" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V23, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!V23&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9812,8 +9616,8 @@
         <v>user_unfriend_notify-to-owner_singular:</v>
       </c>
       <c r="B256" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R23, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} has deleted your friendship"</v>
+        <f>""""&amp;'Definition (EN)'!R23&amp;""""</f>
+        <v>"{actor} has deleted your friendship"</v>
       </c>
     </row>
     <row r="257">
@@ -9832,7 +9636,7 @@
         <v>user_unfriend_activity-to-owner_plural:</v>
       </c>
       <c r="B258" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X23, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!X23&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9842,7 +9646,7 @@
         <v>user_unfriend_activity-to-owner_aggregate:</v>
       </c>
       <c r="B259" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB23, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AB23&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9852,8 +9656,8 @@
         <v>user_reject_me_singular:</v>
       </c>
       <c r="B261" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I24, "{", "%{")&amp;""""</f>
-        <v>"You rejected a friend request from: %{USER}"</v>
+        <f>""""&amp;'Definition (EN)'!I24&amp;""""</f>
+        <v>"You rejected a friend request from: {user}"</v>
       </c>
     </row>
     <row r="262">
@@ -9862,7 +9666,7 @@
         <v>user_reject_activity_singular:</v>
       </c>
       <c r="B262" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U24, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!U24&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9872,8 +9676,8 @@
         <v>user_reject_notify_singular:</v>
       </c>
       <c r="B263" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q24, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} has rejected your friendship request"</v>
+        <f>""""&amp;'Definition (EN)'!Q24&amp;""""</f>
+        <v>"{actor} has rejected your friendship request"</v>
       </c>
     </row>
     <row r="264">
@@ -9892,7 +9696,7 @@
         <v>user_reject_activity_plural:</v>
       </c>
       <c r="B265" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W24, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!W24&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9902,7 +9706,7 @@
         <v>user_reject_activity_aggregate:</v>
       </c>
       <c r="B266" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA24, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AA24&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9912,7 +9716,7 @@
         <v>user_reject_me-to-owner_singular:</v>
       </c>
       <c r="B267" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J24, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!J24&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9922,7 +9726,7 @@
         <v>user_reject_activity-to-owner_singular:</v>
       </c>
       <c r="B268" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V24, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!V24&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9932,8 +9736,8 @@
         <v>user_reject_notify-to-owner_singular:</v>
       </c>
       <c r="B269" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R24, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} has rejected your friendship request"</v>
+        <f>""""&amp;'Definition (EN)'!R24&amp;""""</f>
+        <v>"{actor} has rejected your friendship request"</v>
       </c>
     </row>
     <row r="270">
@@ -9952,7 +9756,7 @@
         <v>user_reject_activity-to-owner_plural:</v>
       </c>
       <c r="B271" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X24, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!X24&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9962,7 +9766,7 @@
         <v>user_reject_activity-to-owner_aggregate:</v>
       </c>
       <c r="B272" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB24, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AB24&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -9972,8 +9776,8 @@
         <v>slot_tagged_me_singular:</v>
       </c>
       <c r="B274" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I25, "{", "%{")&amp;""""</f>
-        <v>"You tagged %{USER} to the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!I25&amp;""""</f>
+        <v>"You tagged {user} to the Slot: {slot}"</v>
       </c>
     </row>
     <row r="275">
@@ -9982,8 +9786,8 @@
         <v>slot_tagged_activity_singular:</v>
       </c>
       <c r="B275" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U25, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} tagged %{USER} to the Slot: %{TITLE}."</v>
+        <f>""""&amp;'Definition (EN)'!U25&amp;""""</f>
+        <v>"{actor} tagged {user} to the Slot: {slot}."</v>
       </c>
     </row>
     <row r="276">
@@ -9992,8 +9796,8 @@
         <v>slot_tagged_notify_singular:</v>
       </c>
       <c r="B276" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q25, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} tagged you to the Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!Q25&amp;""""</f>
+        <v>"{actor} tagged you to the Slot: {slot}"</v>
       </c>
     </row>
     <row r="277">
@@ -10003,7 +9807,7 @@
       </c>
       <c r="B277" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!M25, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} tagged you to the Slot: %{TITLE}"</v>
+        <v>"%{actor} tagged you to the Slot: %{slot}"</v>
       </c>
     </row>
     <row r="278">
@@ -10012,8 +9816,8 @@
         <v>slot_tagged_activity_plural:</v>
       </c>
       <c r="B278" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W25, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} tagged %{USER} and 1 other to the Slot: %{TITLE}."</v>
+        <f>""""&amp;'Definition (EN)'!W25&amp;""""</f>
+        <v>"{actor} tagged {user} and 1 other to the Slot: {slot}."</v>
       </c>
     </row>
     <row r="279">
@@ -10022,8 +9826,8 @@
         <v>slot_tagged_activity_aggregate:</v>
       </c>
       <c r="B279" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA25, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} tagged %{USER} and %{COUNT} others to the Slot: %{TITLE}."</v>
+        <f>""""&amp;'Definition (EN)'!AA25&amp;""""</f>
+        <v>"{actor} tagged {user} and {count} others to the Slot: {slot}."</v>
       </c>
     </row>
     <row r="280">
@@ -10032,8 +9836,8 @@
         <v>slot_tagged_me-to-owner_singular:</v>
       </c>
       <c r="B280" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J25, "{", "%{")&amp;""""</f>
-        <v>"You tagged %{USER} to your Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!J25&amp;""""</f>
+        <v>"You tagged {user} to your Slot: {slot}"</v>
       </c>
     </row>
     <row r="281">
@@ -10042,8 +9846,8 @@
         <v>slot_tagged_activity-to-owner_singular:</v>
       </c>
       <c r="B281" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V25, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} tagged %{USER} to your Slot: %{TITLE}."</v>
+        <f>""""&amp;'Definition (EN)'!V25&amp;""""</f>
+        <v>"{actor} tagged {user} to your Slot: {slot}."</v>
       </c>
     </row>
     <row r="282">
@@ -10052,8 +9856,8 @@
         <v>slot_tagged_notify-to-owner_singular:</v>
       </c>
       <c r="B282" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R25, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} tagged %{USER} to your Slot: %{TITLE}"</v>
+        <f>""""&amp;'Definition (EN)'!R25&amp;""""</f>
+        <v>"{actor} tagged {user} to your Slot: {slot}"</v>
       </c>
     </row>
     <row r="283">
@@ -10063,7 +9867,7 @@
       </c>
       <c r="B283" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!N25, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} tagged %{USER} to your Slot: %{TITLE}"</v>
+        <v>"%{actor} tagged %{user} to your Slot: %{slot}"</v>
       </c>
     </row>
     <row r="284">
@@ -10072,8 +9876,8 @@
         <v>slot_tagged_activity-to-owner_plural:</v>
       </c>
       <c r="B284" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X25, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} tagged %{USER} and 1 other to your Slot: %{TITLE}."</v>
+        <f>""""&amp;'Definition (EN)'!X25&amp;""""</f>
+        <v>"{actor} tagged {user} and 1 other to your Slot: {slot}."</v>
       </c>
     </row>
     <row r="285">
@@ -10082,8 +9886,8 @@
         <v>slot_tagged_activity-to-owner_aggregate:</v>
       </c>
       <c r="B285" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB25, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} tagged %{USER} and %{COUNT} others to your Slot: %{TITLE}."</v>
+        <f>""""&amp;'Definition (EN)'!AB25&amp;""""</f>
+        <v>"{actor} tagged {user} and {count} others to your Slot: {slot}."</v>
       </c>
     </row>
     <row r="287">
@@ -10092,7 +9896,7 @@
         <v>group_request_me_singular:</v>
       </c>
       <c r="B287" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I26, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!I26&amp;""""</f>
         <v>"TODO-Singular-Me-1"</v>
       </c>
     </row>
@@ -10102,7 +9906,7 @@
         <v>group_request_activity_singular:</v>
       </c>
       <c r="B288" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U26, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!U26&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10112,7 +9916,7 @@
         <v>group_request_notify_singular:</v>
       </c>
       <c r="B289" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q26, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!Q26&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10132,7 +9936,7 @@
         <v>group_request_activity_plural:</v>
       </c>
       <c r="B291" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W26, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!W26&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10142,7 +9946,7 @@
         <v>group_request_activity_aggregate:</v>
       </c>
       <c r="B292" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA26, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AA26&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10152,7 +9956,7 @@
         <v>group_request_me-to-owner_singular:</v>
       </c>
       <c r="B293" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J26, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!J26&amp;""""</f>
         <v>"TODO-Singular-Me-1"</v>
       </c>
     </row>
@@ -10162,7 +9966,7 @@
         <v>group_request_activity-to-owner_singular:</v>
       </c>
       <c r="B294" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V26, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!V26&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10172,7 +9976,7 @@
         <v>group_request_notify-to-owner_singular:</v>
       </c>
       <c r="B295" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R26, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!R26&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10192,7 +9996,7 @@
         <v>group_request_activity-to-owner_plural:</v>
       </c>
       <c r="B297" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X26, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!X26&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10202,7 +10006,7 @@
         <v>group_request_activity-to-owner_aggregate:</v>
       </c>
       <c r="B298" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB26, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AB26&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10212,7 +10016,7 @@
         <v>group_reject_me_singular:</v>
       </c>
       <c r="B300" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I27, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!I27&amp;""""</f>
         <v>"TODO-Singular-Me-2"</v>
       </c>
     </row>
@@ -10222,7 +10026,7 @@
         <v>group_reject_activity_singular:</v>
       </c>
       <c r="B301" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U27, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!U27&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10232,7 +10036,7 @@
         <v>group_reject_notify_singular:</v>
       </c>
       <c r="B302" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q27, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!Q27&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10252,7 +10056,7 @@
         <v>group_reject_activity_plural:</v>
       </c>
       <c r="B304" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W27, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!W27&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10262,7 +10066,7 @@
         <v>group_reject_activity_aggregate:</v>
       </c>
       <c r="B305" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA27, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AA27&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10272,7 +10076,7 @@
         <v>group_reject_me-to-owner_singular:</v>
       </c>
       <c r="B306" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J27, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!J27&amp;""""</f>
         <v>"TODO-Singular-Me-2"</v>
       </c>
     </row>
@@ -10282,7 +10086,7 @@
         <v>group_reject_activity-to-owner_singular:</v>
       </c>
       <c r="B307" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V27, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!V27&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10292,7 +10096,7 @@
         <v>group_reject_notify-to-owner_singular:</v>
       </c>
       <c r="B308" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R27, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!R27&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10312,7 +10116,7 @@
         <v>group_reject_activity-to-owner_plural:</v>
       </c>
       <c r="B310" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X27, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!X27&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10322,7 +10126,7 @@
         <v>group_reject_activity-to-owner_aggregate:</v>
       </c>
       <c r="B311" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB27, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AB27&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10332,7 +10136,7 @@
         <v>group_kick_me_singular:</v>
       </c>
       <c r="B313" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I28, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!I28&amp;""""</f>
         <v>"TODO-Singular-Me-3"</v>
       </c>
     </row>
@@ -10342,7 +10146,7 @@
         <v>group_kick_activity_singular:</v>
       </c>
       <c r="B314" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U28, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!U28&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10352,7 +10156,7 @@
         <v>group_kick_notify_singular:</v>
       </c>
       <c r="B315" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q28, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!Q28&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10372,7 +10176,7 @@
         <v>group_kick_activity_plural:</v>
       </c>
       <c r="B317" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W28, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!W28&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10382,7 +10186,7 @@
         <v>group_kick_activity_aggregate:</v>
       </c>
       <c r="B318" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA28, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AA28&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10392,7 +10196,7 @@
         <v>group_kick_me-to-owner_singular:</v>
       </c>
       <c r="B319" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J28, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!J28&amp;""""</f>
         <v>"TODO-Singular-Me-3"</v>
       </c>
     </row>
@@ -10402,7 +10206,7 @@
         <v>group_kick_activity-to-owner_singular:</v>
       </c>
       <c r="B320" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V28, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!V28&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10412,7 +10216,7 @@
         <v>group_kick_notify-to-owner_singular:</v>
       </c>
       <c r="B321" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R28, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!R28&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10432,7 +10236,7 @@
         <v>group_kick_activity-to-owner_plural:</v>
       </c>
       <c r="B323" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X28, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!X28&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10442,7 +10246,7 @@
         <v>group_kick_activity-to-owner_aggregate:</v>
       </c>
       <c r="B324" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB28, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AB28&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10452,8 +10256,8 @@
         <v>group_leave_me_singular:</v>
       </c>
       <c r="B326" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I29, "{", "%{")&amp;""""</f>
-        <v>"You left the slot group: %{NAME}"</v>
+        <f>""""&amp;'Definition (EN)'!I29&amp;""""</f>
+        <v>"You left the slot group: {group}"</v>
       </c>
     </row>
     <row r="327">
@@ -10462,7 +10266,7 @@
         <v>group_leave_activity_singular:</v>
       </c>
       <c r="B327" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U29, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!U29&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10472,8 +10276,8 @@
         <v>group_leave_notify_singular:</v>
       </c>
       <c r="B328" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q29, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} left the slot group: %{NAME}"</v>
+        <f>""""&amp;'Definition (EN)'!Q29&amp;""""</f>
+        <v>"{actor} left the slot group: {group}"</v>
       </c>
     </row>
     <row r="329">
@@ -10492,7 +10296,7 @@
         <v>group_leave_activity_plural:</v>
       </c>
       <c r="B330" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W29, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!W29&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10502,7 +10306,7 @@
         <v>group_leave_activity_aggregate:</v>
       </c>
       <c r="B331" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA29, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AA29&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10512,7 +10316,7 @@
         <v>group_leave_me-to-owner_singular:</v>
       </c>
       <c r="B332" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J29, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!J29&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10522,7 +10326,7 @@
         <v>group_leave_activity-to-owner_singular:</v>
       </c>
       <c r="B333" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V29, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!V29&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10532,8 +10336,8 @@
         <v>group_leave_notify-to-owner_singular:</v>
       </c>
       <c r="B334" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R29, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} left your slot group: %{NAME}"</v>
+        <f>""""&amp;'Definition (EN)'!R29&amp;""""</f>
+        <v>"{actor} left your slot group: {group}"</v>
       </c>
     </row>
     <row r="335">
@@ -10552,7 +10356,7 @@
         <v>group_leave_activity-to-owner_plural:</v>
       </c>
       <c r="B336" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X29, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!X29&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10562,7 +10366,7 @@
         <v>group_leave_activity-to-owner_aggregate:</v>
       </c>
       <c r="B337" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB29, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AB29&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10572,8 +10376,8 @@
         <v>group_containership_me_singular:</v>
       </c>
       <c r="B339" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I30, "{", "%{")&amp;""""</f>
-        <v>"You added your Slot to the slot group: %{NAME}"</v>
+        <f>""""&amp;'Definition (EN)'!I30&amp;""""</f>
+        <v>"You added your {slot:Slot} to the slot group: {group}"</v>
       </c>
     </row>
     <row r="340">
@@ -10582,8 +10386,8 @@
         <v>group_containership_activity_singular:</v>
       </c>
       <c r="B340" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U30, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a Slot to the slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!U30&amp;""""</f>
+        <v>"{actor} added a {slot:Slot} to the slot group: {group}."</v>
       </c>
     </row>
     <row r="341">
@@ -10592,8 +10396,8 @@
         <v>group_containership_notify_singular:</v>
       </c>
       <c r="B341" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q30, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a Slot to the slot group: %{NAME}"</v>
+        <f>""""&amp;'Definition (EN)'!Q30&amp;""""</f>
+        <v>"{actor} added a {slot:Slot} to the slot group: {group}"</v>
       </c>
     </row>
     <row r="342">
@@ -10603,7 +10407,7 @@
       </c>
       <c r="B342" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!M30, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a Slot to the slot group: %{NAME}"</v>
+        <v>"%{actor} added a Slot to the slot group: %{group}"</v>
       </c>
     </row>
     <row r="343">
@@ -10612,8 +10416,8 @@
         <v>group_containership_activity_plural:</v>
       </c>
       <c r="B343" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W30, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} added a Slot to the slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!W30&amp;""""</f>
+        <v>"{actor} and {user} added a Slot to the slot group: {group}."</v>
       </c>
     </row>
     <row r="344">
@@ -10622,8 +10426,8 @@
         <v>group_containership_activity_aggregate:</v>
       </c>
       <c r="B344" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA30, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{COUNT} others added a Slot to the slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!AA30&amp;""""</f>
+        <v>"{actor} and {count} others added a {slot:Slot} to the slot group: {group}."</v>
       </c>
     </row>
     <row r="345">
@@ -10632,8 +10436,8 @@
         <v>group_containership_me-to-owner_singular:</v>
       </c>
       <c r="B345" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J30, "{", "%{")&amp;""""</f>
-        <v>"You added your Slot to your slot group: %{NAME}"</v>
+        <f>""""&amp;'Definition (EN)'!J30&amp;""""</f>
+        <v>"You added your {slot:Slot} to your slot group: {group}"</v>
       </c>
     </row>
     <row r="346">
@@ -10642,8 +10446,8 @@
         <v>group_containership_activity-to-owner_singular:</v>
       </c>
       <c r="B346" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V30, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a Slot to your slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!V30&amp;""""</f>
+        <v>"{actor} added a {slot:Slot} to your slot group: {group}."</v>
       </c>
     </row>
     <row r="347">
@@ -10652,8 +10456,8 @@
         <v>group_containership_notify-to-owner_singular:</v>
       </c>
       <c r="B347" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R30, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a Slot to your slot group: %{NAME}"</v>
+        <f>""""&amp;'Definition (EN)'!R30&amp;""""</f>
+        <v>"{actor} added a {slot:Slot} to your slot group: {group}"</v>
       </c>
     </row>
     <row r="348">
@@ -10663,7 +10467,7 @@
       </c>
       <c r="B348" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!N30, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a Slot to your slot group: %{NAME}"</v>
+        <v>"%{actor} added a Slot to your slot group: %{group}"</v>
       </c>
     </row>
     <row r="349">
@@ -10672,8 +10476,8 @@
         <v>group_containership_activity-to-owner_plural:</v>
       </c>
       <c r="B349" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X30, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} added a Slot to your slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!X30&amp;""""</f>
+        <v>"{actor} and {user} added a Slot to your slot group: {group}."</v>
       </c>
     </row>
     <row r="350">
@@ -10682,8 +10486,8 @@
         <v>group_containership_activity-to-owner_aggregate:</v>
       </c>
       <c r="B350" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB30, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{COUNT} others added a Slot to your slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!AB30&amp;""""</f>
+        <v>"{actor} and {count} others added a {slot:Slot} to your slot group: {group}."</v>
       </c>
     </row>
     <row r="352">
@@ -10692,8 +10496,8 @@
         <v>group_containertag_me_singular:</v>
       </c>
       <c r="B352" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I31, "{", "%{")&amp;""""</f>
-        <v>"You added a Slot to the slot group: %{NAME}"</v>
+        <f>""""&amp;'Definition (EN)'!I31&amp;""""</f>
+        <v>"You added a {slot:Slot} to the slot group: {group}"</v>
       </c>
     </row>
     <row r="353">
@@ -10702,8 +10506,8 @@
         <v>group_containertag_activity_singular:</v>
       </c>
       <c r="B353" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U31, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a Slot to the slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!U31&amp;""""</f>
+        <v>"{actor} added a {slot:Slot} to the slot group: {group}."</v>
       </c>
     </row>
     <row r="354">
@@ -10712,8 +10516,8 @@
         <v>group_containertag_notify_singular:</v>
       </c>
       <c r="B354" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q31, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a Slot to the slot group: %{NAME}"</v>
+        <f>""""&amp;'Definition (EN)'!Q31&amp;""""</f>
+        <v>"{actor} added a {slot:Slot} to the slot group: {group}"</v>
       </c>
     </row>
     <row r="355">
@@ -10723,7 +10527,7 @@
       </c>
       <c r="B355" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!M31, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a Slot to the slot group: %{NAME}"</v>
+        <v>"%{actor} added a Slot to the slot group: %{group}"</v>
       </c>
     </row>
     <row r="356">
@@ -10732,8 +10536,8 @@
         <v>group_containertag_activity_plural:</v>
       </c>
       <c r="B356" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W31, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} added a Slot to the slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!W31&amp;""""</f>
+        <v>"{actor} and {user} added a Slot to the slot group: {group}."</v>
       </c>
     </row>
     <row r="357">
@@ -10742,8 +10546,8 @@
         <v>group_containertag_activity_aggregate:</v>
       </c>
       <c r="B357" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA31, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{COUNT} others added a Slot to the slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!AA31&amp;""""</f>
+        <v>"{actor} and {count} others added a {slot:Slot} to the slot group: {group}."</v>
       </c>
     </row>
     <row r="358">
@@ -10752,8 +10556,8 @@
         <v>group_containertag_me-to-owner_singular:</v>
       </c>
       <c r="B358" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J31, "{", "%{")&amp;""""</f>
-        <v>"You added a Slot to your slot group: %{NAME}"</v>
+        <f>""""&amp;'Definition (EN)'!J31&amp;""""</f>
+        <v>"You added a {slot:Slot} to your slot group: {group}"</v>
       </c>
     </row>
     <row r="359">
@@ -10762,8 +10566,8 @@
         <v>group_containertag_activity-to-owner_singular:</v>
       </c>
       <c r="B359" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V31, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a Slot to your slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!V31&amp;""""</f>
+        <v>"{actor} added a {slot:Slot} to your slot group: {group}."</v>
       </c>
     </row>
     <row r="360">
@@ -10772,8 +10576,8 @@
         <v>group_containertag_notify-to-owner_singular:</v>
       </c>
       <c r="B360" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R31, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a Slot to your slot group: %{NAME}"</v>
+        <f>""""&amp;'Definition (EN)'!R31&amp;""""</f>
+        <v>"{actor} added a {slot:Slot} to your slot group: {group}"</v>
       </c>
     </row>
     <row r="361">
@@ -10783,7 +10587,7 @@
       </c>
       <c r="B361" t="str">
         <f>""""&amp;SUBSTITUTE('Definition (EN)'!N31, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} added a Slot to your slot group: %{NAME}"</v>
+        <v>"%{actor} added a Slot to your slot group: %{group}"</v>
       </c>
     </row>
     <row r="362">
@@ -10792,8 +10596,8 @@
         <v>group_containertag_activity-to-owner_plural:</v>
       </c>
       <c r="B362" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X31, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{USER} added a Slot to your slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!X31&amp;""""</f>
+        <v>"{actor} and {user} added a Slot to your slot group: {group}."</v>
       </c>
     </row>
     <row r="363">
@@ -10802,8 +10606,8 @@
         <v>group_containertag_activity-to-owner_aggregate:</v>
       </c>
       <c r="B363" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB31, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} and %{COUNT} others added a Slot to your slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!AB31&amp;""""</f>
+        <v>"{actor} and {count} others added a {slot:Slot} to your slot group: {group}."</v>
       </c>
     </row>
     <row r="365">
@@ -10812,8 +10616,8 @@
         <v>group_ungroup_me_singular:</v>
       </c>
       <c r="B365" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I32, "{", "%{")&amp;""""</f>
-        <v>"You removed a Slot from the slot group: %{NAME}"</v>
+        <f>""""&amp;'Definition (EN)'!I32&amp;""""</f>
+        <v>"You removed a {slot:Slot} from the slot group: {group}"</v>
       </c>
     </row>
     <row r="366">
@@ -10822,7 +10626,7 @@
         <v>group_ungroup_activity_singular:</v>
       </c>
       <c r="B366" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U32, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!U32&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10832,7 +10636,7 @@
         <v>group_ungroup_notify_singular:</v>
       </c>
       <c r="B367" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q32, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!Q32&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10852,7 +10656,7 @@
         <v>group_ungroup_activity_plural:</v>
       </c>
       <c r="B369" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W32, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!W32&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10862,7 +10666,7 @@
         <v>group_ungroup_activity_aggregate:</v>
       </c>
       <c r="B370" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA32, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AA32&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10872,8 +10676,8 @@
         <v>group_ungroup_me-to-owner_singular:</v>
       </c>
       <c r="B371" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J32, "{", "%{")&amp;""""</f>
-        <v>"You removed a Slot from your slot group: %{NAME}"</v>
+        <f>""""&amp;'Definition (EN)'!J32&amp;""""</f>
+        <v>"You removed a {slot:Slot} from your slot group: {group}"</v>
       </c>
     </row>
     <row r="372">
@@ -10882,7 +10686,7 @@
         <v>group_ungroup_activity-to-owner_singular:</v>
       </c>
       <c r="B372" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V32, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!V32&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10892,7 +10696,7 @@
         <v>group_ungroup_notify-to-owner_singular:</v>
       </c>
       <c r="B373" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R32, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!R32&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10912,7 +10716,7 @@
         <v>group_ungroup_activity-to-owner_plural:</v>
       </c>
       <c r="B375" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X32, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!X32&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10922,7 +10726,7 @@
         <v>group_ungroup_activity-to-owner_aggregate:</v>
       </c>
       <c r="B376" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB32, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AB32&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10932,8 +10736,8 @@
         <v>group_create_me_singular:</v>
       </c>
       <c r="B378" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!I33, "{", "%{")&amp;""""</f>
-        <v>"You created the slot group: %{NAME}"</v>
+        <f>""""&amp;'Definition (EN)'!I33&amp;""""</f>
+        <v>"You created the slot group: {group}"</v>
       </c>
     </row>
     <row r="379">
@@ -10942,8 +10746,8 @@
         <v>group_create_activity_singular:</v>
       </c>
       <c r="B379" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!U33, "{", "%{")&amp;""""</f>
-        <v>"%{ACTOR} created the slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!U33&amp;""""</f>
+        <v>"{actor} created the slot group: {group}."</v>
       </c>
     </row>
     <row r="380">
@@ -10952,7 +10756,7 @@
         <v>group_create_notify_singular:</v>
       </c>
       <c r="B380" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!Q33, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!Q33&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10972,7 +10776,7 @@
         <v>group_create_activity_plural:</v>
       </c>
       <c r="B382" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!W33, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!W33&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10982,7 +10786,7 @@
         <v>group_create_activity_aggregate:</v>
       </c>
       <c r="B383" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AA33, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AA33&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -10992,8 +10796,8 @@
         <v>group_create_me-to-owner_singular:</v>
       </c>
       <c r="B384" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!J33, "{", "%{")&amp;""""</f>
-        <v>"You created the slot group: %{NAME}"</v>
+        <f>""""&amp;'Definition (EN)'!J33&amp;""""</f>
+        <v>"You created the slot group: {group}"</v>
       </c>
     </row>
     <row r="385">
@@ -11002,8 +10806,8 @@
         <v>group_create_activity-to-owner_singular:</v>
       </c>
       <c r="B385" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!V33, "{", "%{")&amp;""""</f>
-        <v>"You created the slot group: %{NAME}."</v>
+        <f>""""&amp;'Definition (EN)'!V33&amp;""""</f>
+        <v>"You created the slot group: {group}."</v>
       </c>
     </row>
     <row r="386">
@@ -11012,7 +10816,7 @@
         <v>group_create_notify-to-owner_singular:</v>
       </c>
       <c r="B386" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!R33, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!R33&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -11032,7 +10836,7 @@
         <v>group_create_activity-to-owner_plural:</v>
       </c>
       <c r="B388" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!X33, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!X33&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -11042,7 +10846,7 @@
         <v>group_create_activity-to-owner_aggregate:</v>
       </c>
       <c r="B389" t="str">
-        <f>""""&amp;SUBSTITUTE('Definition (EN)'!AB33, "{", "%{")&amp;""""</f>
+        <f>""""&amp;'Definition (EN)'!AB33&amp;""""</f>
         <v>""</v>
       </c>
     </row>
@@ -19675,7 +19479,7 @@
         <v>friends</v>
       </c>
       <c r="P107" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="Q107" t="s">
         <v>288</v>
@@ -22212,12 +22016,12 @@
     </row>
     <row r="3">
       <c r="B3" s="75" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="C3" s="76"/>
       <c r="D3" s="77"/>
       <c r="E3" s="78" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="F3" s="79"/>
       <c r="G3" s="79"/>
@@ -22227,23 +22031,23 @@
       <c r="K3" s="79"/>
       <c r="L3" s="80"/>
       <c r="N3" s="81" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="O3" s="79"/>
       <c r="P3" s="79"/>
       <c r="Q3" s="79"/>
       <c r="R3" s="80"/>
       <c r="T3" s="82" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="U3" s="82" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="V3" s="82" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="W3" s="82" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4">
@@ -22251,39 +22055,39 @@
       <c r="C4" s="76"/>
       <c r="D4" s="68"/>
       <c r="E4" s="84" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F4" s="84" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="G4" s="85"/>
       <c r="H4" s="84" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="I4" s="84" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="J4" s="85"/>
       <c r="K4" s="84" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="L4" s="84" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="N4" s="86" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="O4" s="86" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="P4" s="86" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="Q4" s="86" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="R4" s="86" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="T4" s="87"/>
       <c r="U4" s="87"/>
@@ -22297,46 +22101,46 @@
       <c r="C5" s="89"/>
       <c r="D5" s="90"/>
       <c r="E5" s="41" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G5" s="91"/>
       <c r="H5" s="27" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="J5" s="91"/>
       <c r="K5" s="27" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="L5" s="30"/>
       <c r="N5" s="92" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="O5" s="92"/>
       <c r="P5" s="93" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="Q5" s="92"/>
       <c r="R5" s="94" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="S5" s="27"/>
       <c r="T5" s="95" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="U5" s="96" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="V5" s="95" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="W5" s="95" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6">
@@ -22349,22 +22153,22 @@
         <v>47</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G6" s="91"/>
       <c r="H6" s="27" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="J6" s="91"/>
       <c r="K6" s="27" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="L6" s="30"/>
       <c r="N6" s="98" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="O6" s="99"/>
       <c r="P6" s="98" t="s">
@@ -22372,21 +22176,21 @@
       </c>
       <c r="Q6" s="98"/>
       <c r="R6" s="98" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="S6" s="27"/>
       <c r="T6" s="31" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="U6" s="100"/>
       <c r="V6" s="100"/>
       <c r="W6" s="31" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="101" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="C7" s="97"/>
       <c r="D7" s="102"/>
@@ -22410,7 +22214,7 @@
     </row>
     <row r="8">
       <c r="B8" s="107" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="C8" s="97"/>
       <c r="D8" s="90"/>
@@ -22446,17 +22250,17 @@
         <v>131</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="U8" s="100"/>
       <c r="V8" s="100"/>
       <c r="W8" s="31" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="107" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="C9" s="97"/>
       <c r="D9" s="90"/>
@@ -22475,7 +22279,7 @@
       </c>
       <c r="J9" s="104"/>
       <c r="K9" s="27" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="L9" s="30"/>
       <c r="N9" s="98" t="s">
@@ -22487,25 +22291,25 @@
       </c>
       <c r="Q9" s="98"/>
       <c r="R9" s="108" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="S9" s="27"/>
       <c r="T9" s="31" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="U9" s="108" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="V9" s="108" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="W9" s="31" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="107" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="90"/>
@@ -22524,7 +22328,7 @@
       </c>
       <c r="J10" s="104"/>
       <c r="K10" s="27" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="L10" s="30"/>
       <c r="N10" s="98" t="s">
@@ -22536,20 +22340,20 @@
       </c>
       <c r="Q10" s="98"/>
       <c r="R10" s="93" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="S10" s="27"/>
       <c r="T10" s="31" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="U10" s="96" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="V10" s="31" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="W10" s="31" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11">
@@ -22562,18 +22366,18 @@
         <v>211</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G11" s="91"/>
       <c r="H11" s="27" t="s">
         <v>211</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="J11" s="91"/>
       <c r="K11" s="27" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="L11" s="30"/>
       <c r="N11" s="31" t="s">
@@ -22585,7 +22389,7 @@
       </c>
       <c r="Q11" s="31"/>
       <c r="R11" s="31" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="T11" s="100"/>
       <c r="U11" s="100"/>
@@ -22602,18 +22406,18 @@
         <v>211</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G12" s="91"/>
       <c r="H12" s="27" t="s">
         <v>211</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="J12" s="91"/>
       <c r="K12" s="27" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="L12" s="30"/>
       <c r="N12" s="31" t="s">
@@ -22625,7 +22429,7 @@
       </c>
       <c r="Q12" s="31"/>
       <c r="R12" s="31" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="T12" s="100"/>
       <c r="U12" s="100"/>
@@ -22642,18 +22446,18 @@
         <v>211</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G13" s="91"/>
       <c r="H13" s="27" t="s">
         <v>211</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="J13" s="91"/>
       <c r="K13" s="27" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="L13" s="30"/>
       <c r="N13" s="31" t="s">
@@ -22665,7 +22469,7 @@
       </c>
       <c r="Q13" s="31"/>
       <c r="R13" s="31" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="T13" s="100"/>
       <c r="U13" s="100"/>
@@ -22682,18 +22486,18 @@
         <v>211</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G14" s="91"/>
       <c r="H14" s="27" t="s">
         <v>211</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="J14" s="91"/>
       <c r="K14" s="27" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="L14" s="30"/>
       <c r="N14" s="31" t="s">
@@ -22705,7 +22509,7 @@
       </c>
       <c r="Q14" s="31"/>
       <c r="R14" s="31" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="T14" s="100"/>
       <c r="U14" s="100"/>
@@ -22729,7 +22533,7 @@
       <c r="I15" s="112"/>
       <c r="J15" s="113"/>
       <c r="K15" s="112" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="L15" s="114"/>
       <c r="N15" s="115" t="s">
@@ -22741,7 +22545,7 @@
       </c>
       <c r="Q15" s="115"/>
       <c r="R15" s="115" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="T15" s="100"/>
       <c r="U15" s="100"/>
@@ -22789,12 +22593,12 @@
     </row>
     <row r="17">
       <c r="B17" s="75" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="C17" s="76"/>
       <c r="D17" s="77"/>
       <c r="E17" s="78" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="F17" s="79"/>
       <c r="G17" s="79"/>
@@ -22804,7 +22608,7 @@
       <c r="K17" s="79"/>
       <c r="L17" s="80"/>
       <c r="N17" s="81" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="O17" s="79"/>
       <c r="P17" s="79"/>
@@ -22820,39 +22624,39 @@
       <c r="C18" s="76"/>
       <c r="D18" s="68"/>
       <c r="E18" s="84" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F18" s="84" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="G18" s="85"/>
       <c r="H18" s="84" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="I18" s="84" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="J18" s="85"/>
       <c r="K18" s="84" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="L18" s="84" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="N18" s="86" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="O18" s="86" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="P18" s="86" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="Q18" s="86" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="R18" s="86" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="T18" s="100"/>
       <c r="U18" s="100"/>
@@ -22861,17 +22665,17 @@
     </row>
     <row r="19">
       <c r="B19" s="88" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="C19" s="107" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="D19" s="102"/>
       <c r="E19" s="120" t="s">
         <v>47</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="G19" s="104"/>
       <c r="H19" t="s">
@@ -22880,7 +22684,7 @@
       <c r="I19" s="27"/>
       <c r="J19" s="91"/>
       <c r="K19" s="27" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="L19" s="30"/>
       <c r="N19" s="121" t="s">
@@ -22892,17 +22696,17 @@
       </c>
       <c r="Q19" s="100"/>
       <c r="R19" s="122" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="T19" s="31" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="U19" s="96" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="V19" s="31"/>
       <c r="W19" s="31" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20">
@@ -22915,14 +22719,14 @@
         <v>164</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G20" s="104"/>
       <c r="H20" t="s">
         <v>164</v>
       </c>
       <c r="I20" s="68" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="J20" s="104"/>
       <c r="K20" s="116"/>
@@ -22937,12 +22741,12 @@
       <c r="Q20" s="100"/>
       <c r="R20" s="106"/>
       <c r="T20" s="31" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="U20" s="100"/>
       <c r="V20" s="31"/>
       <c r="W20" s="124" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21">
@@ -22971,24 +22775,24 @@
     </row>
     <row r="22">
       <c r="B22" s="107" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="C22" s="107" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="D22" s="116"/>
       <c r="E22" s="120" t="s">
         <v>164</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G22" s="91"/>
       <c r="H22" t="s">
         <v>164</v>
       </c>
       <c r="I22" s="68" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="J22" s="104"/>
       <c r="K22" s="125" t="s">
@@ -22998,16 +22802,16 @@
         <v>131</v>
       </c>
       <c r="N22" s="98" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="O22" s="99"/>
       <c r="P22" s="98" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="Q22" s="119"/>
       <c r="R22" s="106"/>
       <c r="T22" s="31" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="U22" s="31"/>
       <c r="V22" s="31"/>
@@ -23015,10 +22819,10 @@
     </row>
     <row r="23">
       <c r="B23" s="107" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="C23" s="107" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="D23" s="90"/>
       <c r="E23" s="120"/>
@@ -23027,7 +22831,7 @@
         <v>25</v>
       </c>
       <c r="I23" s="68" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="J23" s="104"/>
       <c r="K23" s="125" t="s">
@@ -23039,12 +22843,12 @@
       <c r="N23" s="106"/>
       <c r="O23" s="106"/>
       <c r="P23" s="98" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="Q23" s="119"/>
       <c r="R23" s="106"/>
       <c r="T23" s="31" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="U23" s="31"/>
       <c r="V23" s="31"/>
@@ -23052,10 +22856,10 @@
     </row>
     <row r="24">
       <c r="B24" s="88" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="C24" s="107" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="D24" s="102"/>
       <c r="E24" s="103"/>
@@ -23078,7 +22882,7 @@
     </row>
     <row r="25">
       <c r="B25" s="107" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C25" s="97"/>
       <c r="D25" s="102"/>
@@ -23086,14 +22890,14 @@
         <v>184</v>
       </c>
       <c r="F25" s="91" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G25" s="91"/>
       <c r="H25" s="91" t="s">
         <v>184</v>
       </c>
       <c r="I25" s="91" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="J25" s="91"/>
       <c r="K25" s="91" t="s">
@@ -23112,7 +22916,7 @@
     </row>
     <row r="26">
       <c r="B26" s="107" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="C26" s="97"/>
       <c r="D26" s="102"/>
@@ -23120,18 +22924,18 @@
         <v>184</v>
       </c>
       <c r="F26" s="91" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G26" s="91"/>
       <c r="H26" s="91" t="s">
         <v>184</v>
       </c>
       <c r="I26" s="91" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="J26" s="91"/>
       <c r="K26" s="91" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="L26" s="128"/>
       <c r="N26" s="106"/>
@@ -23146,7 +22950,7 @@
     </row>
     <row r="27">
       <c r="B27" s="107" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="C27" s="97"/>
       <c r="D27" s="102"/>
@@ -23154,18 +22958,18 @@
         <v>184</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G27" s="91"/>
       <c r="H27" s="68" t="s">
         <v>184</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="J27" s="91"/>
       <c r="K27" s="27" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="L27" s="30"/>
       <c r="N27" s="130" t="s">
@@ -23177,10 +22981,10 @@
       </c>
       <c r="Q27" s="131"/>
       <c r="R27" s="132" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="T27" s="31" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="U27" s="100"/>
       <c r="V27" s="100"/>
@@ -23191,7 +22995,7 @@
         <v>194</v>
       </c>
       <c r="C28" s="107" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="D28" s="102"/>
       <c r="E28" s="103"/>
@@ -23211,12 +23015,12 @@
       <c r="U28" s="100"/>
       <c r="V28" s="100"/>
       <c r="W28" s="31" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="107" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C29" s="97"/>
       <c r="D29" s="102"/>
@@ -23224,14 +23028,14 @@
         <v>200</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G29" s="91"/>
       <c r="H29" s="27" t="s">
         <v>200</v>
       </c>
       <c r="I29" s="27" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="J29" s="91"/>
       <c r="K29" s="27" t="s">
@@ -23242,32 +23046,32 @@
         <v>200</v>
       </c>
       <c r="O29" s="99" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="P29" s="98" t="s">
         <v>200</v>
       </c>
       <c r="Q29" s="98" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="R29" s="98" t="s">
         <v>288</v>
       </c>
       <c r="S29" s="27"/>
       <c r="T29" s="31" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="U29" s="31"/>
       <c r="V29" s="31" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="W29" s="133" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="107" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="102"/>
@@ -23275,18 +23079,18 @@
         <v>200</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G30" s="91"/>
       <c r="H30" s="27" t="s">
         <v>200</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="J30" s="91"/>
       <c r="K30" s="27" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="L30" s="30"/>
       <c r="N30" s="106"/>
@@ -23298,13 +23102,13 @@
       <c r="T30" s="31"/>
       <c r="U30" s="31"/>
       <c r="V30" s="31" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="W30" s="100"/>
     </row>
     <row r="31">
       <c r="B31" s="107" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="C31" s="97"/>
       <c r="D31" s="102"/>
@@ -23312,38 +23116,38 @@
         <v>200</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G31" s="91"/>
       <c r="H31" s="27" t="s">
         <v>200</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="J31" s="91"/>
       <c r="K31" s="27" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="L31" s="30"/>
       <c r="N31" s="98" t="s">
         <v>200</v>
       </c>
       <c r="O31" s="99" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="P31" s="98" t="s">
         <v>200</v>
       </c>
       <c r="Q31" s="98" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="R31" s="132" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="S31" s="27"/>
       <c r="T31" s="31" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="U31" s="100"/>
       <c r="V31" s="31"/>
@@ -23359,7 +23163,7 @@
         <v>211</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G32" s="104"/>
       <c r="H32" t="s">
@@ -23442,7 +23246,7 @@
     </row>
     <row r="35">
       <c r="B35" s="134" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="C35" s="97"/>
       <c r="D35" s="102"/>
@@ -23517,7 +23321,7 @@
         <v>256</v>
       </c>
       <c r="C38" s="107" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="D38" s="102"/>
       <c r="E38" s="103"/>
@@ -23536,13 +23340,13 @@
       <c r="T38" s="100"/>
       <c r="U38" s="100"/>
       <c r="V38" s="31" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="W38" s="100"/>
     </row>
     <row r="39">
       <c r="B39" s="107" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C39" s="97"/>
       <c r="D39" s="102"/>
@@ -23556,33 +23360,33 @@
       <c r="I39" s="68"/>
       <c r="J39" s="91"/>
       <c r="K39" s="125" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="L39" s="126"/>
       <c r="N39" s="122" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="O39" s="136"/>
       <c r="P39" s="122" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="Q39" s="136"/>
       <c r="R39" s="122" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="S39" s="47"/>
       <c r="T39" s="31" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="U39" s="96" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="V39" s="137"/>
       <c r="W39" s="100"/>
     </row>
     <row r="40">
       <c r="B40" s="107" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="C40" s="97"/>
       <c r="D40" s="102"/>
@@ -23596,41 +23400,41 @@
       <c r="I40" s="68"/>
       <c r="J40" s="91"/>
       <c r="K40" s="125" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="L40" s="126"/>
       <c r="N40" s="138" t="s">
         <v>200</v>
       </c>
       <c r="O40" s="139" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="P40" s="138" t="s">
         <v>200</v>
       </c>
       <c r="Q40" s="138" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="R40" s="108" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="S40" s="47"/>
       <c r="T40" s="31" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="U40" s="108" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="V40" s="108" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="W40" s="31" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="107" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="C41" s="97"/>
       <c r="D41" s="102"/>
@@ -23644,32 +23448,32 @@
       <c r="I41" s="68"/>
       <c r="J41" s="91"/>
       <c r="K41" s="125" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="L41" s="126"/>
       <c r="N41" s="138" t="s">
         <v>200</v>
       </c>
       <c r="O41" s="139" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="P41" s="138" t="s">
         <v>200</v>
       </c>
       <c r="Q41" s="138" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="R41" s="98" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="S41" s="47"/>
       <c r="T41" s="31" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="U41" s="140"/>
       <c r="V41" s="31"/>
       <c r="W41" s="31" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
     </row>
     <row r="42">
@@ -23761,7 +23565,7 @@
         <v>184</v>
       </c>
       <c r="I45" s="68" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="J45" s="104"/>
       <c r="K45" s="68" t="s">
@@ -23771,7 +23575,7 @@
         <v>131</v>
       </c>
       <c r="N45" s="122" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="O45" s="121"/>
       <c r="P45" s="119"/>
@@ -23785,10 +23589,10 @@
     </row>
     <row r="46">
       <c r="B46" s="141" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="C46" s="107" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="D46" s="102"/>
       <c r="E46" s="103"/>
@@ -23811,7 +23615,7 @@
     </row>
     <row r="47">
       <c r="B47" s="107" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C47" s="97"/>
       <c r="D47" s="102"/>
@@ -23819,7 +23623,7 @@
         <v>288</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G47" s="104"/>
       <c r="H47" t="s">
@@ -23834,7 +23638,7 @@
         <v>288</v>
       </c>
       <c r="O47" s="99" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="P47" s="98" t="s">
         <v>288</v>
@@ -23845,7 +23649,7 @@
       </c>
       <c r="S47" s="47"/>
       <c r="T47" s="31" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="U47" s="140"/>
       <c r="V47" s="140"/>
@@ -23853,7 +23657,7 @@
     </row>
     <row r="48">
       <c r="B48" s="107" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="C48" s="97"/>
       <c r="D48" s="102"/>
@@ -23861,7 +23665,7 @@
         <v>288</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G48" s="104"/>
       <c r="H48" t="s">
@@ -23870,37 +23674,37 @@
       <c r="I48" s="27"/>
       <c r="J48" s="91"/>
       <c r="K48" s="27" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="L48" s="30"/>
       <c r="N48" s="98" t="s">
         <v>288</v>
       </c>
       <c r="O48" s="99" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="P48" s="98" t="s">
         <v>288</v>
       </c>
       <c r="Q48" s="131"/>
       <c r="R48" s="108" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="S48" s="47"/>
       <c r="T48" s="31" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="U48" s="108" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="V48" s="108" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="W48" s="31"/>
     </row>
     <row r="49">
       <c r="B49" s="107" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="C49" s="97"/>
       <c r="D49" s="102"/>
@@ -23908,7 +23712,7 @@
         <v>288</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G49" s="104"/>
       <c r="H49" t="s">
@@ -23917,25 +23721,25 @@
       <c r="I49" s="27"/>
       <c r="J49" s="91"/>
       <c r="K49" s="27" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="L49" s="30"/>
       <c r="N49" s="98" t="s">
         <v>288</v>
       </c>
       <c r="O49" s="99" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="P49" s="98" t="s">
         <v>288</v>
       </c>
       <c r="Q49" s="136"/>
       <c r="R49" s="98" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="S49" s="47"/>
       <c r="T49" s="31" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="U49" s="140"/>
       <c r="V49" s="140"/>
@@ -23943,10 +23747,10 @@
     </row>
     <row r="50">
       <c r="B50" s="141" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C50" s="107" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="D50" s="102"/>
       <c r="E50" s="103"/>
@@ -23969,7 +23773,7 @@
     </row>
     <row r="51">
       <c r="B51" s="107" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C51" s="97"/>
       <c r="D51" s="102"/>
@@ -23990,7 +23794,7 @@
         <v>288</v>
       </c>
       <c r="O51" s="139" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="P51" s="98" t="s">
         <v>288</v>
@@ -24006,7 +23810,7 @@
     </row>
     <row r="52">
       <c r="B52" s="107" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="C52" s="97"/>
       <c r="D52" s="102"/>
@@ -24020,32 +23824,32 @@
       <c r="I52" s="27"/>
       <c r="J52" s="91"/>
       <c r="K52" s="27" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="L52" s="30"/>
       <c r="N52" s="122" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="O52" s="99" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="P52" s="122" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="Q52" s="31"/>
       <c r="R52" s="98" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="T52" s="100"/>
       <c r="U52" s="96" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="V52" s="100"/>
       <c r="W52" s="100"/>
     </row>
     <row r="53">
       <c r="B53" s="107" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="C53" s="97"/>
       <c r="D53" s="102"/>
@@ -24059,32 +23863,32 @@
       <c r="I53" s="27"/>
       <c r="J53" s="91"/>
       <c r="K53" s="27" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="L53" s="30"/>
       <c r="N53" s="122" t="s">
         <v>288</v>
       </c>
       <c r="O53" s="139" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="P53" s="122" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="Q53" s="131"/>
       <c r="R53" s="143" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="T53" s="100"/>
       <c r="U53" s="96" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="V53" s="100"/>
       <c r="W53" s="100"/>
     </row>
     <row r="54">
       <c r="B54" s="144" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C54" s="97"/>
       <c r="D54" s="102"/>
@@ -24108,7 +23912,7 @@
     </row>
     <row r="55">
       <c r="B55" s="141" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="C55" s="97"/>
       <c r="D55" s="102"/>
@@ -24145,7 +23949,7 @@
     </row>
     <row r="56">
       <c r="B56" s="145" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="C56" s="110"/>
       <c r="D56" s="102"/>
@@ -24156,7 +23960,7 @@
       <c r="I56" s="149"/>
       <c r="J56" s="113"/>
       <c r="K56" s="149" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="L56" s="150"/>
       <c r="N56" s="151"/>
@@ -24164,17 +23968,17 @@
       <c r="P56" s="151"/>
       <c r="Q56" s="151"/>
       <c r="R56" s="152" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="T56" s="31" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="U56" s="96" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="V56" s="153"/>
       <c r="W56" s="154" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
     </row>
     <row r="57">
@@ -30028,58 +29832,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="155" t="s">
+        <v>595</v>
+      </c>
+      <c r="B1" s="156" t="s">
         <v>581</v>
       </c>
-      <c r="B1" s="156" t="s">
-        <v>567</v>
-      </c>
       <c r="C1" s="157" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="N1" s="158"/>
       <c r="P1" s="159" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" s="22" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="E2" s="160"/>
       <c r="F2" s="161" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="G2" s="161" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="H2" s="160"/>
       <c r="I2" s="161" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="J2" s="161" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="K2" s="160"/>
       <c r="L2" s="161" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="M2" s="161" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="N2" s="36" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="P2" s="160" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="Q2" s="160" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="R2" s="160" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="S2" s="162"/>
     </row>
@@ -30088,17 +29892,17 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="27" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="G3" s="43" t="str">
         <f t="shared" ref="G3:G10" si="1">B3</f>
@@ -30106,7 +29910,7 @@
       </c>
       <c r="H3" s="36"/>
       <c r="I3" s="27" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="J3" s="43" t="str">
         <f t="shared" ref="J3:J10" si="2">LOWER(G3)&amp;"@ts.com"</f>
@@ -30114,19 +29918,19 @@
       </c>
       <c r="K3" s="158"/>
       <c r="L3" s="43" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="M3" s="43" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="Q3" s="43" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="R3" s="43" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="S3" s="163"/>
     </row>
@@ -30135,17 +29939,17 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="27" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="G4" s="43" t="str">
         <f t="shared" si="1"/>
@@ -30153,7 +29957,7 @@
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="27" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="J4" s="43" t="str">
         <f t="shared" si="2"/>
@@ -30161,16 +29965,16 @@
       </c>
       <c r="K4" s="158"/>
       <c r="L4" s="43" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="M4" s="43" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>164</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="R4" s="27" t="s">
         <v>131</v>
@@ -30181,17 +29985,17 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="27" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="G5" s="43" t="str">
         <f t="shared" si="1"/>
@@ -30199,7 +30003,7 @@
       </c>
       <c r="H5" s="36"/>
       <c r="I5" s="27" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="J5" s="43" t="str">
         <f t="shared" si="2"/>
@@ -30207,17 +30011,17 @@
       </c>
       <c r="K5" s="158"/>
       <c r="L5" s="43" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="M5" s="43" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="N5" s="27"/>
       <c r="P5" s="27" t="s">
         <v>47</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="R5" s="27" t="s">
         <v>131</v>
@@ -30228,17 +30032,17 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="E6" s="158"/>
       <c r="F6" s="27" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="G6" s="43" t="str">
         <f t="shared" si="1"/>
@@ -30246,7 +30050,7 @@
       </c>
       <c r="H6" s="36"/>
       <c r="I6" s="27" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="J6" s="43" t="str">
         <f t="shared" si="2"/>
@@ -30254,17 +30058,17 @@
       </c>
       <c r="K6" s="158"/>
       <c r="L6" s="43" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="M6" s="43" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="N6" s="27"/>
       <c r="P6" s="27" t="s">
         <v>181</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="R6" s="27" t="s">
         <v>131</v>
@@ -30275,17 +30079,17 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="27" t="s">
+        <v>621</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>607</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>593</v>
-      </c>
       <c r="D7" s="27" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="E7" s="158"/>
       <c r="F7" s="27" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="G7" s="43" t="str">
         <f t="shared" si="1"/>
@@ -30293,7 +30097,7 @@
       </c>
       <c r="H7" s="36"/>
       <c r="I7" s="27" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="J7" s="43" t="str">
         <f t="shared" si="2"/>
@@ -30301,17 +30105,17 @@
       </c>
       <c r="K7" s="158"/>
       <c r="L7" s="43" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="M7" s="43" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="N7" s="27"/>
       <c r="P7" s="27" t="s">
         <v>66</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="R7" s="27" t="s">
         <v>131</v>
@@ -30322,17 +30126,17 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="E8" s="158"/>
       <c r="F8" s="27" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="G8" s="43" t="str">
         <f t="shared" si="1"/>
@@ -30340,7 +30144,7 @@
       </c>
       <c r="H8" s="158"/>
       <c r="I8" s="27" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="J8" s="43" t="str">
         <f t="shared" si="2"/>
@@ -30348,20 +30152,20 @@
       </c>
       <c r="K8" s="158"/>
       <c r="L8" s="43" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="M8" s="43" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="N8" s="27"/>
       <c r="P8" s="27" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="R8" s="27" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9">
@@ -30369,17 +30173,17 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="E9" s="158"/>
       <c r="F9" s="27" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="G9" s="43" t="str">
         <f t="shared" si="1"/>
@@ -30387,7 +30191,7 @@
       </c>
       <c r="H9" s="158"/>
       <c r="I9" s="27" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="J9" s="43" t="str">
         <f t="shared" si="2"/>
@@ -30395,10 +30199,10 @@
       </c>
       <c r="K9" s="158"/>
       <c r="L9" s="43" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="N9" s="27"/>
     </row>
@@ -30407,17 +30211,17 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="E10" s="158"/>
       <c r="F10" s="27" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="G10" s="43" t="str">
         <f t="shared" si="1"/>
@@ -30425,7 +30229,7 @@
       </c>
       <c r="H10" s="158"/>
       <c r="I10" s="27" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="J10" s="43" t="str">
         <f t="shared" si="2"/>
@@ -30433,14 +30237,14 @@
       </c>
       <c r="K10" s="158"/>
       <c r="L10" s="43" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="N10" s="27"/>
       <c r="P10" s="159" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" ht="8.25" customHeight="1">
@@ -30459,13 +30263,13 @@
       <c r="M11" s="158"/>
       <c r="N11" s="158"/>
       <c r="P11" s="160" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="Q11" s="160" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="R11" s="160" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12">
@@ -30473,13 +30277,13 @@
         <v>9.0</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="27" t="s">
@@ -30490,23 +30294,23 @@
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="27" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="K12" s="36"/>
       <c r="L12" s="27" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="M12" s="43" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P12" s="27" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="Q12" s="43" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="R12" s="27" t="s">
         <v>131</v>
@@ -30517,13 +30321,13 @@
         <v>10.0</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="27" t="s">
@@ -30534,23 +30338,23 @@
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="27" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="K13" s="36"/>
       <c r="L13" s="27" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="M13" s="43" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="P13" s="27" t="s">
         <v>164</v>
       </c>
       <c r="Q13" s="27" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="R13" s="27" t="s">
         <v>131</v>
@@ -30561,13 +30365,13 @@
         <v>11.0</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="27" t="s">
@@ -30578,23 +30382,23 @@
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="27" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="K14" s="36"/>
       <c r="L14" s="27" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="M14" s="43" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="P14" s="27" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="Q14" s="27" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="R14" s="27" t="s">
         <v>131</v>
@@ -30605,13 +30409,13 @@
         <v>12.0</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="27" t="s">
@@ -30622,14 +30426,14 @@
       </c>
       <c r="H15" s="36"/>
       <c r="I15" s="27" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="K15" s="36"/>
       <c r="L15" s="27" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="M15" s="43" t="s">
         <v>233</v>
@@ -30638,7 +30442,7 @@
         <v>181</v>
       </c>
       <c r="Q15" s="27" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="R15" s="27" t="s">
         <v>131</v>
@@ -30663,7 +30467,7 @@
         <v>66</v>
       </c>
       <c r="Q16" s="27" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="R16" s="27" t="s">
         <v>131</v>
@@ -30674,13 +30478,13 @@
         <v>13.0</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="E17" s="158"/>
       <c r="F17" s="27" t="s">
@@ -30691,26 +30495,26 @@
       </c>
       <c r="H17" s="36"/>
       <c r="I17" s="27" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="J17" s="43" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="K17" s="36"/>
       <c r="L17" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="M17" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="P17" s="27" t="s">
         <v>610</v>
       </c>
-      <c r="M17" s="43" t="s">
-        <v>331</v>
-      </c>
-      <c r="P17" s="27" t="s">
-        <v>596</v>
-      </c>
       <c r="Q17" s="27" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="R17" s="43" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
     </row>
     <row r="18">
@@ -30718,13 +30522,13 @@
         <v>14.0</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="E18" s="158"/>
       <c r="F18" s="27" t="s">
@@ -30735,26 +30539,26 @@
       </c>
       <c r="H18" s="36"/>
       <c r="I18" s="27" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="J18" s="43" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="K18" s="36"/>
       <c r="L18" s="27" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="M18" s="43" t="s">
         <v>233</v>
       </c>
       <c r="P18" s="43" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="Q18" s="27" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="R18" s="43" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
     </row>
     <row r="19">
@@ -30762,13 +30566,13 @@
         <v>15.0</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="E19" s="158"/>
       <c r="F19" s="27" t="s">
@@ -30791,13 +30595,13 @@
         <v>16.0</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="E20" s="158"/>
       <c r="F20" s="27" t="s">
@@ -30815,7 +30619,7 @@
       </c>
       <c r="K20" s="158"/>
       <c r="P20" s="159" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
     </row>
     <row r="21">
@@ -30823,13 +30627,13 @@
       <c r="H21" s="158"/>
       <c r="K21" s="158"/>
       <c r="P21" s="160" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="Q21" s="160" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="R21" s="160" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
     </row>
     <row r="22">
@@ -30838,13 +30642,13 @@
       <c r="H22" s="158"/>
       <c r="K22" s="158"/>
       <c r="P22" s="27" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="Q22" s="43" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="R22" s="43" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
     </row>
     <row r="23">
@@ -30856,7 +30660,7 @@
         <v>164</v>
       </c>
       <c r="Q23" s="27" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="R23" s="27" t="s">
         <v>131</v>
@@ -30871,7 +30675,7 @@
         <v>184</v>
       </c>
       <c r="Q24" s="27" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="R24" s="27" t="s">
         <v>131</v>
@@ -30886,7 +30690,7 @@
         <v>181</v>
       </c>
       <c r="Q25" s="27" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="R25" s="27" t="s">
         <v>131</v>
@@ -30901,7 +30705,7 @@
         <v>66</v>
       </c>
       <c r="Q26" s="27" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="R26" s="27" t="s">
         <v>131</v>
@@ -30913,13 +30717,13 @@
       <c r="H27" s="158"/>
       <c r="K27" s="158"/>
       <c r="P27" s="27" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="Q27" s="27" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="R27" s="27" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28">
@@ -36820,33 +36624,33 @@
       <c r="C1" s="169"/>
       <c r="D1" s="170"/>
       <c r="E1" s="5" t="s">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="H1" s="171"/>
       <c r="I1" s="172" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="M1" s="171"/>
     </row>
     <row r="2">
       <c r="A2" s="168" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="B2" s="168" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="C2" s="169"/>
       <c r="D2" s="170" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="E2" s="173" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="F2" s="173" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="173" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="174" t="s">
@@ -36856,10 +36660,10 @@
         <v>17</v>
       </c>
       <c r="K2" s="174" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="L2" s="174" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
@@ -36871,17 +36675,17 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>131</v>
@@ -36909,7 +36713,7 @@
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
     </row>
     <row r="5">
@@ -36918,7 +36722,7 @@
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="G5" s="27" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6">
@@ -36926,7 +36730,7 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>131</v>
@@ -36938,7 +36742,7 @@
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
     </row>
     <row r="8">
@@ -36947,7 +36751,7 @@
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
     </row>
     <row r="9">
@@ -36955,7 +36759,7 @@
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>131</v>
@@ -36967,7 +36771,7 @@
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
     </row>
     <row r="11">
@@ -36976,7 +36780,7 @@
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
     </row>
     <row r="12">
@@ -36984,7 +36788,7 @@
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27" t="s">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>131</v>
@@ -36996,7 +36800,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
     </row>
     <row r="14">
@@ -37005,7 +36809,7 @@
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
     </row>
     <row r="15">
@@ -37013,7 +36817,7 @@
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>131</v>
@@ -37025,7 +36829,7 @@
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
     </row>
     <row r="17">
@@ -37034,7 +36838,7 @@
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
     </row>
     <row r="18">
@@ -37330,24 +37134,24 @@
     </row>
     <row r="2">
       <c r="A2" s="168" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="B2" s="168" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="C2" s="169"/>
       <c r="D2" s="170" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="E2" s="173" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="F2" s="27"/>
       <c r="G2" s="175" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="H2" s="176" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
@@ -37358,116 +37162,116 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="27" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE('Definition (EN)'!U4,"{ACTOR}",E3),"{USER}",E3),"{COUNT}",COUNTIF($D$2:D2,D3)-1)</f>
-        <v>Anton commented on this Slot.</v>
+        <v>{actor} commented on this Slot.</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="177" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="27" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE('Definition (EN)'!U5,"{ACTOR}",E4),"{USER}",E4),"{COUNT}",COUNTIF($D$2:D3,D4)-1)</f>
-        <v>Bert likes this Slot.</v>
+        <v>{actor} likes this Slot.</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="178" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="27" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE('Definition (EN)'!W4,"{ACTOR}",E5),"{USER}",E3),"{COUNT}",COUNTIF($D$2:D5,D5)-1)</f>
-        <v>Chris and Anton commented on this Slot.</v>
+        <v>{actor} and {user} commented on this Slot.</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="178" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="27" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE('Definition (EN)'!W5,"{ACTOR}",E6),"{USER}",E4),"{COUNT}",COUNTIF($D$2:D6,D6)-1)</f>
-        <v>Danny and Bert like this Slot.</v>
+        <v>{actor} and {user} like this Slot.</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="177" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE('Definition (EN)'!AA4,"{ACTOR}",E7),"{USER}",E5),"{COUNT}",COUNTIF($D$2:D7,D7)-1)</f>
-        <v>Emil and 2 others commented on this Slot.</v>
+        <v>{actor} and {count} others commented on this Slot.</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="177" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE('Definition (EN)'!AA5,"{ACTOR}",E8),"{USER}",E6),"{COUNT}",COUNTIF($D$2:D8,D8)-1)</f>
-        <v>Felix and 2 others like this Slot.</v>
+        <v>{actor} and {count} others like this Slot.</v>
       </c>
     </row>
     <row r="9">
@@ -37476,14 +37280,14 @@
         <v>24</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE('Definition (EN)'!AA4,"{ACTOR}",E9),"{USER}",E7),"{COUNT}",COUNTIF($D$2:D9,D9)-1)</f>
-        <v>Gerd and 3 others commented on this Slot.</v>
+        <v>{actor} and {count} others commented on this Slot.</v>
       </c>
     </row>
     <row r="10">
@@ -37492,14 +37296,14 @@
         <v>44</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>12</v>
       </c>
       <c r="H10" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE('Definition (EN)'!AA5,"{ACTOR}",E10),"{USER}",E8),"{COUNT}",COUNTIF($D$2:D10,D10)-1)</f>
-        <v>Hans and 3 others like this Slot.</v>
+        <v>{actor} and {count} others like this Slot.</v>
       </c>
     </row>
     <row r="11">
